--- a/gd/宠物系统/宠物图鉴设计.xlsx
+++ b/gd/宠物系统/宠物图鉴设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="4" r:id="rId1"/>
@@ -28,805 +28,798 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="421">
   <si>
     <t>进入</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>标题</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>多语言ID</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>符合通用文字缩放规则</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>详见文档《宠物界面》的“玩家拥有宠物界面”切页</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>图鉴</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴评审</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴的页签建议和宠物列表保持统一，要是用图都用图，要是用文字都用问题。没有“全部”？</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>解决方案</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>合成出来都是白色宠物么？碎片数量区别用途是？都是白色的话图鉴有点没吸引力</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴界面彩色和灰色头像区别是什么？灰色看起来像不能点击</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴排序规则是？</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>收集宠物的数量是代表种类是么？</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>有万能碎片的话优先用万能碎片么？先消耗宠物碎片比较合适吧</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>获得途径是点了能直接去打副本么？</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>图鉴中缺少宠物属性内容，建议增加</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片设计目的不明，非常必要么？</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>宠物技能要有tips么？</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>整体布局与宠物列表相似，且从宠物列表作为入口，但是分页签与宠物列表使用了相同含义不同表现的分页，感觉不好。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>图鉴中宠物是否有天生三星之类的，是否需要显示其天生的品质</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>宠物稀有度属性还要么，其他地方没有显示，图鉴里要不要显示</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>挺好 但是如果能从这里看出 那些怪比较稀有就好了</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>不错，那个android的图标是什么？</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>属性图标看起来比较单薄，也和其他界面不统一</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>缺少稀有度等简要信息。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>灰色建议加锁等更明确的提示。</t>
   </si>
   <si>
     <t>目前的养成会使得宠物碎片出现过剩的情况,通过到的宠物碎片再次回收为万能碎片来使其他宠物升级,目前数值汇率暂定为4换1,参考影之刃招式万能碎片的定位</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>要有的，和宠物的技能界面的技能图标逻辑一致</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>召唤出来都是最低品质的，没有天生厉害的</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>一个临时的万能宠物碎片图标</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>图鉴中是否有必要 包含 “碎片”信息？</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>收集宠物代表的是我已经合成了多少个宠物？还是已经点亮了多少个图鉴？</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片给个tips告诉玩家如何获得么？</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>是否按照碎片的多少排列下？方便合成？不确定合不合适=，=</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>点完就合成了么？还有合成的界面么？</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>点击图鉴能看到宠物信息么或者tips</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>感觉应该优先消耗宠物碎片而不是万能碎片</t>
   </si>
   <si>
     <t>结算得到宠物和召唤，当年说统一效果，现在是否已经废弃了这个设计</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>召唤和宠物图鉴放在一起，个人感觉是个不好的设计，这样除了掉落，得到宠物只能是通过碎片召唤了，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>是不准备做抽取宠物这种东西吗 还是说 抽取宠物再出一种得到宠物的表现</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>没有“全部”。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>页签大家反映比较多，改为和宠物列表一致的。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>合成出来的都是白色宠物</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>碎片数量肯定是越稀有的宠物需要的碎片比较多（这一点演示有点问题，做的时候忘记改那个数量了，其实也是从少到多的）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>彩色代表玩家拥有过该宠物，灰着代表玩家从未拥有过该宠物</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>按照宠物稀有度由低到高排序的，排列位置固定</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片与宠物碎片之间首先在合成操作上，没有一定的优先消耗谁的规则，宠物碎片足够时，是否消耗万能碎片是玩家自己点选的。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>但是一旦选择使用万能碎片，是由一定规则的：</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1）最大只能替换一定比例的宠物碎片，若玩家拥有的万能碎片足够支付某宠物可替换比例的最大值，则选择了万能碎片后，一定消耗最大值；</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2）若玩家拥有的万能碎片不足够支付某宠物可替换比例的最大值，则选择了万能碎片后，消耗掉玩家拥有的所有量。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>点了指引到副本入口（获得途径的指引逻辑与道具tips一致）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>因为宠物合成是放在图鉴这边的，增加碎片信息时为了使玩家在图鉴界面就能一目了然的看到哪个宠物能合成，哪个宠物不能合成</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>否则需要点击图鉴中的宠物头像进入合成界面才能看到这个信息，比较麻烦</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>是种类，也就是点亮了多少个图鉴</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片算是一个道具，符合道具通用逻辑，所以tips是会告诉如何获得的</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>已确认，没有问题</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>已确认，没有问题</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>是统一效果，区别只在于这个位置不像副本有背景，所以这个位置需要美术给个背景（就是副本外的得到宠物的展示都统一用这个背景）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>不是除了掉落得到宠物只能通过碎片召唤，这里只是利用宠物碎片合成宠物这种途径的操作界面。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>不影响抽取宠物的功能（也就是说抽蛋那些玩意一样能抽宠物），获得宠物的展现形式一致即可（如问题19所回答的那样）。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>其他效果与结算都是一样的（恭喜的文字信息、宠物跑过来先播出场然后待机、下面的确定按钮）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>看了一部分游戏（看了魔灵、dota、小红帽、十冷、天下，当然他们之间有可重复召唤或者只能有一个的区别）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>在宠物图鉴这块都是用置灰来代表未拥有过该宠物或者该宠物不可召唤，且他们置灰时都是响应点击的，所以灰色在这里能点击感觉还算可以接受。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>加锁这个处理方法是首先我们的游戏可以给宠物加锁（这个宠物就不能当做材料、分解等），所以这里不建议用加锁，容易误解。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>首先稀有度这个玩意是完全不影响属性的，他只是代表这个怪物好获得还是不好获得，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>所以图鉴这个位置在排序时是打算按照稀有度由低到高排，在界面上直接显示给玩家的就是合成需要的碎片由少到多的。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>不打算再多让玩家多学习一个“稀有度”的概念，增加学习成本，用处还不大（主要理由就是稀有度并不影响属性）。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>图鉴从头像上能区分好坏么？</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>头像不能区分好坏，只能区分稀有度。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>采纳，增加宠物基础属性内容（右侧可以滑动查看更多）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴UI</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>标题</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>关闭按钮</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>收集宠物进度</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片数量</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>切页标签</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>宠物列表</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>显示“收集宠物  玩家已拥有宠物种类数量/当前页签属性下的宠物种类数量总数”</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>收集宠物</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>handbook_shouji</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>玩家已拥有宠物种类数量</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>玩家当前是否仍拥有该宠物不影响（即玩家拥有后将宠物分解了、当做材料喂了等等情况）。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>这里计数只包含当前页签下的玩家拥有或者拥有过的宠物种类数量。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前页签属性下的宠物种类数量总数</t>
-  </si>
-  <si>
-    <t>即当前页签下显示的宠物种类总数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片数量</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>（顺序别看这图！！！）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>同“玩家拥有宠物界面”</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>单个样式</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>宠物头像</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>宠物碎片信息</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>宠物头像</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>显示宠物头像</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>显示“玩家当前拥有的该宠物碎片数量/该宠物合成需要的碎片数量“</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>整体在宠物头像下方居中显示</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>列表排列规则</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>图鉴目前其实是按照宠物稀有度由低到高排序的，排列位置固定</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>需要有正常显示状态和暗色显示状态</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>正常显示状态</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>代表玩家已经拥有或者拥有过该宠物</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>暗色显示状态</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>代表玩家从未拥有过该宠物</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>获得后回到该界面立即刷新宠物头像状态</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>特殊规则</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>这个位置的万能碎片图标需要缩小版的icon图标，且该icon图标响应点击，弹出万能碎片的tips（tips符合通用规范）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>默认显示</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>打开界面时，默认显示第一个切页，且下方列表显示最上</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>若玩家关闭该图鉴界面，重新打开，则回到界面默认显示；</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>若玩家通过宠物头像打开宠物合成界面，则从宠物合成界面回到该界面时，该界面的切页选择与列表位置保持在进入宠物合成界面之前的显示状态（宠物头像根据玩家在宠物合成界面的操作进行刷新显示）。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>宠物合成界面</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>返回按钮</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>宠物属性图标</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>宠物名称</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>宠物3D形象</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>宠物碎片信息</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片信息</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>提示信息</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>召唤按钮</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>基础属性区域</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>技能区域</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>获得途径区域</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>通过点击宠物图鉴界面的宠物头像进入</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮，返回到宠物图鉴界面</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>宠物属性图标、宠物名称</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>同”宠物详情界面“</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>详见文档《宠物界面》的“宠物详情界面”切页</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>区别</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1）由于图鉴位置宠物均为白色品质，因此这个位置的宠物名称均显示为白色</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2）这个位置不会有宠物+n的显示需求</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>显示   碎片</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>碎片</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>碎片条</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>显示  “万能碎片图标  玩家拥有的万能碎片数量”</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>显示出玩家拥有的该宠物碎片数量占该宠物合成需求的碎片数量比例</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>若n&gt;=m，则显示为填充满的装填</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>单选按钮</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>万能宠物碎片图标</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>玩家拥有的万能宠物碎片数量</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>控件类型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>按钮</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>显示位置</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>见示意图</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>出现/隐藏规则</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>按钮文案</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>多语言ID</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>按钮操作</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>显示位置</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>见示意图</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>出现/隐藏规则</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>控件操作</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>——》</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>按钮样式</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>普通</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>选中</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>音效</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>事件</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>音效资源</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>点击控件</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>待回归</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>单选控件普通状态时，点击后变为选中状态</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>单选控件</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>宠物合成界面出现时出现</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>单选控件选中状态时，点击后变为普通状态</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>显示玩家拥有量</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>handbook_tips</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>召唤</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>不满足该宠物召唤需求</t>
   </si>
   <si>
     <t>按钮正常状态时，点击按钮，弹出二级确认框</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1）当玩家未选择万能碎片时，判断玩家拥有的宠物碎片数量a与召唤该宠物需要的碎片数量b的关系，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>显示“*万能碎片最大只能替换X%的宠物碎片哟！”</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片逻辑</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>若玩家拥有的万能碎片不足够支付某宠物可替换比例的最大值，则选择了万能碎片后，消耗掉玩家拥有的所有量。</t>
   </si>
   <si>
     <t>1）万能碎片最大只能替换一定比例的宠物碎片，该比例跟随宠物稀有度变化，宠物每个稀有度都对应一个最大可替换的宠物碎片比例，各稀有度对应比例待定。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>其中，X跟随宠物稀有度变化</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2）玩家选择使用万能碎片时：</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>若玩家拥有的万能碎片足够支付某宠物可替换比例的最大值，则选择了万能碎片后，一定消耗该最大值；</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>情况1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>情况2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>显示位置</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>屏幕中央</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>提示信息</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>确定进行1次召唤吗？</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>多语言ID</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>handbook_tips1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>点击取消按钮，关闭二级，不进行召唤操作，回到宠物召唤界面（宠物召唤界面状态保持与开启二级之前相同）；</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>根据实际消耗的碎片数量显示，若玩家未选择使用万能碎片，则不显示万能碎片数量那一行</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>点击确定按钮，关闭二级，进行召唤操作，扣除实际消耗的碎片，进入获得宠物展示阶段。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>获得宠物展示需求与副本获得宠物展示需求相同，区别在于此处没有副本背景，因此需要美术提供一个宠物展示背景。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>展示完成后，回到宠物合成界面，界面宠物碎片与万能碎片数量刷新为扣除之前召唤消耗之后的量，万能碎片的单选按钮均变为未选中状态（无论召唤前是否选中）。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>按钮样式</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>普通</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>按下</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>不可用</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>音效</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>事件</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>音效资源</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>待回归</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>显示宠物基础属性</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>基础属性标题</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>pet_detail_stage_attr</t>
   </si>
   <si>
     <t>基础属性数值</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>基础属性</t>
@@ -863,258 +856,258 @@
   </si>
   <si>
     <t>显示宠物拥有的技能</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>技能标题</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>技能图标列表</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>基础属性标题、基础属性数值</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>文字效果与“装备属性界面”相同即可，基础属性数值此处排版如图所示</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>效果与“基础属性标题”相同</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>pet_detail_left_skill</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>显示出该宠物拥有的所有技能icon</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>优先排从左至右排列</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>显示可以获得该宠物碎片的途径介绍</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>获得途径标题</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>具体获得途径</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>获得途径</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>handbook_huodeway</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>显示规则同道具tips中的获得途径</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>详见文档《道具基础逻辑》的“UI表现逻辑”切页</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>PS：美术需定义在此界面显示的字体大小，由于和tips页面大小不同，所以显示上文字大小应有不同</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>文档名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>文档目的</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>目标读者</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>所有</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>文档路径</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>文档状态</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>详细信息</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>编写中</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>待审核(策划)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>修改中（策划）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>待审核(QC)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>修改中(QC)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>待3方</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>已定案</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>文档历史</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>发布日期</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>知会同事</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>标记颜色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>创建人</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>修订人</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>有关会议</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>会议日期</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>参与同事</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>基本概要</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴相关逻辑说明</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>技能icon响应点击，点击弹出tips</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2）通过“玩家拥有宠物界面”的“图鉴”按钮进入</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>handbook_zhaohuan</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1）从主界面的图鉴UI进入（具体由主界面设计）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>“图鉴”按钮</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>符合通用文字缩放规则，美术给控件尺寸及字体范围</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>（顺序别</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>看这图！！！）</t>
   </si>
   <si>
     <t>这个位置的万能碎片图标需要缩小版的icon图标</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>当玩家获得该宠物时（无论以何种方式获得，不限于此界面获得），该宠物的头像由暗色显示变为正常显示</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>宠物头像无论在哪种状态下，均响应玩家点击，点击弹出对应宠物的宠物合成界面。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>宠物合成界面见“宠物合成界面”切页</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>各个宠物的排列位置固定（按照宠物稀有度由低到高排序，表现上为合成需要的碎片数量由少到多）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>具体位置待版本内怪物都设计好后定</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>样式同”宠物详情界面“</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>这个位置的万能碎片图标需要缩小版的icon图标，且该icon图标响应点击</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1141,265 +1134,261 @@
       </rPr>
       <t>。</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>svn://10.21.2.47/gd/宠物系统/宠物图鉴设计.xlsx</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴设计</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>碎片数量有上限么</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>太小了手机上不好点吧</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>圣兽那个玩意，这个界面要显示么</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>具体对应关系还没有么？</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>已选择吧</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片是道具么，在背包显示么？</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>分解宠物能不能获得万能碎片呢？</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>这个意思是不是就是说优先消耗万能碎片？</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>直接显示碎片图标也行吧？</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>同上</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>顺序如图？</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>技能顺序？</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>道具那边写的好像不是太详细，也没有提到商城</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>为啥不使用全属性宠物总数，单属性感觉上每个页签是相互独立的，另外，是否考虑过加个全部页签，和宠物列表统一起来</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>都是数字,缩放啥………………</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>感觉好惨淡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>n有上限限制么</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>建议，最多好一点吧</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>兑换比例缺失</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>建议，可点并提示im</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>勘误，选择万能碎片时</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片不用图标么</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>感觉采用变暗处理就行了</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>显示1级白色宠物属性？</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>有顺序需求么，小招在前大招在后</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>道具里面的获得途径待定，这里也待定么？</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>宠物碎片是道具么，在背包显示么？</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>为啥是优先消耗万能碎片，而不是优先消耗玩家碎片</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>显示的下</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示“收集宠物  玩家已拥有宠物种类数量/所有页签的宠物种类数量总数”</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>不加“全部”了，主要考虑是宠物图鉴这如果有分页签，一般就没有看全部的需求了</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>歧义，拥有某只宠物，在失去，在拥有，应该数量只+1，改成玩家拥有该页签下的任意一只宠物时，此位置数量加1，之后玩家多次失去或者获得该宠物，此处数量不会随之改变如何</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>是指玩家拥有任一页签下的任意一只宠物时，此位置数量加1，之后玩家多次失去或者获得该宠物，此处数量不会随之改变。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>这个位置的万能碎片图标需要缩小版的icon图标（尽量大点），且该icon图标响应点击，弹出万能碎片的tips（tips符合通用规范）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>不要</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>。。。。=。=</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>没有</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>这的位置可扩展的地界太小，怕多语言时候放不下</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>显示“*万能碎片最多只能替换X%的宠物碎片哟！”</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2）当玩家选择万能碎片时，判断玩家拥有的宠物碎片数量a、万能碎片数量c与召唤该宠物需要的碎片数量b的关系，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>是道具，但是背包不显示</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>能</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>因为按钮大小固定，翻译成其他国家文字很难保证不超出</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>其中，X跟随宠物稀有度变化</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>提示方式</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>触发条件</t>
   </si>
   <si>
     <t>提示范围</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>文字内容</t>
   </si>
   <si>
     <t>对应英文</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>世界频道</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>公会频道</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>走马灯</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>系统提示（非警示）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>系统提示（警示）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>系统公告</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>玩家自己</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>handbook_btn</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>玩家不满足合成宠物条件时点击召唤按钮</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>碎片不足</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>当玩家拥有的材料不满足该宠物召唤需求时，点击按钮弹出提示信息handbook_record_001；</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>该界面出现时出现</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>数值回答你：优先消耗，万能碎片会投产较多,特定的宠物碎片比较不易得</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1425,7 +1414,7 @@
       </rPr>
       <t>*实际消耗的宠物碎片数量</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1451,67 +1440,67 @@
       </rPr>
       <t>*实际消耗的宠物碎片数量</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮，弹出二级确认框</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>基础属性数值显示的是1级白色宠物的</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>文字效果与“装备属性界面”相同即可，基础属性数值此处排版如图所示（包含顺序）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>因为规则和道具的完全一致，唯一区别就是这里显示的字体可能大一些（还是美术定，我只是预估），所以这里都是跟着道具的（道具待定，那这个也得待定）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>例子是瞎写的。。。别介意。。。具体有什么都跟着道具那边的规则走</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>排列顺序</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>大招，物理，法术，buff，被动</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>如果某个怪没有其中得某个技能，则后面的依次提前</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>显示不下时，可以通过下滑查看更多</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>下面写了待定</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>有背景好看一些~炫酷一些~</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>上方数字显示格式：n/m，n为玩家拥有的该宠物碎片数量，m为该宠物合成需求的碎片数量</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>整体居中显示</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>回归测试反馈</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1527,7 +1516,7 @@
       </rPr>
       <t>D形象进行查看</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1543,130 +1532,130 @@
       </rPr>
       <t>5度</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>上下可进行旋转角度范围为：水平视角与俯角45度，玩家手指在屏幕上直线上下滑动只会造成查看模型的视角旋转</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>左右可进行360度旋转，玩家手指在屏幕上直线水平滑动只会造成模型左右旋转</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>玩家手指在屏幕上非直线水平或者上下滑动时，以上两个旋转会同时发生。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>增加宠物展示区旋转宠物功能（同样适用于宠物详情界面）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>等道具tips获得途径出了再做</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>（效果可参考一下魔灵）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>类别信息</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>宠物属性图标、宠物名称、类别信息</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>targetItem</t>
   </si>
   <si>
     <t xml:space="preserve">needCount </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>合成/兑换列表</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>合成/兑换需要数量</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>配置格式符合道具通用配置结构</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>该宠物合成需要的碎片数量的配置：道具Item表</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>填写该碎片可合成的宠物id</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>若a&gt;=b，则满足召唤需求；否则为不满足。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>因此，若万能碎片c满足情况1，加上玩家拥有的该宠物碎片的数量a的值&gt;=b，则满足召唤需求；</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">           若万能碎片c满足情况2，加上玩家拥有的该宠物碎片的数量a的值&gt;=b，则满足召唤需求；</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">           否则，为不满足召唤需求。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>技能tips规范详见文档《阵容选择界面》的“UI规则”切页</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>三方后回归问题</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1、修改技能tips指引文档</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>获得途径子标题1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>获得途径子标题2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>显示“宠物”</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>获得途径子标题2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>显示“宠物碎片”</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>宠物碎片</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>多语言ID</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1692,66 +1681,66 @@
       </rPr>
       <t>即可（方便策划修改）。</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2、获得途径修改</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3、万能碎片的稀有度对应比例描述修改</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>4、删除不需要的缩放需求</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>handbook_record_001</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>类别</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>对应工时（单位d）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>策划验收+配置任务</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>对应程序任务</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>程序</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>宠物3D形象(重新封装一下，添加功能)</t>
   </si>
   <si>
     <t>宠物合成界面UI(需要修改技能tip通用，途径只包含界面部分)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>召唤获取宠物界面(视需要添加的情况)</t>
@@ -1761,56 +1750,74 @@
   </si>
   <si>
     <t>宠物合成</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>图鉴功能修改</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>图鉴、合成界面</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1,2,3,4,5,6</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">客户端宠物图鉴UI </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>pet_list_title</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>handbook_petsuipian</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>添加任务拆分切页</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>item_type_chip</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>显示不下时，可以通过下滑查看更多（是指整个右侧界面可滑动）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示“收集宠物  玩家已拥有宠物种类数量/所有页签的宠物种类数量总数”</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有页签的宠物种类数量总数</t>
+  </si>
+  <si>
+    <t>是所有页签下显示的宠物种类总数</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2258,246 +2265,247 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="58" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="58" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="24" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8592,7 +8600,7 @@
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" style="24"/>
     <col min="2" max="2" width="27.875" style="24" customWidth="1"/>
@@ -8602,273 +8610,273 @@
     <col min="8" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.25">
+      <c r="A4" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
+      <c r="B6" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="24" t="s">
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="24" t="s">
-        <v>235</v>
-      </c>
       <c r="B8" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
     </row>
-    <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="17.25" thickBot="1">
       <c r="A11" s="24" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="25"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="92" t="s">
+    <row r="12" spans="1:8" ht="17.25" thickTop="1">
+      <c r="B12" s="93" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="94"/>
+      <c r="D12" s="95" t="s">
+        <v>235</v>
+      </c>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="96"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="C12" s="93"/>
-      <c r="D12" s="94" t="s">
+      <c r="C13" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="95"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B13" s="28" t="s">
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="90"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C14" s="30"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="99"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="89"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B14" s="28" t="s">
+      <c r="C15" s="30"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="102"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="98"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B15" s="28" t="s">
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="90"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="101"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="28" t="s">
+      <c r="C17" s="29"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="90"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="B18" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="89"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="28" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="90"/>
+    </row>
+    <row r="19" spans="1:8" ht="17.25" thickBot="1">
+      <c r="B19" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="89"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B18" s="28" t="s">
+      <c r="C19" s="32"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="92"/>
+    </row>
+    <row r="20" spans="1:8" ht="17.25" thickTop="1"/>
+    <row r="21" spans="1:8">
+      <c r="A21" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="89"/>
-    </row>
-    <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="31" t="s">
+      <c r="B21" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="91"/>
-    </row>
-    <row r="20" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="24" t="s">
+      <c r="C21" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="D21" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="E21" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="F21" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="G21" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="F21" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:8">
       <c r="B22" s="3"/>
       <c r="C22" s="25"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8">
       <c r="B23" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C23" s="33">
         <v>42305</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="B24" s="3"/>
       <c r="C24" s="33">
         <v>42310</v>
       </c>
       <c r="E24" s="62"/>
       <c r="G24" s="25" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="B25" s="3"/>
       <c r="C25" s="33">
         <v>42312</v>
       </c>
       <c r="E25" s="67"/>
       <c r="G25" s="25" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="B26" s="3"/>
       <c r="C26" s="33"/>
       <c r="E26" s="67"/>
       <c r="H26" s="73" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="B27" s="3"/>
       <c r="C27" s="33"/>
       <c r="E27" s="67"/>
       <c r="H27" s="73" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="B28" s="3"/>
       <c r="C28" s="33"/>
       <c r="E28" s="67"/>
       <c r="H28" s="73" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="B29" s="3"/>
       <c r="C29" s="33"/>
       <c r="E29" s="67"/>
       <c r="H29" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="B30" s="3"/>
       <c r="C30" s="33"/>
       <c r="E30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="B31" s="3"/>
       <c r="C31" s="33"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8">
       <c r="A32" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="D32" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C32" s="25" t="s">
+      <c r="E32" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="D32" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>259</v>
-      </c>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="D33" s="3"/>
@@ -8887,7 +8895,7 @@
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="D16:H16"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H27" location="获得途径子标题1" display="2、获得途径修改"/>
     <hyperlink ref="H26" location="技能tips规范详见文档《阵容选择界面》的“UI规则”切页" display="1、修改技能tips指引文档"/>
@@ -8901,48 +8909,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB85"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="39.25" style="38" customWidth="1"/>
     <col min="2" max="2" width="33.375" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:28" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="C1" s="102" t="s">
+    <row r="1" spans="3:28" ht="22.5">
+      <c r="C1" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="102"/>
-      <c r="Y1" s="102"/>
-      <c r="Z1" s="102"/>
-      <c r="AA1" s="102"/>
-      <c r="AB1" s="102"/>
-    </row>
-    <row r="3" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103"/>
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+    </row>
+    <row r="3" spans="3:28">
       <c r="I3" s="12" t="s">
         <v>71</v>
       </c>
@@ -8953,110 +8961,110 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="3:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:28">
       <c r="L4" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="3:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:28">
       <c r="D7" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="3:28" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:28">
       <c r="C8" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="3:28" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="3:28">
       <c r="N14" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:10">
       <c r="D24" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:10">
       <c r="D25" s="2"/>
       <c r="E25" s="34" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.35">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10">
       <c r="E26" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J26" s="11"/>
     </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:10">
       <c r="E27" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:10">
       <c r="D28" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="4:10">
+      <c r="E29" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="4:10">
+      <c r="D30" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="4:10">
+      <c r="E31" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="E29" s="1" t="s">
+    <row r="32" spans="4:10">
+      <c r="E32" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D30" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="E31" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="E32" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15">
       <c r="D33" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15">
       <c r="E34" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15">
       <c r="E35" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="D36" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="49.5">
       <c r="A37" s="38" t="s">
-        <v>293</v>
-      </c>
-      <c r="E37" s="34" t="s">
-        <v>309</v>
+        <v>291</v>
+      </c>
+      <c r="E37" s="104" t="s">
+        <v>418</v>
       </c>
       <c r="H37" s="40"/>
       <c r="I37" s="40"/>
       <c r="J37" s="40"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15">
       <c r="A38" s="40" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>2</v>
@@ -9068,20 +9076,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15">
       <c r="A39" s="41" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="66" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="66">
       <c r="A40" s="38" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F40" s="41" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G40" s="40"/>
       <c r="H40" s="40"/>
@@ -9093,231 +9101,231 @@
       <c r="N40" s="40"/>
       <c r="O40" s="40"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15">
       <c r="F41" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15">
       <c r="F42" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15">
       <c r="E43" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="F44" s="104" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="D45" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="F44" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D45" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15">
       <c r="E46" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="38" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
       <c r="I47" s="42"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15">
       <c r="A48" s="39"/>
       <c r="B48" s="34" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:8">
       <c r="E49" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="50" spans="4:8" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="4:8">
       <c r="E50" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:8">
       <c r="D51" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="4:8">
       <c r="E52" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8">
+      <c r="H54" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="4:8">
+      <c r="H57" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="H54" s="1" t="s">
+    <row r="59" spans="4:8">
+      <c r="F59" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="H57" s="1" t="s">
+    <row r="60" spans="4:8">
+      <c r="G60" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="F59" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="60" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="G60" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="4:8">
       <c r="G61" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="4:8">
+      <c r="G62" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="4:8">
+      <c r="H63" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="G62" s="1" t="s">
+    <row r="64" spans="4:8">
+      <c r="G64" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="H63" s="1" t="s">
+    <row r="65" spans="1:10">
+      <c r="H65" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="G64" s="1" t="s">
+    <row r="66" spans="1:10">
+      <c r="H66" s="34" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="H67" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H65" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H66" s="34" t="s">
+    <row r="68" spans="1:10">
+      <c r="G68" s="34" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="G69" s="34" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H67" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="G68" s="34" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="G69" s="34" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10">
       <c r="F70" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="83"/>
       <c r="G71" s="34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="84"/>
       <c r="G72" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="84"/>
       <c r="G73" s="41" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H73" s="40"/>
       <c r="I73" s="40"/>
       <c r="J73" s="40"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10">
       <c r="A74" s="84"/>
       <c r="G74" s="41"/>
       <c r="H74" s="41" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="I74" s="41" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="J74" s="40"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10">
       <c r="A75" s="84"/>
       <c r="G75" s="41"/>
       <c r="H75" s="41" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I75" s="41" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J75" s="40"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10">
       <c r="A76" s="84"/>
       <c r="G76" s="41"/>
       <c r="H76" s="41" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="I76" s="41"/>
       <c r="J76" s="40"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10">
       <c r="A77" s="84"/>
       <c r="G77" s="41"/>
       <c r="H77" s="41" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="I77" s="41"/>
       <c r="J77" s="40"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10">
       <c r="A78" s="83"/>
       <c r="E78" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="83"/>
       <c r="F79" s="34" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="F80" s="37" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G80" s="20"/>
       <c r="H80" s="20"/>
     </row>
-    <row r="85" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="8:10">
       <c r="H85" s="39"/>
       <c r="I85" s="34"/>
       <c r="J85" s="34"/>
@@ -9326,7 +9334,7 @@
   <mergeCells count="1">
     <mergeCell ref="C1:AB1"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="notContainsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(B1))&gt;0</formula>
@@ -9347,191 +9355,191 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B196" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M213" sqref="M213"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F213" sqref="F213"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="39.25" style="38" customWidth="1"/>
     <col min="2" max="2" width="32.875" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:28" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="C1" s="102" t="s">
+    <row r="1" spans="3:28" ht="22.5">
+      <c r="C1" s="103" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103"/>
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+    </row>
+    <row r="3" spans="3:28">
+      <c r="H3" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="102"/>
-      <c r="Y1" s="102"/>
-      <c r="Z1" s="102"/>
-      <c r="AA1" s="102"/>
-      <c r="AB1" s="102"/>
-    </row>
-    <row r="3" spans="3:28" x14ac:dyDescent="0.35">
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="3:28">
+      <c r="E5" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="3:28">
+      <c r="Q7" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="3:28">
+      <c r="E10" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I3" s="1" t="s">
+    </row>
+    <row r="11" spans="3:28">
+      <c r="Q11" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="5:17">
+      <c r="E18" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J3" s="34" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="5" spans="3:28" x14ac:dyDescent="0.35">
-      <c r="E5" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="3:28" x14ac:dyDescent="0.35">
-      <c r="Q7" s="1" t="s">
+      <c r="Q18" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="3:28" x14ac:dyDescent="0.35">
-      <c r="E10" s="1" t="s">
+    <row r="19" spans="5:17">
+      <c r="E19" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="3:28" x14ac:dyDescent="0.35">
-      <c r="Q11" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E18" s="1" t="s">
+    <row r="20" spans="5:17">
+      <c r="E20" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q18" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E19" s="1" t="s">
+    </row>
+    <row r="24" spans="5:17">
+      <c r="H24" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E20" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="H24" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="5:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:17">
       <c r="F26" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="5:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:17">
       <c r="G27" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="5:17" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="5:17">
       <c r="F28" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="5:17" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="5:17">
       <c r="F29" s="2"/>
       <c r="G29" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="5:17">
+      <c r="G30" s="34" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31" spans="5:17">
+      <c r="G31" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="5:17">
+      <c r="F32" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="H32" s="40"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="G33" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="G30" s="34" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="31" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="G31" s="1" t="s">
+    <row r="34" spans="1:17">
+      <c r="G34" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="F32" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="H32" s="40"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="G33" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="G34" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A35" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="G35" s="1" t="s">
+    <row r="36" spans="1:17">
+      <c r="A36" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A36" s="40" t="s">
-        <v>315</v>
-      </c>
-      <c r="B36" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:17">
       <c r="B37" s="40" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="G38" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="G39" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="G40" s="41" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H40" s="40"/>
       <c r="I40" s="40"/>
@@ -9544,10 +9552,10 @@
       <c r="P40" s="40"/>
       <c r="Q40" s="40"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17">
       <c r="G41" s="41"/>
       <c r="H41" s="41" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I41" s="40"/>
       <c r="J41" s="40"/>
@@ -9559,10 +9567,10 @@
       <c r="P41" s="40"/>
       <c r="Q41" s="40"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17">
       <c r="G42" s="41"/>
       <c r="H42" s="41" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="I42" s="40"/>
       <c r="J42" s="40"/>
@@ -9574,10 +9582,10 @@
       <c r="P42" s="40"/>
       <c r="Q42" s="40"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17">
       <c r="G43" s="41"/>
       <c r="H43" s="41" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I43" s="40"/>
       <c r="J43" s="40"/>
@@ -9589,7 +9597,7 @@
       <c r="P43" s="40"/>
       <c r="Q43" s="40"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17">
       <c r="G44" s="41"/>
       <c r="H44" s="41"/>
       <c r="I44" s="40"/>
@@ -9602,7 +9610,7 @@
       <c r="P44" s="40"/>
       <c r="Q44" s="40"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17">
       <c r="G45" s="41"/>
       <c r="H45" s="41"/>
       <c r="I45" s="40"/>
@@ -9615,7 +9623,7 @@
       <c r="P45" s="40"/>
       <c r="Q45" s="40"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17">
       <c r="G46" s="41"/>
       <c r="H46" s="41"/>
       <c r="I46" s="40"/>
@@ -9628,12 +9636,12 @@
       <c r="P46" s="40"/>
       <c r="Q46" s="40"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17">
       <c r="G47" s="41"/>
       <c r="H47" s="41"/>
       <c r="I47" s="40"/>
       <c r="J47" s="63" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="K47" s="40"/>
       <c r="L47" s="40"/>
@@ -9643,7 +9651,7 @@
       <c r="P47" s="40"/>
       <c r="Q47" s="40"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17">
       <c r="G48" s="41"/>
       <c r="H48" s="41"/>
       <c r="I48" s="40"/>
@@ -9656,7 +9664,7 @@
       <c r="P48" s="40"/>
       <c r="Q48" s="40"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17">
       <c r="G49" s="41"/>
       <c r="H49" s="41"/>
       <c r="I49" s="40"/>
@@ -9669,7 +9677,7 @@
       <c r="P49" s="40"/>
       <c r="Q49" s="40"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17">
       <c r="G50" s="41"/>
       <c r="H50" s="41"/>
       <c r="I50" s="40"/>
@@ -9682,7 +9690,7 @@
       <c r="P50" s="40"/>
       <c r="Q50" s="40"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17">
       <c r="G51" s="41"/>
       <c r="H51" s="41"/>
       <c r="I51" s="40"/>
@@ -9695,10 +9703,10 @@
       <c r="P51" s="40"/>
       <c r="Q51" s="40"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17">
       <c r="G52" s="41"/>
       <c r="H52" s="41" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="I52" s="40"/>
       <c r="J52" s="40"/>
@@ -9710,10 +9718,10 @@
       <c r="P52" s="40"/>
       <c r="Q52" s="40"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17">
       <c r="G53" s="41"/>
       <c r="H53" s="41" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I53" s="40"/>
       <c r="J53" s="40"/>
@@ -9725,379 +9733,379 @@
       <c r="P53" s="40"/>
       <c r="Q53" s="40"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17">
       <c r="F54" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="G55" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="G56" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I56" s="87" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="J56" s="66"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17">
       <c r="G57" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H57" s="1" t="s">
+    </row>
+    <row r="58" spans="1:17">
+      <c r="H58" s="34" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="H59" s="41" t="s">
+        <v>354</v>
+      </c>
+      <c r="I59" s="40"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="40" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="F62" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="I63" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="7:12">
+      <c r="G66" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="H58" s="34" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="H59" s="41" t="s">
-        <v>357</v>
-      </c>
-      <c r="I59" s="40"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A60" s="38" t="s">
-        <v>296</v>
-      </c>
-      <c r="H60" s="1" t="s">
+      <c r="H66" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A61" s="40" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="F62" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="I63" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="66" spans="7:12" x14ac:dyDescent="0.35">
-      <c r="G66" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="68" spans="7:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="7:12">
       <c r="G68" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="69" spans="7:12" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69" spans="7:12">
       <c r="H69" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I69" s="14"/>
       <c r="J69" s="14"/>
       <c r="K69" s="14"/>
       <c r="L69" s="14"/>
     </row>
-    <row r="70" spans="7:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="7:12">
       <c r="H70" s="13"/>
       <c r="I70" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J70" s="14"/>
       <c r="K70" s="14"/>
       <c r="L70" s="14"/>
     </row>
-    <row r="71" spans="7:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="7:12">
       <c r="H71" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I71" s="14"/>
       <c r="J71" s="14"/>
       <c r="K71" s="14"/>
       <c r="L71" s="14"/>
     </row>
-    <row r="72" spans="7:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="7:12">
       <c r="H72" s="13"/>
       <c r="I72" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J72" s="14"/>
       <c r="K72" s="14"/>
       <c r="L72" s="14"/>
     </row>
-    <row r="73" spans="7:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="7:12">
       <c r="H73" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I73" s="14"/>
       <c r="J73" s="14"/>
       <c r="K73" s="14"/>
       <c r="L73" s="14"/>
     </row>
-    <row r="74" spans="7:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="7:12">
       <c r="H74" s="13"/>
       <c r="I74" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J74" s="14"/>
       <c r="K74" s="14"/>
       <c r="L74" s="14"/>
     </row>
-    <row r="75" spans="7:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="7:12">
       <c r="H75" s="13"/>
       <c r="I75" s="14"/>
       <c r="J75" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K75" s="14"/>
       <c r="L75" s="14"/>
     </row>
-    <row r="76" spans="7:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="7:12">
       <c r="H76" s="13"/>
       <c r="I76" s="14"/>
       <c r="J76" s="14"/>
       <c r="K76" s="14"/>
       <c r="L76" s="14"/>
     </row>
-    <row r="77" spans="7:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="7:12">
       <c r="I77" s="14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="78" spans="7:12" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="7:12">
       <c r="I78" s="14"/>
       <c r="J78" s="14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="79" spans="7:12" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="7:12">
       <c r="I79" s="14"/>
     </row>
-    <row r="80" spans="7:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="7:12">
       <c r="H80" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I80" s="14"/>
       <c r="J80" s="14"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16">
       <c r="H81" s="13"/>
       <c r="I81" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J81" s="16"/>
       <c r="K81" s="16"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16">
       <c r="H82" s="13"/>
       <c r="I82" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J82" s="16"/>
       <c r="K82" s="16"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16">
       <c r="H83" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I83" s="14"/>
       <c r="J83" s="14"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16">
       <c r="I84" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="J84" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="I85" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="J84" s="14" t="s">
+      <c r="J85" s="17" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="I85" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="J85" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16">
       <c r="G86" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
       <c r="H87" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="18"/>
       <c r="K87" s="18"/>
       <c r="L87" s="18"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16">
       <c r="G88" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
       <c r="H89" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
       <c r="F90" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
       <c r="A91" s="38" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G91" s="34" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H91" s="40"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16">
       <c r="A92" s="38" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B92" s="34" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G92" s="34" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="N92" s="11"/>
       <c r="O92" s="11"/>
       <c r="P92" s="11"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16">
       <c r="A93" s="41" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N93" s="11"/>
       <c r="O93" s="11"/>
       <c r="P93" s="11"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16">
       <c r="G94" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H94" s="6"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16">
       <c r="F95" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
       <c r="G96" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H96" s="14"/>
       <c r="I96" s="14"/>
       <c r="J96" s="14"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:23">
       <c r="G97" s="13"/>
       <c r="H97" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I97" s="14"/>
       <c r="J97" s="14"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:23">
       <c r="G98" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H98" s="14"/>
       <c r="I98" s="14"/>
       <c r="J98" s="14"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:23">
       <c r="G99" s="13"/>
       <c r="H99" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I99" s="14"/>
       <c r="J99" s="14"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:23">
       <c r="G100" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H100" s="14"/>
       <c r="I100" s="14"/>
       <c r="J100" s="14"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:23">
       <c r="G101" s="13"/>
       <c r="H101" s="34" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="I101" s="14"/>
       <c r="J101" s="14"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:23">
       <c r="G102" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H102" s="14"/>
       <c r="I102" s="14"/>
       <c r="J102" s="14"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:23">
       <c r="G103" s="13"/>
       <c r="H103" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I103" s="14"/>
       <c r="J103" s="14"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:23">
       <c r="G104" s="13"/>
       <c r="H104" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I104" s="34" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J104" s="14"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:23">
       <c r="A105" s="41" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
       <c r="J105" s="14"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:23">
       <c r="G106" s="13"/>
       <c r="H106" s="41" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="I106" s="60"/>
       <c r="J106" s="60"/>
@@ -10107,82 +10115,82 @@
       <c r="N106" s="40"/>
       <c r="O106" s="40"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:23">
       <c r="A107" s="38" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G107" s="13"/>
       <c r="H107" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I107" s="14"/>
       <c r="J107" s="14"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:23">
       <c r="G108" s="13"/>
       <c r="I108" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J108" s="14"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:23">
       <c r="G109" s="13"/>
       <c r="I109" s="14"/>
       <c r="J109" s="43" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.35">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23">
       <c r="A110" s="38" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B110" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G110" s="13"/>
       <c r="I110" s="61" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="J110" s="14"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:23">
       <c r="A111" s="41" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B111" s="34" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G111" s="13"/>
       <c r="I111" s="14"/>
       <c r="J111" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23">
       <c r="A112" s="41" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B112" s="34" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G112" s="13"/>
       <c r="I112" s="14"/>
       <c r="J112" s="14"/>
       <c r="K112" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="U112" s="20"/>
       <c r="V112" s="20"/>
       <c r="W112" s="20"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:24">
       <c r="A113" s="41"/>
       <c r="B113" s="34"/>
       <c r="G113" s="13"/>
       <c r="I113" s="14"/>
       <c r="J113" s="14"/>
       <c r="K113" s="71" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L113" s="40"/>
       <c r="M113" s="40"/>
@@ -10197,386 +10205,386 @@
       <c r="V113" s="11"/>
       <c r="W113" s="11"/>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:24">
       <c r="A114" s="41" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B114" s="34" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G114" s="13"/>
       <c r="I114" s="14"/>
       <c r="J114" s="14"/>
       <c r="K114" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="U114" s="11"/>
       <c r="V114" s="11"/>
       <c r="W114" s="11"/>
       <c r="X114" s="11"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:24">
       <c r="A115" s="38" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G115" s="13"/>
       <c r="I115" s="14"/>
       <c r="J115" s="14"/>
       <c r="K115" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24">
       <c r="B116" s="34" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G116" s="13"/>
       <c r="I116" s="14"/>
       <c r="J116" s="14"/>
       <c r="K116" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24">
       <c r="A117" s="41" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G117" s="13"/>
       <c r="I117" s="14"/>
       <c r="J117" s="43" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.35">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24">
       <c r="G118" s="13"/>
       <c r="I118" s="14"/>
       <c r="J118" s="43" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.35">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24">
       <c r="G119" s="13"/>
       <c r="I119" s="14"/>
       <c r="J119" s="43" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.35">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24">
       <c r="H120" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24">
       <c r="N122" s="21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O122" s="22"/>
       <c r="P122" s="22"/>
       <c r="Q122" s="22"/>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:24">
       <c r="N123" s="22"/>
       <c r="O123" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="P123" s="22"/>
       <c r="Q123" s="22"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:24">
       <c r="N124" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O124" s="18"/>
       <c r="P124" s="15"/>
       <c r="Q124" s="16"/>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:24">
       <c r="N125" s="16"/>
       <c r="O125" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P125" s="16"/>
       <c r="R125" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S125" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24">
       <c r="O126" s="41" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="S126" s="18"/>
       <c r="T126" s="15"/>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:24">
       <c r="O127" s="41" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="S127" s="18"/>
       <c r="T127" s="15"/>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:24">
       <c r="A128" s="38" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B128" s="34" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O128" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="B129" s="34" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="H138" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="H139" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="H140" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A129" s="38" t="s">
-        <v>301</v>
-      </c>
-      <c r="B129" s="34" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H138" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H139" s="1" t="s">
+    <row r="141" spans="1:9">
+      <c r="A141" s="41" t="s">
+        <v>352</v>
+      </c>
+      <c r="H141" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A140" s="38" t="s">
-        <v>302</v>
-      </c>
-      <c r="H140" s="1" t="s">
+    <row r="142" spans="1:9">
+      <c r="G142" s="13" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A141" s="41" t="s">
-        <v>355</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G142" s="13" t="s">
-        <v>189</v>
       </c>
       <c r="H142" s="14"/>
       <c r="I142" s="14"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9">
       <c r="G143" s="13"/>
       <c r="H143" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I143" s="16"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9">
       <c r="G144" s="13"/>
       <c r="H144" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="I144" s="16"/>
+    </row>
+    <row r="145" spans="1:15">
+      <c r="G145" s="13" t="s">
         <v>191</v>
-      </c>
-      <c r="I144" s="16"/>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="G145" s="13" t="s">
-        <v>193</v>
       </c>
       <c r="H145" s="14"/>
       <c r="I145" s="14"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:15">
       <c r="H146" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="I146" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
+      <c r="H147" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="I146" s="14" t="s">
+      <c r="I147" s="17" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="H147" s="14" t="s">
+    <row r="148" spans="1:15">
+      <c r="F148" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
+      <c r="A149" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="G149" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="I147" s="17" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="F148" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A149" s="38" t="s">
-        <v>303</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="150" spans="1:15">
       <c r="A150" s="39"/>
       <c r="G150" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
+      <c r="B151" s="34" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
+      <c r="G153" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B151" s="34" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="G153" s="1" t="s">
+    <row r="156" spans="1:15">
+      <c r="H156" s="23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
+      <c r="I157" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="O157" s="40"/>
+    </row>
+    <row r="161" spans="2:11">
+      <c r="I161" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K161" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="162" spans="2:11">
+      <c r="J162" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="H156" s="23" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I157" s="34" t="s">
-        <v>347</v>
-      </c>
-      <c r="O157" s="40"/>
-    </row>
-    <row r="161" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="I161" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="J161" s="1" t="s">
+      <c r="K162" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="163" spans="2:11">
+      <c r="J163" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="K161" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="162" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="J162" s="1" t="s">
+      <c r="K163" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="164" spans="2:11">
+      <c r="J164" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="K162" s="1" t="s">
+      <c r="K164" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="163" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="J163" s="1" t="s">
+    <row r="165" spans="2:11">
+      <c r="J165" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="K163" s="1" t="s">
+      <c r="K165" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="164" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="J164" s="1" t="s">
+    <row r="166" spans="2:11">
+      <c r="J166" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="K164" s="1" t="s">
+      <c r="K166" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="165" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="J165" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="K165" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="166" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="J166" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="K166" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="167" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:11">
       <c r="I167" s="41" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J167" s="40"/>
       <c r="K167" s="40"/>
     </row>
-    <row r="168" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:11">
       <c r="F168" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="169" spans="2:11" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="169" spans="2:11">
       <c r="G169" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="170" spans="2:11">
+      <c r="G170" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="171" spans="2:11">
+      <c r="B171" s="34" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="173" spans="2:11">
+      <c r="G173" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="170" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="G170" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="171" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B171" s="34" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="173" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="G173" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:14">
       <c r="H177" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14">
       <c r="I178" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14">
+      <c r="I179" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J179" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I179" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="J179" s="1" t="s">
+      <c r="K179" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14">
+      <c r="H180" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14">
+      <c r="A181" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14">
+      <c r="I182" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="K179" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="H180" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A181" s="38" t="s">
-        <v>304</v>
-      </c>
-      <c r="I181" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I182" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="183" spans="1:14">
       <c r="I183" s="41" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J183" s="40"/>
       <c r="K183" s="40"/>
@@ -10584,191 +10592,191 @@
       <c r="M183" s="40"/>
       <c r="N183" s="40"/>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:14">
       <c r="I184" s="41"/>
       <c r="J184" s="41" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K184" s="40"/>
       <c r="L184" s="40"/>
       <c r="M184" s="40"/>
       <c r="N184" s="40"/>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:14">
       <c r="I185" s="41"/>
       <c r="J185" s="41" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K185" s="40"/>
       <c r="L185" s="40"/>
       <c r="M185" s="40"/>
       <c r="N185" s="40"/>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:14">
       <c r="I186" s="34" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14">
       <c r="I187" s="65" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J187" s="66"/>
       <c r="K187" s="66"/>
       <c r="L187" s="66"/>
       <c r="M187" s="66"/>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:14">
       <c r="F188" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14">
       <c r="G189" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14">
+      <c r="G190" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14">
+      <c r="G191" s="64" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="193" spans="2:12">
+      <c r="G193" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G190" s="1" t="s">
+    <row r="195" spans="2:12">
+      <c r="G195" s="64" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="198" spans="2:12">
+      <c r="H198" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="199" spans="2:12">
+      <c r="I199" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="200" spans="2:12">
+      <c r="I200" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J200" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G191" s="64" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="193" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="G193" s="1" t="s">
+      <c r="K200" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="195" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="G195" s="64" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="198" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="H198" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="199" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="I199" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="200" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="I200" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="J200" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="K200" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="201" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:12">
       <c r="H201" s="68" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I201" s="69"/>
       <c r="J201" s="66"/>
       <c r="K201" s="66"/>
       <c r="L201" s="66"/>
     </row>
-    <row r="202" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:12">
       <c r="H202" s="66"/>
       <c r="I202" s="70" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="J202" s="66"/>
       <c r="K202" s="66"/>
       <c r="L202" s="66"/>
     </row>
-    <row r="203" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:12">
       <c r="H203" s="66"/>
       <c r="I203" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="J203" s="85" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="K203" s="85" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="L203" s="66"/>
     </row>
-    <row r="204" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:12">
       <c r="H204" s="68" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="I204" s="69"/>
       <c r="J204" s="66"/>
       <c r="K204" s="66"/>
       <c r="L204" s="66"/>
     </row>
-    <row r="205" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:12">
       <c r="H205" s="66"/>
       <c r="I205" s="70" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="J205" s="66"/>
       <c r="K205" s="66"/>
       <c r="L205" s="66"/>
     </row>
-    <row r="206" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:12">
       <c r="H206" s="66"/>
       <c r="I206" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="J206" s="85" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="K206" s="85" t="s">
+        <v>414</v>
+      </c>
+      <c r="L206" s="66"/>
+    </row>
+    <row r="207" spans="2:12">
+      <c r="F207" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="H207" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="208" spans="2:12">
+      <c r="B208" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="I208" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="B209" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="I209" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="I211" s="88" t="s">
         <v>417</v>
-      </c>
-      <c r="L206" s="66"/>
-    </row>
-    <row r="207" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="F207" s="36" t="s">
-        <v>366</v>
-      </c>
-      <c r="H207" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="208" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B208" s="34" t="s">
-        <v>292</v>
-      </c>
-      <c r="I208" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A209" s="38" t="s">
-        <v>305</v>
-      </c>
-      <c r="B209" s="41" t="s">
-        <v>349</v>
-      </c>
-      <c r="I209" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A210" s="41" t="s">
-        <v>348</v>
-      </c>
-      <c r="I210" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I211" s="103" t="s">
-        <v>420</v>
       </c>
       <c r="J211" s="40"/>
       <c r="K211" s="40"/>
@@ -10777,7 +10785,7 @@
   <mergeCells count="1">
     <mergeCell ref="C1:AB1"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="B1:B36 B210:B1048576 B38:B208">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(B1))&gt;0</formula>
@@ -10805,7 +10813,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14.25" style="43" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="43" bestFit="1" customWidth="1"/>
@@ -10819,14 +10827,14 @@
     <col min="12" max="16384" width="8.875" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11">
       <c r="A1" s="44"/>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
       <c r="E1" s="44"/>
       <c r="F1" s="45" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G1" s="46"/>
       <c r="H1" s="46"/>
@@ -10834,53 +10842,53 @@
       <c r="J1" s="46"/>
       <c r="K1" s="46"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="D2" s="49" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="E2" s="49" t="s">
         <v>326</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="F2" s="50" t="s">
         <v>327</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="G2" s="50" t="s">
         <v>328</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="H2" s="50" t="s">
         <v>329</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="I2" s="50" t="s">
         <v>330</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="J2" s="50" t="s">
         <v>331</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="K2" s="50" t="s">
         <v>332</v>
       </c>
-      <c r="I2" s="50" t="s">
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="72" t="s">
+        <v>394</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" s="51" t="s">
         <v>333</v>
       </c>
-      <c r="J2" s="50" t="s">
-        <v>334</v>
-      </c>
-      <c r="K2" s="50" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="72" t="s">
-        <v>397</v>
-      </c>
-      <c r="B3" s="51" t="s">
-        <v>338</v>
-      </c>
-      <c r="C3" s="51" t="s">
+      <c r="D3" s="72" t="s">
         <v>336</v>
-      </c>
-      <c r="D3" s="72" t="s">
-        <v>339</v>
       </c>
       <c r="E3" s="52"/>
       <c r="F3" s="53"/>
@@ -10892,7 +10900,7 @@
       </c>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="57" customFormat="1">
       <c r="A4" s="55"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
@@ -10905,7 +10913,7 @@
       <c r="J4" s="58"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11">
       <c r="A5" s="51"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
@@ -10918,7 +10926,7 @@
       <c r="J5" s="52"/>
       <c r="K5" s="54"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11">
       <c r="A6" s="51"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
@@ -10931,7 +10939,7 @@
       <c r="J6" s="52"/>
       <c r="K6" s="54"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11">
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
@@ -10944,7 +10952,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="54"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11">
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
@@ -10957,7 +10965,7 @@
       <c r="J8" s="52"/>
       <c r="K8" s="54"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11">
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
@@ -10970,7 +10978,7 @@
       <c r="J9" s="52"/>
       <c r="K9" s="54"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11">
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
@@ -10983,7 +10991,7 @@
       <c r="J10" s="52"/>
       <c r="K10" s="54"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11">
       <c r="A11" s="51"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
@@ -10996,7 +11004,7 @@
       <c r="J11" s="52"/>
       <c r="K11" s="54"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11">
       <c r="A12" s="51"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
@@ -11009,7 +11017,7 @@
       <c r="J12" s="51"/>
       <c r="K12" s="54"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11">
       <c r="A13" s="51"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
@@ -11022,14 +11030,14 @@
       <c r="J13" s="51"/>
       <c r="K13" s="54"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2">
       <c r="B19" s="59"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2">
       <c r="B21" s="59"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11042,35 +11050,35 @@
       <selection activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="3" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="12:14">
       <c r="L3" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="4" spans="12:14" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="12:14">
       <c r="M4" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="12:14">
       <c r="M5" s="13"/>
       <c r="N5" s="14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="12:14" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="12:14">
       <c r="M6" s="13"/>
       <c r="N6" s="14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -11089,7 +11097,7 @@
       </c>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -11104,7 +11112,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -11129,7 +11137,7 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -11154,7 +11162,7 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23">
       <c r="A23" s="1" t="s">
         <v>75</v>
       </c>
@@ -11179,9 +11187,9 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23">
       <c r="A24" s="36" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -11206,9 +11214,9 @@
       <c r="V24" s="1"/>
       <c r="W24"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23">
       <c r="A25" s="36" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -11233,7 +11241,7 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -11258,7 +11266,7 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -11272,7 +11280,7 @@
       <c r="K27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -11283,7 +11291,7 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -11299,7 +11307,7 @@
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="P28" s="18"/>
       <c r="Q28" s="18"/>
@@ -11310,7 +11318,7 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -11335,7 +11343,7 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -11349,7 +11357,7 @@
       <c r="K30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -11360,7 +11368,7 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -11385,7 +11393,7 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -11410,7 +11418,7 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -11424,7 +11432,7 @@
       <c r="K33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -11435,7 +11443,7 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -11458,7 +11466,7 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -11475,7 +11483,7 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -11483,7 +11491,7 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -11506,7 +11514,7 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -11529,13 +11537,13 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23">
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
@@ -11543,7 +11551,7 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23">
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -11555,11 +11563,11 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23">
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -11569,12 +11577,12 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:23">
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
@@ -11583,12 +11591,12 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:23">
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R42" s="36"/>
       <c r="S42" s="36"/>
@@ -11597,11 +11605,11 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23">
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -11611,12 +11619,12 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:23">
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
@@ -11625,12 +11633,12 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:23">
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
@@ -11639,18 +11647,18 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:23">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F48" s="34" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -11661,7 +11669,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:31">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -11677,9 +11685,9 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:31">
       <c r="A50" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -11695,7 +11703,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:31">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -11728,7 +11736,7 @@
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:31">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -11742,7 +11750,7 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
@@ -11763,7 +11771,7 @@
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:31">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -11778,7 +11786,7 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
@@ -11798,7 +11806,7 @@
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:31">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -11831,9 +11839,9 @@
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:31">
       <c r="A55" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -11848,7 +11856,7 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
@@ -11868,7 +11876,7 @@
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:31">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -11882,11 +11890,11 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
@@ -11905,7 +11913,7 @@
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:31">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -11921,7 +11929,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
@@ -11940,7 +11948,7 @@
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:31">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -11956,10 +11964,10 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
@@ -11977,7 +11985,7 @@
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:31">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -11994,7 +12002,7 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
@@ -12012,7 +12020,7 @@
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:31">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -12027,7 +12035,7 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
@@ -12047,7 +12055,7 @@
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:31">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -12063,7 +12071,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
@@ -12082,7 +12090,7 @@
       <c r="AD61" s="1"/>
       <c r="AE61" s="1"/>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:31">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -12098,7 +12106,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
@@ -12117,9 +12125,9 @@
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:31">
       <c r="A63" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -12133,7 +12141,7 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
@@ -12154,9 +12162,9 @@
       <c r="AD63" s="1"/>
       <c r="AE63" s="1"/>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:31">
       <c r="A64" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -12171,7 +12179,7 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
@@ -12191,9 +12199,9 @@
       <c r="AD64" s="1"/>
       <c r="AE64" s="1"/>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:31">
       <c r="A65" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -12209,7 +12217,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
@@ -12228,7 +12236,7 @@
       <c r="AD65" s="1"/>
       <c r="AE65" s="1"/>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:31">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -12261,7 +12269,7 @@
       <c r="AD66" s="1"/>
       <c r="AE66" s="1"/>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:31">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -12276,7 +12284,7 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
@@ -12296,12 +12304,12 @@
       <c r="AD67" s="1"/>
       <c r="AE67" s="1"/>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:31">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -12316,7 +12324,7 @@
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
@@ -12333,7 +12341,7 @@
       <c r="AD68" s="1"/>
       <c r="AE68" s="1"/>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:31">
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
@@ -12353,7 +12361,7 @@
       <c r="AD69" s="1"/>
       <c r="AE69" s="1"/>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:31">
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
@@ -12373,13 +12381,13 @@
       <c r="AD70" s="1"/>
       <c r="AE70" s="1"/>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:31">
       <c r="N71" s="1"/>
       <c r="O71" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
@@ -12397,10 +12405,10 @@
       <c r="AD71" s="1"/>
       <c r="AE71" s="1"/>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:31">
       <c r="N72" s="1"/>
       <c r="O72" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
@@ -12419,11 +12427,11 @@
       <c r="AD72" s="1"/>
       <c r="AE72" s="1"/>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:31">
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
       <c r="P73" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q73" s="14"/>
       <c r="R73" s="14"/>
@@ -12441,12 +12449,12 @@
       <c r="AD73" s="1"/>
       <c r="AE73" s="1"/>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:31">
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
       <c r="P74" s="13"/>
       <c r="Q74" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="R74" s="14"/>
       <c r="S74" s="14"/>
@@ -12463,13 +12471,13 @@
       <c r="AD74" s="1"/>
       <c r="AE74" s="1"/>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:31">
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
       <c r="P75" s="13"/>
       <c r="Q75" s="14"/>
       <c r="R75" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="S75" s="14"/>
       <c r="T75" s="14"/>
@@ -12485,7 +12493,7 @@
       <c r="AD75" s="1"/>
       <c r="AE75" s="1"/>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:31">
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
       <c r="P76" s="13"/>
@@ -12505,12 +12513,12 @@
       <c r="AD76" s="1"/>
       <c r="AE76" s="1"/>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:31">
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
@@ -12527,13 +12535,13 @@
       <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:31">
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="14"/>
       <c r="R78" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
@@ -12549,7 +12557,7 @@
       <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:31">
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
@@ -12569,11 +12577,11 @@
       <c r="AD79" s="1"/>
       <c r="AE79" s="1"/>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:31">
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
       <c r="P80" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q80" s="14"/>
       <c r="R80" s="14"/>
@@ -12591,12 +12599,12 @@
       <c r="AD80" s="1"/>
       <c r="AE80" s="1"/>
     </row>
-    <row r="81" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="81" spans="14:31">
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
       <c r="P81" s="13"/>
       <c r="Q81" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="R81" s="16"/>
       <c r="S81" s="16"/>
@@ -12613,12 +12621,12 @@
       <c r="AD81" s="1"/>
       <c r="AE81" s="1"/>
     </row>
-    <row r="82" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="82" spans="14:31">
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
       <c r="P82" s="13"/>
       <c r="Q82" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="R82" s="16"/>
       <c r="S82" s="16"/>
@@ -12635,10 +12643,10 @@
       <c r="AD82" s="1"/>
       <c r="AE82" s="1"/>
     </row>
-    <row r="83" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="83" spans="14:31">
       <c r="N83" s="1"/>
       <c r="O83" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
@@ -12657,11 +12665,11 @@
       <c r="AD83" s="1"/>
       <c r="AE83" s="1"/>
     </row>
-    <row r="84" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="84" spans="14:31">
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
       <c r="P84" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q84" s="18"/>
       <c r="R84" s="18"/>
@@ -12679,10 +12687,10 @@
       <c r="AD84" s="1"/>
       <c r="AE84" s="1"/>
     </row>
-    <row r="85" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="85" spans="14:31">
       <c r="N85" s="1"/>
       <c r="O85" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
@@ -12701,11 +12709,11 @@
       <c r="AD85" s="1"/>
       <c r="AE85" s="1"/>
     </row>
-    <row r="86" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="86" spans="14:31">
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
       <c r="P86" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
@@ -12723,9 +12731,9 @@
       <c r="AD86" s="1"/>
       <c r="AE86" s="1"/>
     </row>
-    <row r="87" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="87" spans="14:31">
       <c r="N87" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
@@ -12745,10 +12753,10 @@
       <c r="AD87" s="1"/>
       <c r="AE87" s="1"/>
     </row>
-    <row r="88" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="88" spans="14:31">
       <c r="N88" s="1"/>
       <c r="O88" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
@@ -12767,10 +12775,10 @@
       <c r="AD88" s="1"/>
       <c r="AE88" s="1"/>
     </row>
-    <row r="89" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="89" spans="14:31">
       <c r="N89" s="1"/>
       <c r="O89" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
@@ -12789,10 +12797,10 @@
       <c r="AD89" s="1"/>
       <c r="AE89" s="1"/>
     </row>
-    <row r="90" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="90" spans="14:31">
       <c r="N90" s="1"/>
       <c r="O90" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P90" s="6"/>
       <c r="Q90" s="35"/>
@@ -12811,9 +12819,9 @@
       <c r="AD90" s="1"/>
       <c r="AE90" s="1"/>
     </row>
-    <row r="91" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="91" spans="14:31">
       <c r="N91" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
@@ -12833,10 +12841,10 @@
       <c r="AD91" s="1"/>
       <c r="AE91" s="1"/>
     </row>
-    <row r="92" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="92" spans="14:31">
       <c r="N92" s="1"/>
       <c r="O92" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P92" s="14"/>
       <c r="Q92" s="14"/>
@@ -12855,11 +12863,11 @@
       <c r="AD92" s="1"/>
       <c r="AE92" s="1"/>
     </row>
-    <row r="93" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="93" spans="14:31">
       <c r="N93" s="1"/>
       <c r="O93" s="13"/>
       <c r="P93" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q93" s="14"/>
       <c r="R93" s="14"/>
@@ -12877,10 +12885,10 @@
       <c r="AD93" s="1"/>
       <c r="AE93" s="1"/>
     </row>
-    <row r="94" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="94" spans="14:31">
       <c r="N94" s="1"/>
       <c r="O94" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P94" s="14"/>
       <c r="Q94" s="14"/>
@@ -12899,11 +12907,11 @@
       <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
     </row>
-    <row r="95" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="95" spans="14:31">
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
       <c r="P95" s="34" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
@@ -12921,7 +12929,7 @@
       <c r="AD95" s="1"/>
       <c r="AE95" s="1"/>
     </row>
-    <row r="96" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="96" spans="14:31">
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
@@ -12931,7 +12939,7 @@
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
       <c r="V96" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="W96" s="22"/>
       <c r="X96" s="22"/>
@@ -12943,7 +12951,7 @@
       <c r="AD96" s="1"/>
       <c r="AE96" s="1"/>
     </row>
-    <row r="97" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="97" spans="14:31">
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
@@ -12954,7 +12962,7 @@
       <c r="U97" s="1"/>
       <c r="V97" s="22"/>
       <c r="W97" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="X97" s="22"/>
       <c r="Y97" s="22"/>
@@ -12965,7 +12973,7 @@
       <c r="AD97" s="1"/>
       <c r="AE97" s="1"/>
     </row>
-    <row r="98" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="98" spans="14:31">
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
@@ -12975,7 +12983,7 @@
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
       <c r="V98" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W98" s="18"/>
       <c r="X98" s="15"/>
@@ -12987,7 +12995,7 @@
       <c r="AD98" s="1"/>
       <c r="AE98" s="1"/>
     </row>
-    <row r="99" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="99" spans="14:31">
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
@@ -12998,22 +13006,22 @@
       <c r="U99" s="1"/>
       <c r="V99" s="16"/>
       <c r="W99" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="X99" s="16"/>
       <c r="Y99" s="1"/>
       <c r="Z99" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AA99" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AB99" s="1"/>
       <c r="AC99" s="1"/>
       <c r="AD99" s="1"/>
       <c r="AE99" s="1"/>
     </row>
-    <row r="100" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="100" spans="14:31">
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
@@ -13024,7 +13032,7 @@
       <c r="U100" s="1"/>
       <c r="V100" s="1"/>
       <c r="W100" s="39" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
@@ -13035,7 +13043,7 @@
       <c r="AD100" s="1"/>
       <c r="AE100" s="1"/>
     </row>
-    <row r="101" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="101" spans="14:31">
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
@@ -13046,7 +13054,7 @@
       <c r="U101" s="1"/>
       <c r="V101" s="1"/>
       <c r="W101" s="39" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
@@ -13057,7 +13065,7 @@
       <c r="AD101" s="1"/>
       <c r="AE101" s="1"/>
     </row>
-    <row r="102" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="102" spans="14:31">
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
@@ -13068,7 +13076,7 @@
       <c r="U102" s="1"/>
       <c r="V102" s="1"/>
       <c r="W102" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
@@ -13079,7 +13087,7 @@
       <c r="AD102" s="1"/>
       <c r="AE102" s="1"/>
     </row>
-    <row r="103" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="103" spans="14:31">
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
@@ -13099,7 +13107,7 @@
       <c r="AD103" s="1"/>
       <c r="AE103" s="39"/>
     </row>
-    <row r="104" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="104" spans="14:31">
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
@@ -13119,7 +13127,7 @@
       <c r="AD104" s="1"/>
       <c r="AE104" s="1"/>
     </row>
-    <row r="105" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="105" spans="14:31">
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
@@ -13139,7 +13147,7 @@
       <c r="AD105" s="1"/>
       <c r="AE105" s="1"/>
     </row>
-    <row r="106" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="106" spans="14:31">
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
       <c r="P106" s="1"/>
@@ -13159,7 +13167,7 @@
       <c r="AD106" s="1"/>
       <c r="AE106" s="1"/>
     </row>
-    <row r="107" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="107" spans="14:31">
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
@@ -13179,7 +13187,7 @@
       <c r="AD107" s="1"/>
       <c r="AE107" s="1"/>
     </row>
-    <row r="108" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="108" spans="14:31">
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
       <c r="P108" s="1"/>
@@ -13199,7 +13207,7 @@
       <c r="AD108" s="1"/>
       <c r="AE108" s="1"/>
     </row>
-    <row r="109" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="109" spans="14:31">
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
       <c r="P109" s="1"/>
@@ -13219,7 +13227,7 @@
       <c r="AD109" s="1"/>
       <c r="AE109" s="1"/>
     </row>
-    <row r="110" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="110" spans="14:31">
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
       <c r="P110" s="1"/>
@@ -13239,7 +13247,7 @@
       <c r="AD110" s="1"/>
       <c r="AE110" s="1"/>
     </row>
-    <row r="111" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="111" spans="14:31">
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
       <c r="P111" s="1"/>
@@ -13259,7 +13267,7 @@
       <c r="AD111" s="1"/>
       <c r="AE111" s="1"/>
     </row>
-    <row r="112" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="112" spans="14:31">
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
       <c r="P112" s="1"/>
@@ -13279,11 +13287,11 @@
       <c r="AD112" s="1"/>
       <c r="AE112" s="1"/>
     </row>
-    <row r="113" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="113" spans="14:31">
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
       <c r="P113" s="34" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
@@ -13301,10 +13309,10 @@
       <c r="AD113" s="1"/>
       <c r="AE113" s="1"/>
     </row>
-    <row r="114" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="114" spans="14:31">
       <c r="N114" s="1"/>
       <c r="O114" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P114" s="14"/>
       <c r="Q114" s="14"/>
@@ -13323,11 +13331,11 @@
       <c r="AD114" s="1"/>
       <c r="AE114" s="1"/>
     </row>
-    <row r="115" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="115" spans="14:31">
       <c r="N115" s="1"/>
       <c r="O115" s="13"/>
       <c r="P115" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q115" s="16"/>
       <c r="R115" s="1"/>
@@ -13345,11 +13353,11 @@
       <c r="AD115" s="1"/>
       <c r="AE115" s="1"/>
     </row>
-    <row r="116" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="116" spans="14:31">
       <c r="N116" s="1"/>
       <c r="O116" s="13"/>
       <c r="P116" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q116" s="16"/>
       <c r="R116" s="1"/>
@@ -13367,11 +13375,11 @@
       <c r="AD116" s="1"/>
       <c r="AE116" s="1"/>
     </row>
-    <row r="117" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="117" spans="14:31">
       <c r="N117" s="1"/>
       <c r="O117" s="13"/>
       <c r="P117" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Q117" s="16"/>
       <c r="R117" s="1"/>
@@ -13389,9 +13397,9 @@
       <c r="AD117" s="1"/>
       <c r="AE117" s="1"/>
     </row>
-    <row r="118" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="118" spans="14:31">
       <c r="N118" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O118" s="1"/>
       <c r="P118" s="1"/>
@@ -13411,10 +13419,10 @@
       <c r="AD118" s="1"/>
       <c r="AE118" s="1"/>
     </row>
-    <row r="119" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="119" spans="14:31">
       <c r="N119" s="1"/>
       <c r="O119" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
@@ -13433,10 +13441,10 @@
       <c r="AD119" s="1"/>
       <c r="AE119" s="1"/>
     </row>
-    <row r="120" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="120" spans="14:31">
       <c r="N120" s="1"/>
       <c r="O120" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
@@ -13455,7 +13463,7 @@
       <c r="AD120" s="1"/>
       <c r="AE120" s="1"/>
     </row>
-    <row r="121" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="121" spans="14:31">
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
@@ -13475,7 +13483,7 @@
       <c r="AD121" s="1"/>
       <c r="AE121" s="1"/>
     </row>
-    <row r="122" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="122" spans="14:31">
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
@@ -13495,10 +13503,10 @@
       <c r="AD122" s="1"/>
       <c r="AE122" s="1"/>
     </row>
-    <row r="123" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="123" spans="14:31">
       <c r="N123" s="1"/>
       <c r="O123" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
@@ -13517,7 +13525,7 @@
       <c r="AD123" s="1"/>
       <c r="AE123" s="1"/>
     </row>
-    <row r="124" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="124" spans="14:31">
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
       <c r="P124" s="1"/>
@@ -13537,7 +13545,7 @@
       <c r="AD124" s="1"/>
       <c r="AE124" s="1"/>
     </row>
-    <row r="125" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="125" spans="14:31">
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
@@ -13557,11 +13565,11 @@
       <c r="AD125" s="1"/>
       <c r="AE125" s="1"/>
     </row>
-    <row r="126" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="126" spans="14:31">
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
       <c r="P126" s="23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
@@ -13579,12 +13587,12 @@
       <c r="AD126" s="1"/>
       <c r="AE126" s="1"/>
     </row>
-    <row r="127" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="127" spans="14:31">
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
       <c r="Q127" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="R127" s="1"/>
       <c r="S127" s="1"/>
@@ -13601,7 +13609,7 @@
       <c r="AD127" s="1"/>
       <c r="AE127" s="1"/>
     </row>
-    <row r="128" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="128" spans="14:31">
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
       <c r="P128" s="1"/>
@@ -13621,7 +13629,7 @@
       <c r="AD128" s="1"/>
       <c r="AE128" s="1"/>
     </row>
-    <row r="129" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="129" spans="14:31">
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
       <c r="P129" s="1"/>
@@ -13641,7 +13649,7 @@
       <c r="AD129" s="1"/>
       <c r="AE129" s="1"/>
     </row>
-    <row r="130" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="130" spans="14:31">
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
@@ -13661,7 +13669,7 @@
       <c r="AD130" s="1"/>
       <c r="AE130" s="1"/>
     </row>
-    <row r="131" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="131" spans="14:31">
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
       <c r="P131" s="1"/>
@@ -13681,9 +13689,9 @@
       <c r="AD131" s="1"/>
       <c r="AE131" s="1"/>
     </row>
-    <row r="132" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="132" spans="14:31">
       <c r="N132" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O132" s="1"/>
       <c r="P132" s="1"/>
@@ -13703,10 +13711,10 @@
       <c r="AD132" s="1"/>
       <c r="AE132" s="1"/>
     </row>
-    <row r="133" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="133" spans="14:31">
       <c r="N133" s="1"/>
       <c r="O133" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
@@ -13725,10 +13733,10 @@
       <c r="AD133" s="1"/>
       <c r="AE133" s="1"/>
     </row>
-    <row r="134" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="134" spans="14:31">
       <c r="N134" s="1"/>
       <c r="O134" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
@@ -13747,7 +13755,7 @@
       <c r="AD134" s="1"/>
       <c r="AE134" s="1"/>
     </row>
-    <row r="135" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="135" spans="14:31">
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
       <c r="P135" s="1"/>
@@ -13767,7 +13775,7 @@
       <c r="AD135" s="1"/>
       <c r="AE135" s="1"/>
     </row>
-    <row r="136" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="136" spans="14:31">
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
       <c r="P136" s="1"/>
@@ -13787,10 +13795,10 @@
       <c r="AD136" s="1"/>
       <c r="AE136" s="1"/>
     </row>
-    <row r="137" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="137" spans="14:31">
       <c r="N137" s="1"/>
       <c r="O137" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
@@ -13809,7 +13817,7 @@
       <c r="AD137" s="1"/>
       <c r="AE137" s="1"/>
     </row>
-    <row r="138" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="138" spans="14:31">
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
       <c r="P138" s="1"/>
@@ -13829,7 +13837,7 @@
       <c r="AD138" s="1"/>
       <c r="AE138" s="1"/>
     </row>
-    <row r="139" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="139" spans="14:31">
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
       <c r="P139" s="1"/>
@@ -13849,7 +13857,7 @@
       <c r="AD139" s="1"/>
       <c r="AE139" s="1"/>
     </row>
-    <row r="140" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="140" spans="14:31">
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
       <c r="P140" s="1"/>
@@ -13869,11 +13877,11 @@
       <c r="AD140" s="1"/>
       <c r="AE140" s="1"/>
     </row>
-    <row r="141" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="141" spans="14:31">
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
       <c r="P141" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
@@ -13891,12 +13899,12 @@
       <c r="AD141" s="1"/>
       <c r="AE141" s="1"/>
     </row>
-    <row r="142" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="142" spans="14:31">
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
       <c r="P142" s="1"/>
       <c r="Q142" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="R142" s="1"/>
       <c r="S142" s="1"/>
@@ -13913,11 +13921,11 @@
       <c r="AD142" s="1"/>
       <c r="AE142" s="1"/>
     </row>
-    <row r="143" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="143" spans="14:31">
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
       <c r="P143" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
@@ -13935,12 +13943,12 @@
       <c r="AD143" s="1"/>
       <c r="AE143" s="1"/>
     </row>
-    <row r="144" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="144" spans="14:31">
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
       <c r="P144" s="1"/>
       <c r="Q144" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="R144" s="1"/>
       <c r="S144" s="1"/>
@@ -13957,12 +13965,12 @@
       <c r="AD144" s="1"/>
       <c r="AE144" s="1"/>
     </row>
-    <row r="145" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="145" spans="14:31">
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
       <c r="P145" s="1"/>
       <c r="Q145" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="R145" s="1"/>
       <c r="S145" s="1"/>
@@ -13979,9 +13987,9 @@
       <c r="AD145" s="1"/>
       <c r="AE145" s="1"/>
     </row>
-    <row r="146" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="146" spans="14:31">
       <c r="N146" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O146" s="1"/>
       <c r="P146" s="1"/>
@@ -14001,10 +14009,10 @@
       <c r="AD146" s="1"/>
       <c r="AE146" s="1"/>
     </row>
-    <row r="147" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="147" spans="14:31">
       <c r="N147" s="1"/>
       <c r="O147" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P147" s="1"/>
       <c r="Q147" s="1"/>
@@ -14023,10 +14031,10 @@
       <c r="AD147" s="1"/>
       <c r="AE147" s="1"/>
     </row>
-    <row r="148" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="148" spans="14:31">
       <c r="N148" s="1"/>
       <c r="O148" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
@@ -14045,10 +14053,10 @@
       <c r="AD148" s="1"/>
       <c r="AE148" s="1"/>
     </row>
-    <row r="149" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="149" spans="14:31">
       <c r="N149" s="1"/>
       <c r="O149" s="64" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
@@ -14067,7 +14075,7 @@
       <c r="AD149" s="1"/>
       <c r="AE149" s="1"/>
     </row>
-    <row r="150" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="150" spans="14:31">
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
       <c r="P150" s="1"/>
@@ -14087,10 +14095,10 @@
       <c r="AD150" s="1"/>
       <c r="AE150" s="1"/>
     </row>
-    <row r="151" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="151" spans="14:31">
       <c r="N151" s="1"/>
       <c r="O151" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
@@ -14109,7 +14117,7 @@
       <c r="AD151" s="1"/>
       <c r="AE151" s="1"/>
     </row>
-    <row r="152" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="152" spans="14:31">
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
       <c r="P152" s="1"/>
@@ -14129,10 +14137,10 @@
       <c r="AD152" s="1"/>
       <c r="AE152" s="1"/>
     </row>
-    <row r="153" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="153" spans="14:31">
       <c r="N153" s="1"/>
       <c r="O153" s="64" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
@@ -14151,7 +14159,7 @@
       <c r="AD153" s="1"/>
       <c r="AE153" s="1"/>
     </row>
-    <row r="154" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="154" spans="14:31">
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
       <c r="P154" s="1"/>
@@ -14171,7 +14179,7 @@
       <c r="AD154" s="1"/>
       <c r="AE154" s="1"/>
     </row>
-    <row r="155" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="155" spans="14:31">
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
       <c r="P155" s="1"/>
@@ -14191,11 +14199,11 @@
       <c r="AD155" s="1"/>
       <c r="AE155" s="1"/>
     </row>
-    <row r="156" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="156" spans="14:31">
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
       <c r="P156" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="Q156" s="1"/>
       <c r="R156" s="1"/>
@@ -14213,12 +14221,12 @@
       <c r="AD156" s="1"/>
       <c r="AE156" s="1"/>
     </row>
-    <row r="157" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="157" spans="14:31">
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
       <c r="P157" s="1"/>
       <c r="Q157" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="R157" s="1"/>
       <c r="S157" s="1"/>
@@ -14235,11 +14243,11 @@
       <c r="AD157" s="1"/>
       <c r="AE157" s="1"/>
     </row>
-    <row r="158" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="158" spans="14:31">
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
       <c r="P158" s="74" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="Q158" s="75"/>
       <c r="R158" s="11"/>
@@ -14257,11 +14265,11 @@
       <c r="AD158" s="1"/>
       <c r="AE158" s="1"/>
     </row>
-    <row r="159" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="159" spans="14:31">
       <c r="O159" s="1"/>
       <c r="P159" s="11"/>
       <c r="Q159" s="18" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="R159" s="11"/>
       <c r="S159" s="11"/>
@@ -14271,10 +14279,10 @@
       <c r="W159" s="1"/>
       <c r="X159" s="1"/>
     </row>
-    <row r="160" spans="14:31" x14ac:dyDescent="0.35">
+    <row r="160" spans="14:31">
       <c r="O160" s="1"/>
       <c r="P160" s="74" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="Q160" s="75"/>
       <c r="R160" s="11"/>
@@ -14285,11 +14293,11 @@
       <c r="W160" s="1"/>
       <c r="X160" s="1"/>
     </row>
-    <row r="161" spans="15:24" x14ac:dyDescent="0.35">
+    <row r="161" spans="15:24">
       <c r="O161" s="1"/>
       <c r="P161" s="11"/>
       <c r="Q161" s="18" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="R161" s="11"/>
       <c r="S161" s="11"/>
@@ -14299,10 +14307,10 @@
       <c r="W161" s="1"/>
       <c r="X161" s="1"/>
     </row>
-    <row r="162" spans="15:24" x14ac:dyDescent="0.35">
+    <row r="162" spans="15:24">
       <c r="O162" s="1"/>
       <c r="P162" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Q162" s="1"/>
       <c r="R162" s="1"/>
@@ -14313,11 +14321,11 @@
       <c r="W162" s="1"/>
       <c r="X162" s="1"/>
     </row>
-    <row r="163" spans="15:24" x14ac:dyDescent="0.35">
+    <row r="163" spans="15:24">
       <c r="O163" s="1"/>
       <c r="P163" s="1"/>
       <c r="Q163" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="R163" s="1"/>
       <c r="S163" s="1"/>
@@ -14327,11 +14335,11 @@
       <c r="W163" s="1"/>
       <c r="X163" s="1"/>
     </row>
-    <row r="164" spans="15:24" x14ac:dyDescent="0.35">
+    <row r="164" spans="15:24">
       <c r="O164" s="1"/>
       <c r="P164" s="1"/>
       <c r="Q164" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="R164" s="1"/>
       <c r="S164" s="1"/>
@@ -14341,11 +14349,11 @@
       <c r="W164" s="1"/>
       <c r="X164" s="1"/>
     </row>
-    <row r="165" spans="15:24" x14ac:dyDescent="0.35">
+    <row r="165" spans="15:24">
       <c r="O165" s="1"/>
       <c r="P165" s="1"/>
       <c r="Q165" s="39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="R165" s="11"/>
       <c r="S165" s="11"/>
@@ -14356,7 +14364,7 @@
       <c r="X165" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="R81" location="若右侧列表存在该道具条目_则直接堆叠数量加1" display="进入列表的处理快速通道"/>
   </hyperlinks>
@@ -14373,7 +14381,7 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10" style="78" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="9" style="78"/>
@@ -14382,147 +14390,147 @@
     <col min="14" max="16384" width="9" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="77" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" s="77" customFormat="1">
       <c r="A1" s="76">
         <v>42312</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="17.25">
       <c r="B2" s="79" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C2" s="79" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
       <c r="H2" s="80" t="s">
+        <v>397</v>
+      </c>
+      <c r="L2" s="80" t="s">
+        <v>398</v>
+      </c>
+      <c r="M2" s="80" t="s">
+        <v>399</v>
+      </c>
+      <c r="N2" s="80" t="s">
+        <v>397</v>
+      </c>
+      <c r="O2" s="81"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="B3" s="82" t="s">
         <v>400</v>
       </c>
-      <c r="L2" s="80" t="s">
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="M2" s="80" t="s">
-        <v>402</v>
-      </c>
-      <c r="N2" s="80" t="s">
-        <v>400</v>
-      </c>
-      <c r="O2" s="81"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B3" s="82" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B4" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:15">
       <c r="B5" s="78">
         <v>1</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H5" s="78">
         <v>1</v>
       </c>
       <c r="M5" s="78" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="N5" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15">
       <c r="B6" s="78">
         <v>2</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H6" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15">
       <c r="B7" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="B8" s="78">
         <v>3</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H8" s="78">
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15">
       <c r="B9" s="78">
         <v>4</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H9" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15">
       <c r="B10" s="78">
         <v>5</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H10" s="78">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15">
       <c r="B11" s="78">
         <v>6</v>
       </c>
       <c r="C11" s="78" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H11" s="78">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15">
       <c r="B12" s="78">
         <v>7</v>
       </c>
       <c r="C12" s="78" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H12" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15">
       <c r="B14" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="C15" s="78" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H15" s="78">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14535,12 +14543,12 @@
       <selection activeCell="M109" sqref="M109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="8" customFormat="1">
       <c r="A1" s="7">
         <v>42303</v>
       </c>
@@ -14548,7 +14556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -14556,17 +14564,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
@@ -14574,12 +14582,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="B7" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -14587,7 +14595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
@@ -14595,17 +14603,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="B12" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -14613,7 +14621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="B16" s="11" t="s">
         <v>25</v>
       </c>
@@ -14621,7 +14629,7 @@
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2">
       <c r="A18" s="9" t="s">
         <v>8</v>
       </c>
@@ -14629,22 +14637,22 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2">
       <c r="B19" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2">
       <c r="B20" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2">
       <c r="B21" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>4</v>
       </c>
@@ -14652,12 +14660,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2">
       <c r="B24" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2">
       <c r="A26" s="9" t="s">
         <v>8</v>
       </c>
@@ -14665,7 +14673,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>5</v>
       </c>
@@ -14673,12 +14681,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2">
       <c r="B29" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2">
       <c r="A31" s="9" t="s">
         <v>8</v>
       </c>
@@ -14686,7 +14694,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>6</v>
       </c>
@@ -14694,15 +14702,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6">
       <c r="B34" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6">
       <c r="B35" s="10"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6">
       <c r="A36" s="9" t="s">
         <v>8</v>
       </c>
@@ -14710,22 +14718,22 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6">
       <c r="B37" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6">
       <c r="B38" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6">
       <c r="B39" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>7</v>
       </c>
@@ -14733,7 +14741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6">
       <c r="A43" s="9" t="s">
         <v>8</v>
       </c>
@@ -14741,7 +14749,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>8</v>
       </c>
@@ -14749,7 +14757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6">
       <c r="A47" s="9" t="s">
         <v>8</v>
       </c>
@@ -14761,7 +14769,7 @@
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2">
       <c r="A49" s="1">
         <v>9</v>
       </c>
@@ -14769,7 +14777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2">
       <c r="A51" s="9" t="s">
         <v>8</v>
       </c>
@@ -14777,7 +14785,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2">
       <c r="A53" s="1">
         <v>10</v>
       </c>
@@ -14785,7 +14793,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2">
       <c r="A55" s="9" t="s">
         <v>8</v>
       </c>
@@ -14793,7 +14801,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2">
       <c r="A57" s="1">
         <v>11</v>
       </c>
@@ -14801,7 +14809,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2">
       <c r="A59" s="9" t="s">
         <v>8</v>
       </c>
@@ -14809,7 +14817,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2">
       <c r="A61" s="1">
         <v>12</v>
       </c>
@@ -14817,22 +14825,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2">
       <c r="B62" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2">
       <c r="B63" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2">
       <c r="B64" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3">
       <c r="A66" s="9" t="s">
         <v>8</v>
       </c>
@@ -14841,22 +14849,22 @@
       </c>
       <c r="C66" s="11"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3">
       <c r="B67" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3">
       <c r="B68" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3">
       <c r="B69" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
         <v>13</v>
       </c>
@@ -14864,7 +14872,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3">
       <c r="A73" s="9" t="s">
         <v>8</v>
       </c>
@@ -14872,7 +14880,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3">
       <c r="A75" s="1">
         <v>14</v>
       </c>
@@ -14880,7 +14888,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3">
       <c r="A77" s="9" t="s">
         <v>8</v>
       </c>
@@ -14888,12 +14896,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3">
       <c r="B78" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3">
       <c r="A80" s="1">
         <v>15</v>
       </c>
@@ -14901,7 +14909,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2">
       <c r="A82" s="9" t="s">
         <v>8</v>
       </c>
@@ -14909,7 +14917,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2">
       <c r="A84" s="1">
         <v>16</v>
       </c>
@@ -14917,7 +14925,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2">
       <c r="A86" s="9" t="s">
         <v>8</v>
       </c>
@@ -14925,7 +14933,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2">
       <c r="A88" s="1">
         <v>17</v>
       </c>
@@ -14933,7 +14941,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2">
       <c r="A90" s="9" t="s">
         <v>8</v>
       </c>
@@ -14941,7 +14949,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2">
       <c r="A92" s="1">
         <v>18</v>
       </c>
@@ -14949,7 +14957,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2">
       <c r="A94" s="9" t="s">
         <v>8</v>
       </c>
@@ -14957,12 +14965,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2">
       <c r="B95" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2">
       <c r="A97" s="1">
         <v>19</v>
       </c>
@@ -14970,12 +14978,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2">
       <c r="B98" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2">
       <c r="A100" s="9" t="s">
         <v>8</v>
       </c>
@@ -14983,13 +14991,13 @@
         <v>58</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2">
       <c r="B101" s="1" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/gd/宠物系统/宠物图鉴设计.xlsx
+++ b/gd/宠物系统/宠物图鉴设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="4" r:id="rId1"/>
@@ -16,810 +16,807 @@
     <sheet name="评审问题" sheetId="2" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="该比例与稀有度关系固定_类似合成宝石的权重规则__记在config里即可_方便策划修改_。">宠物合成界面!$K$113</definedName>
-    <definedName name="获得途径子标题1">宠物合成界面!$H$201</definedName>
-    <definedName name="技能tips规范详见文档《阵容选择界面》的“UI规则”切页">宠物合成界面!$I$187</definedName>
+    <definedName name="该比例与稀有度关系固定_类似合成宝石的权重规则__记在config里即可_方便策划修改_。">宠物合成界面!$K$108</definedName>
+    <definedName name="获得途径子标题1">宠物合成界面!$H$199</definedName>
+    <definedName name="技能tips规范详见文档《阵容选择界面》的“UI规则”切页">宠物合成界面!$I$185</definedName>
+    <definedName name="万能碎片最多只能替换X_的宠物碎片哟_”">宠物合成界面!$O$123</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="418">
   <si>
     <t>进入</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>标题</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>多语言ID</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>符合通用文字缩放规则</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>详见文档《宠物界面》的“玩家拥有宠物界面”切页</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>图鉴</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴评审</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴的页签建议和宠物列表保持统一，要是用图都用图，要是用文字都用问题。没有“全部”？</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>解决方案</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>合成出来都是白色宠物么？碎片数量区别用途是？都是白色的话图鉴有点没吸引力</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴界面彩色和灰色头像区别是什么？灰色看起来像不能点击</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴排序规则是？</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>收集宠物的数量是代表种类是么？</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>有万能碎片的话优先用万能碎片么？先消耗宠物碎片比较合适吧</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>获得途径是点了能直接去打副本么？</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>图鉴中缺少宠物属性内容，建议增加</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片设计目的不明，非常必要么？</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>宠物技能要有tips么？</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>整体布局与宠物列表相似，且从宠物列表作为入口，但是分页签与宠物列表使用了相同含义不同表现的分页，感觉不好。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>图鉴中宠物是否有天生三星之类的，是否需要显示其天生的品质</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>宠物稀有度属性还要么，其他地方没有显示，图鉴里要不要显示</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>挺好 但是如果能从这里看出 那些怪比较稀有就好了</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>不错，那个android的图标是什么？</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>属性图标看起来比较单薄，也和其他界面不统一</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>缺少稀有度等简要信息。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>灰色建议加锁等更明确的提示。</t>
   </si>
   <si>
     <t>目前的养成会使得宠物碎片出现过剩的情况,通过到的宠物碎片再次回收为万能碎片来使其他宠物升级,目前数值汇率暂定为4换1,参考影之刃招式万能碎片的定位</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>要有的，和宠物的技能界面的技能图标逻辑一致</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>召唤出来都是最低品质的，没有天生厉害的</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>一个临时的万能宠物碎片图标</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>图鉴中是否有必要 包含 “碎片”信息？</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>收集宠物代表的是我已经合成了多少个宠物？还是已经点亮了多少个图鉴？</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片给个tips告诉玩家如何获得么？</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>是否按照碎片的多少排列下？方便合成？不确定合不合适=，=</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>点完就合成了么？还有合成的界面么？</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>点击图鉴能看到宠物信息么或者tips</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>感觉应该优先消耗宠物碎片而不是万能碎片</t>
   </si>
   <si>
     <t>结算得到宠物和召唤，当年说统一效果，现在是否已经废弃了这个设计</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>召唤和宠物图鉴放在一起，个人感觉是个不好的设计，这样除了掉落，得到宠物只能是通过碎片召唤了，</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>是不准备做抽取宠物这种东西吗 还是说 抽取宠物再出一种得到宠物的表现</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>没有“全部”。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>页签大家反映比较多，改为和宠物列表一致的。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>合成出来的都是白色宠物</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>碎片数量肯定是越稀有的宠物需要的碎片比较多（这一点演示有点问题，做的时候忘记改那个数量了，其实也是从少到多的）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>彩色代表玩家拥有过该宠物，灰着代表玩家从未拥有过该宠物</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>按照宠物稀有度由低到高排序的，排列位置固定</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片与宠物碎片之间首先在合成操作上，没有一定的优先消耗谁的规则，宠物碎片足够时，是否消耗万能碎片是玩家自己点选的。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>但是一旦选择使用万能碎片，是由一定规则的：</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1）最大只能替换一定比例的宠物碎片，若玩家拥有的万能碎片足够支付某宠物可替换比例的最大值，则选择了万能碎片后，一定消耗最大值；</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2）若玩家拥有的万能碎片不足够支付某宠物可替换比例的最大值，则选择了万能碎片后，消耗掉玩家拥有的所有量。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>点了指引到副本入口（获得途径的指引逻辑与道具tips一致）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>因为宠物合成是放在图鉴这边的，增加碎片信息时为了使玩家在图鉴界面就能一目了然的看到哪个宠物能合成，哪个宠物不能合成</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>否则需要点击图鉴中的宠物头像进入合成界面才能看到这个信息，比较麻烦</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>是种类，也就是点亮了多少个图鉴</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片算是一个道具，符合道具通用逻辑，所以tips是会告诉如何获得的</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>已确认，没有问题</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>已确认，没有问题</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>是统一效果，区别只在于这个位置不像副本有背景，所以这个位置需要美术给个背景（就是副本外的得到宠物的展示都统一用这个背景）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>不是除了掉落得到宠物只能通过碎片召唤，这里只是利用宠物碎片合成宠物这种途径的操作界面。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>不影响抽取宠物的功能（也就是说抽蛋那些玩意一样能抽宠物），获得宠物的展现形式一致即可（如问题19所回答的那样）。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>其他效果与结算都是一样的（恭喜的文字信息、宠物跑过来先播出场然后待机、下面的确定按钮）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>看了一部分游戏（看了魔灵、dota、小红帽、十冷、天下，当然他们之间有可重复召唤或者只能有一个的区别）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>在宠物图鉴这块都是用置灰来代表未拥有过该宠物或者该宠物不可召唤，且他们置灰时都是响应点击的，所以灰色在这里能点击感觉还算可以接受。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>加锁这个处理方法是首先我们的游戏可以给宠物加锁（这个宠物就不能当做材料、分解等），所以这里不建议用加锁，容易误解。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>首先稀有度这个玩意是完全不影响属性的，他只是代表这个怪物好获得还是不好获得，</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>所以图鉴这个位置在排序时是打算按照稀有度由低到高排，在界面上直接显示给玩家的就是合成需要的碎片由少到多的。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>不打算再多让玩家多学习一个“稀有度”的概念，增加学习成本，用处还不大（主要理由就是稀有度并不影响属性）。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>图鉴从头像上能区分好坏么？</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>头像不能区分好坏，只能区分稀有度。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>采纳，增加宠物基础属性内容（右侧可以滑动查看更多）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴UI</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>标题</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>关闭按钮</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>收集宠物进度</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片数量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>切页标签</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>宠物列表</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>显示“收集宠物  玩家已拥有宠物种类数量/当前页签属性下的宠物种类数量总数”</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>收集宠物</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>handbook_shouji</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>玩家已拥有宠物种类数量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>玩家当前是否仍拥有该宠物不影响（即玩家拥有后将宠物分解了、当做材料喂了等等情况）。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>这里计数只包含当前页签下的玩家拥有或者拥有过的宠物种类数量。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片数量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>（顺序别看这图！！！）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>同“玩家拥有宠物界面”</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>单个样式</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>宠物头像</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>宠物碎片信息</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>宠物头像</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>显示宠物头像</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>显示“玩家当前拥有的该宠物碎片数量/该宠物合成需要的碎片数量“</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>整体在宠物头像下方居中显示</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>列表排列规则</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>图鉴目前其实是按照宠物稀有度由低到高排序的，排列位置固定</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>需要有正常显示状态和暗色显示状态</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>正常显示状态</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>代表玩家已经拥有或者拥有过该宠物</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>暗色显示状态</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>代表玩家从未拥有过该宠物</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>获得后回到该界面立即刷新宠物头像状态</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>特殊规则</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>这个位置的万能碎片图标需要缩小版的icon图标，且该icon图标响应点击，弹出万能碎片的tips（tips符合通用规范）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>默认显示</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>打开界面时，默认显示第一个切页，且下方列表显示最上</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>若玩家关闭该图鉴界面，重新打开，则回到界面默认显示；</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>若玩家通过宠物头像打开宠物合成界面，则从宠物合成界面回到该界面时，该界面的切页选择与列表位置保持在进入宠物合成界面之前的显示状态（宠物头像根据玩家在宠物合成界面的操作进行刷新显示）。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>宠物合成界面</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>返回按钮</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>宠物属性图标</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>宠物名称</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>宠物3D形象</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>宠物碎片信息</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片信息</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>提示信息</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>召唤按钮</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>基础属性区域</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>技能区域</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>获得途径区域</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>通过点击宠物图鉴界面的宠物头像进入</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮，返回到宠物图鉴界面</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>宠物属性图标、宠物名称</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>同”宠物详情界面“</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>详见文档《宠物界面》的“宠物详情界面”切页</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>区别</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1）由于图鉴位置宠物均为白色品质，因此这个位置的宠物名称均显示为白色</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2）这个位置不会有宠物+n的显示需求</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>显示   碎片</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>碎片</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>碎片条</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>显示  “万能碎片图标  玩家拥有的万能碎片数量”</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>显示出玩家拥有的该宠物碎片数量占该宠物合成需求的碎片数量比例</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>若n&gt;=m，则显示为填充满的装填</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>单选按钮</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>万能宠物碎片图标</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>玩家拥有的万能宠物碎片数量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>控件类型</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>按钮</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>显示位置</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>见示意图</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>出现/隐藏规则</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>按钮文案</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>多语言ID</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>按钮操作</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>显示位置</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>见示意图</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>出现/隐藏规则</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>控件操作</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>——》</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>按钮样式</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>普通</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>选中</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>音效</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>事件</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>音效资源</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>点击控件</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>待回归</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>单选控件普通状态时，点击后变为选中状态</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>单选控件</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>宠物合成界面出现时出现</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>单选控件选中状态时，点击后变为普通状态</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>显示玩家拥有量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>handbook_tips</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>召唤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>不满足该宠物召唤需求</t>
   </si>
   <si>
     <t>按钮正常状态时，点击按钮，弹出二级确认框</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1）当玩家未选择万能碎片时，判断玩家拥有的宠物碎片数量a与召唤该宠物需要的碎片数量b的关系，</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>显示“*万能碎片最大只能替换X%的宠物碎片哟！”</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片逻辑</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>若玩家拥有的万能碎片不足够支付某宠物可替换比例的最大值，则选择了万能碎片后，消耗掉玩家拥有的所有量。</t>
   </si>
   <si>
     <t>1）万能碎片最大只能替换一定比例的宠物碎片，该比例跟随宠物稀有度变化，宠物每个稀有度都对应一个最大可替换的宠物碎片比例，各稀有度对应比例待定。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>其中，X跟随宠物稀有度变化</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2）玩家选择使用万能碎片时：</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>若玩家拥有的万能碎片足够支付某宠物可替换比例的最大值，则选择了万能碎片后，一定消耗该最大值；</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>情况1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>情况2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>显示位置</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>屏幕中央</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>提示信息</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>确定进行1次召唤吗？</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>多语言ID</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>handbook_tips1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>点击取消按钮，关闭二级，不进行召唤操作，回到宠物召唤界面（宠物召唤界面状态保持与开启二级之前相同）；</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>根据实际消耗的碎片数量显示，若玩家未选择使用万能碎片，则不显示万能碎片数量那一行</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>点击确定按钮，关闭二级，进行召唤操作，扣除实际消耗的碎片，进入获得宠物展示阶段。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>获得宠物展示需求与副本获得宠物展示需求相同，区别在于此处没有副本背景，因此需要美术提供一个宠物展示背景。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>展示完成后，回到宠物合成界面，界面宠物碎片与万能碎片数量刷新为扣除之前召唤消耗之后的量，万能碎片的单选按钮均变为未选中状态（无论召唤前是否选中）。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>按钮样式</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>普通</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>按下</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>不可用</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>音效</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>事件</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>音效资源</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>待回归</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>显示宠物基础属性</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>基础属性标题</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>pet_detail_stage_attr</t>
   </si>
   <si>
     <t>基础属性数值</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>基础属性</t>
@@ -856,258 +853,258 @@
   </si>
   <si>
     <t>显示宠物拥有的技能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>技能标题</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>技能图标列表</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>基础属性标题、基础属性数值</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>文字效果与“装备属性界面”相同即可，基础属性数值此处排版如图所示</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>效果与“基础属性标题”相同</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>pet_detail_left_skill</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>显示出该宠物拥有的所有技能icon</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>优先排从左至右排列</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>显示可以获得该宠物碎片的途径介绍</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>获得途径标题</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>具体获得途径</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>获得途径</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>handbook_huodeway</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>显示规则同道具tips中的获得途径</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>详见文档《道具基础逻辑》的“UI表现逻辑”切页</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>PS：美术需定义在此界面显示的字体大小，由于和tips页面大小不同，所以显示上文字大小应有不同</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>文档名称</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>文档目的</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>目标读者</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>所有</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>文档路径</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>文档状态</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>详细信息</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>编写中</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>待审核(策划)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>修改中（策划）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>待审核(QC)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>修改中(QC)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>待3方</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>已定案</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>文档历史</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>发布日期</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>知会同事</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>标记颜色</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>创建人</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>修订人</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.1</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>有关会议</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>会议日期</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>参与同事</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>基本概要</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴相关逻辑说明</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>技能icon响应点击，点击弹出tips</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2）通过“玩家拥有宠物界面”的“图鉴”按钮进入</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>handbook_zhaohuan</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1）从主界面的图鉴UI进入（具体由主界面设计）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>“图鉴”按钮</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>符合通用文字缩放规则，美术给控件尺寸及字体范围</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>（顺序别</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>看这图！！！）</t>
   </si>
   <si>
     <t>这个位置的万能碎片图标需要缩小版的icon图标</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>当玩家获得该宠物时（无论以何种方式获得，不限于此界面获得），该宠物的头像由暗色显示变为正常显示</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>宠物头像无论在哪种状态下，均响应玩家点击，点击弹出对应宠物的宠物合成界面。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>宠物合成界面见“宠物合成界面”切页</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>各个宠物的排列位置固定（按照宠物稀有度由低到高排序，表现上为合成需要的碎片数量由少到多）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>具体位置待版本内怪物都设计好后定</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>样式同”宠物详情界面“</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>这个位置的万能碎片图标需要缩小版的icon图标，且该icon图标响应点击</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1134,261 +1131,245 @@
       </rPr>
       <t>。</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>svn://10.21.2.47/gd/宠物系统/宠物图鉴设计.xlsx</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴设计</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>碎片数量有上限么</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>太小了手机上不好点吧</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>圣兽那个玩意，这个界面要显示么</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体对应关系还没有么？</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>已选择吧</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片是道具么，在背包显示么？</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>分解宠物能不能获得万能碎片呢？</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>这个意思是不是就是说优先消耗万能碎片？</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>直接显示碎片图标也行吧？</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>同上</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>顺序如图？</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>技能顺序？</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>道具那边写的好像不是太详细，也没有提到商城</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>为啥不使用全属性宠物总数，单属性感觉上每个页签是相互独立的，另外，是否考虑过加个全部页签，和宠物列表统一起来</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>都是数字,缩放啥………………</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>感觉好惨淡</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>n有上限限制么</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>建议，最多好一点吧</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>兑换比例缺失</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>建议，可点并提示im</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>勘误，选择万能碎片时</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片不用图标么</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>感觉采用变暗处理就行了</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>显示1级白色宠物属性？</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>有顺序需求么，小招在前大招在后</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>道具里面的获得途径待定，这里也待定么？</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>宠物碎片是道具么，在背包显示么？</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>为啥是优先消耗万能碎片，而不是优先消耗玩家碎片</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>显示的下</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>不加“全部”了，主要考虑是宠物图鉴这如果有分页签，一般就没有看全部的需求了</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>歧义，拥有某只宠物，在失去，在拥有，应该数量只+1，改成玩家拥有该页签下的任意一只宠物时，此位置数量加1，之后玩家多次失去或者获得该宠物，此处数量不会随之改变如何</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>是指玩家拥有任一页签下的任意一只宠物时，此位置数量加1，之后玩家多次失去或者获得该宠物，此处数量不会随之改变。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>这个位置的万能碎片图标需要缩小版的icon图标（尽量大点），且该icon图标响应点击，弹出万能碎片的tips（tips符合通用规范）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>不要</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>。。。。=。=</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>没有</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>这的位置可扩展的地界太小，怕多语言时候放不下</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示“*万能碎片最多只能替换X%的宠物碎片哟！”</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2）当玩家选择万能碎片时，判断玩家拥有的宠物碎片数量a、万能碎片数量c与召唤该宠物需要的碎片数量b的关系，</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>是道具，但是背包不显示</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>因为按钮大小固定，翻译成其他国家文字很难保证不超出</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>其中，X跟随宠物稀有度变化</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>提示方式</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>触发条件</t>
   </si>
   <si>
     <t>提示范围</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>文字内容</t>
   </si>
   <si>
     <t>对应英文</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>世界频道</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>公会频道</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>走马灯</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>系统提示（非警示）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>系统提示（警示）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>系统公告</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>玩家自己</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>handbook_btn</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>玩家不满足合成宠物条件时点击召唤按钮</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>碎片不足</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>当玩家拥有的材料不满足该宠物召唤需求时，点击按钮弹出提示信息handbook_record_001；</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>该界面出现时出现</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>数值回答你：优先消耗，万能碎片会投产较多,特定的宠物碎片比较不易得</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1414,7 +1395,7 @@
       </rPr>
       <t>*实际消耗的宠物碎片数量</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1440,67 +1421,63 @@
       </rPr>
       <t>*实际消耗的宠物碎片数量</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮，弹出二级确认框</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>基础属性数值显示的是1级白色宠物的</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>文字效果与“装备属性界面”相同即可，基础属性数值此处排版如图所示（包含顺序）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>因为规则和道具的完全一致，唯一区别就是这里显示的字体可能大一些（还是美术定，我只是预估），所以这里都是跟着道具的（道具待定，那这个也得待定）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>例子是瞎写的。。。别介意。。。具体有什么都跟着道具那边的规则走</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>排列顺序</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>大招，物理，法术，buff，被动</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>如果某个怪没有其中得某个技能，则后面的依次提前</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>显示不下时，可以通过下滑查看更多</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>下面写了待定</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>有背景好看一些~炫酷一些~</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>上方数字显示格式：n/m，n为玩家拥有的该宠物碎片数量，m为该宠物合成需求的碎片数量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>整体居中显示</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>回归测试反馈</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1516,7 +1493,7 @@
       </rPr>
       <t>D形象进行查看</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1532,130 +1509,130 @@
       </rPr>
       <t>5度</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>上下可进行旋转角度范围为：水平视角与俯角45度，玩家手指在屏幕上直线上下滑动只会造成查看模型的视角旋转</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>左右可进行360度旋转，玩家手指在屏幕上直线水平滑动只会造成模型左右旋转</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>玩家手指在屏幕上非直线水平或者上下滑动时，以上两个旋转会同时发生。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>增加宠物展示区旋转宠物功能（同样适用于宠物详情界面）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>等道具tips获得途径出了再做</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>（效果可参考一下魔灵）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>类别信息</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>宠物属性图标、宠物名称、类别信息</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>targetItem</t>
   </si>
   <si>
     <t xml:space="preserve">needCount </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>合成/兑换列表</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>合成/兑换需要数量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>配置格式符合道具通用配置结构</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>该宠物合成需要的碎片数量的配置：道具Item表</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>填写该碎片可合成的宠物id</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>若a&gt;=b，则满足召唤需求；否则为不满足。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>因此，若万能碎片c满足情况1，加上玩家拥有的该宠物碎片的数量a的值&gt;=b，则满足召唤需求；</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">           若万能碎片c满足情况2，加上玩家拥有的该宠物碎片的数量a的值&gt;=b，则满足召唤需求；</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">           否则，为不满足召唤需求。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>技能tips规范详见文档《阵容选择界面》的“UI规则”切页</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>三方后回归问题</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1、修改技能tips指引文档</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>获得途径子标题1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>获得途径子标题2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>显示“宠物”</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>获得途径子标题2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>显示“宠物碎片”</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>宠物碎片</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>多语言ID</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1681,66 +1658,66 @@
       </rPr>
       <t>即可（方便策划修改）。</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2、获得途径修改</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>3、万能碎片的稀有度对应比例描述修改</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>4、删除不需要的缩放需求</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>handbook_record_001</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>类别</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>对应工时（单位d）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>策划验收+配置任务</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>对应程序任务</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>程序</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>宠物3D形象(重新封装一下，添加功能)</t>
   </si>
   <si>
     <t>宠物合成界面UI(需要修改技能tip通用，途径只包含界面部分)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>召唤获取宠物界面(视需要添加的情况)</t>
@@ -1750,67 +1727,86 @@
   </si>
   <si>
     <t>宠物合成</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>图鉴功能修改</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>图鉴、合成界面</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1,2,3,4,5,6</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">客户端宠物图鉴UI </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>pet_list_title</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>handbook_petsuipian</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>添加任务拆分切页</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>item_type_chip</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>显示不下时，可以通过下滑查看更多（是指整个右侧界面可滑动）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>显示“收集宠物  玩家已拥有宠物种类数量/所有页签的宠物种类数量总数”</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>所有页签的宠物种类数量总数</t>
   </si>
   <si>
     <t>是所有页签下显示的宠物种类总数</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>*万能碎片最多只能替换X%的宠物碎片哟！”</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改万能碎片提示信息位置</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1996,7 +1992,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2054,6 +2050,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00CC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2265,247 +2267,253 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="58" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="58" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="26" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4235,14 +4243,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>33131</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>16564</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>226162</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>2909</xdr:rowOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>2910</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4273,13 +4281,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>115956</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>149087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>149088</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4323,13 +4331,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>177247</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>94421</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>108915</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>94422</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4373,14 +4381,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>33131</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>33130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>162980</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>5034</xdr:rowOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>5035</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4411,14 +4419,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>621196</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>596347</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>4342</xdr:rowOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>4341</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4449,13 +4457,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>41414</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>115957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>660538</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>115958</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4499,13 +4507,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>124240</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>107674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>55908</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>107675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4549,13 +4557,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>132521</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>149087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>64189</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>149088</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4597,136 +4605,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>82826</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>66261</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>323022</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>47735</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12" name="组合 11"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="9698935" y="24996913"/>
-          <a:ext cx="2990022" cy="1845061"/>
-          <a:chOff x="9698935" y="22106283"/>
-          <a:chExt cx="2990022" cy="1845061"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="41" name="图片 40"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9698935" y="22106283"/>
-            <a:ext cx="2990022" cy="1845061"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="8" name="图片 7"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10444369" y="22768891"/>
-            <a:ext cx="628571" cy="523810"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="11" name="图片 10"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10709414" y="23000805"/>
-            <a:ext cx="331304" cy="281609"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="5" name="图片 4"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10750826" y="22768892"/>
-            <a:ext cx="281609" cy="273787"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>41413</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>8283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>136251</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4736,7 +4623,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13782261" y="26595457"/>
+          <a:off x="13782261" y="26181326"/>
           <a:ext cx="2898913" cy="1784490"/>
           <a:chOff x="13782261" y="23704826"/>
           <a:chExt cx="2898913" cy="1784490"/>
@@ -4750,7 +4637,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -4773,7 +4660,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -4812,7 +4699,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -5058,7 +4945,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5151,7 +5038,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5248,7 +5135,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5269,14 +5156,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>135888</xdr:colOff>
-      <xdr:row>196</xdr:row>
-      <xdr:rowOff>7686</xdr:rowOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>7687</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5286,7 +5173,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5307,13 +5194,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>372718</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>132522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>80756</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>132522</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5357,13 +5244,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>389282</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>57979</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>97320</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>57979</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5407,13 +5294,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>160683</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>127553</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>306456</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>140804</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5457,13 +5344,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>318051</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>110987</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5501,6 +5388,82 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>41413</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>57979</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>414130</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>44282</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9657522" y="24988631"/>
+          <a:ext cx="3122543" cy="2056955"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>372717</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>99392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>546652</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>36054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="图片 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14113565" y="27514827"/>
+          <a:ext cx="2236304" cy="350793"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8594,13 +8557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H33"/>
+  <dimension ref="A2:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" style="24"/>
     <col min="2" max="2" width="27.875" style="24" customWidth="1"/>
@@ -8610,278 +8573,291 @@
     <col min="8" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25">
-      <c r="A4" s="24" t="s">
+      <c r="B4" s="26" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="24" t="s">
+      <c r="B6" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B6" s="3" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="24" t="s">
-        <v>233</v>
-      </c>
       <c r="B8" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
     </row>
-    <row r="11" spans="1:8" ht="17.25" thickBot="1">
+    <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="25"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="17.25" thickTop="1">
-      <c r="B12" s="93" t="s">
+    <row r="12" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="94" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" s="95"/>
+      <c r="D12" s="96" t="s">
         <v>234</v>
       </c>
-      <c r="C12" s="94"/>
-      <c r="D12" s="95" t="s">
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="97"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B13" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="96"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="28" t="s">
+      <c r="C13" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="91"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B14" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="90"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" s="28" t="s">
+      <c r="C14" s="30"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="100"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B15" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="99"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" s="28" t="s">
+      <c r="C15" s="30"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="103"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B16" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="102"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="B16" s="28" t="s">
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="91"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="90"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="B17" s="28" t="s">
+      <c r="C17" s="29"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="91"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="90"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="B18" s="28" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="91"/>
+    </row>
+    <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="90"/>
-    </row>
-    <row r="19" spans="1:8" ht="17.25" thickBot="1">
-      <c r="B19" s="31" t="s">
+      <c r="C19" s="32"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="93"/>
+    </row>
+    <row r="20" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="92"/>
-    </row>
-    <row r="20" spans="1:8" ht="17.25" thickTop="1"/>
-    <row r="21" spans="1:8">
-      <c r="A21" s="24" t="s">
+      <c r="B21" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="D21" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="E21" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="F21" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="G21" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="G21" s="25" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B22" s="3"/>
       <c r="C22" s="25"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B23" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C23" s="33">
         <v>42305</v>
       </c>
       <c r="E23" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="F23" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="F23" s="25" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B24" s="3"/>
       <c r="C24" s="33">
         <v>42310</v>
       </c>
       <c r="E24" s="62"/>
       <c r="G24" s="25" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B25" s="3"/>
       <c r="C25" s="33">
         <v>42312</v>
       </c>
       <c r="E25" s="67"/>
       <c r="G25" s="25" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B26" s="3"/>
       <c r="C26" s="33"/>
       <c r="E26" s="67"/>
       <c r="H26" s="73" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B27" s="3"/>
       <c r="C27" s="33"/>
       <c r="E27" s="67"/>
       <c r="H27" s="73" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B28" s="3"/>
       <c r="C28" s="33"/>
       <c r="E28" s="67"/>
       <c r="H28" s="73" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B29" s="3"/>
       <c r="C29" s="33"/>
       <c r="E29" s="67"/>
       <c r="H29" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B30" s="3"/>
       <c r="C30" s="33"/>
       <c r="E30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B31" s="3"/>
-      <c r="C31" s="33"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="24" t="s">
+      <c r="C31" s="33">
+        <v>42326</v>
+      </c>
+      <c r="E31" s="105"/>
+      <c r="G31" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="H31" s="73" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B32" s="3"/>
+      <c r="C32" s="33"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C33" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C32" s="25" t="s">
+      <c r="D33" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="E33" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="E32" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
       <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="G34" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -8895,11 +8871,12 @@
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="D16:H16"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H27" location="获得途径子标题1" display="2、获得途径修改"/>
     <hyperlink ref="H26" location="技能tips规范详见文档《阵容选择界面》的“UI规则”切页" display="1、修改技能tips指引文档"/>
     <hyperlink ref="H28" location="该比例与稀有度关系固定_类似合成宝石的权重规则__记在config里即可_方便策划修改_。" display="3、万能碎片的稀有度对应比例描述修改"/>
+    <hyperlink ref="H31" location="万能碎片最多只能替换X_的宠物碎片哟_”" display="修改万能碎片提示信息位置"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8909,187 +8886,187 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="39.25" style="38" customWidth="1"/>
     <col min="2" max="2" width="33.375" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:28" ht="22.5">
-      <c r="C1" s="103" t="s">
+    <row r="1" spans="3:28" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="C1" s="104" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104"/>
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
+    </row>
+    <row r="3" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="I3" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103"/>
-      <c r="Z1" s="103"/>
-      <c r="AA1" s="103"/>
-      <c r="AB1" s="103"/>
-    </row>
-    <row r="3" spans="3:28">
-      <c r="I3" s="12" t="s">
+      <c r="K3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="1" t="s">
+    </row>
+    <row r="4" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="L4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="3:28">
-      <c r="L4" s="1" t="s">
+    </row>
+    <row r="7" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="D7" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="3:28">
-      <c r="D7" s="1" t="s">
+    <row r="8" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="C8" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="N14" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="3:28">
-      <c r="C8" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="3:28">
-      <c r="N14" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="4:10">
+    <row r="24" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D24" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:10">
+    <row r="25" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D25" s="2"/>
       <c r="E25" s="34" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="26" spans="4:10">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.35">
       <c r="E26" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J26" s="11"/>
     </row>
-    <row r="27" spans="4:10">
+    <row r="27" spans="4:10" x14ac:dyDescent="0.35">
       <c r="E27" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="4:10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D28" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="E29" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="4:10">
-      <c r="E29" s="1" t="s">
+    <row r="30" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D30" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="E31" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="4:10">
-      <c r="D30" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="4:10">
-      <c r="E31" s="1" t="s">
+    <row r="32" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="E32" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="4:10">
-      <c r="E32" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D33" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E34" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E35" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D36" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="49.5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A37" s="38" t="s">
-        <v>291</v>
-      </c>
-      <c r="E37" s="104" t="s">
-        <v>418</v>
+        <v>289</v>
+      </c>
+      <c r="E37" s="89" t="s">
+        <v>412</v>
       </c>
       <c r="H37" s="40"/>
       <c r="I37" s="40"/>
       <c r="J37" s="40"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="40" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G38" s="1" t="s">
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A39" s="41" t="s">
+        <v>310</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="41" t="s">
-        <v>314</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="66">
+    <row r="40" spans="1:15" ht="66" x14ac:dyDescent="0.35">
       <c r="A40" s="38" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F40" s="41" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G40" s="40"/>
       <c r="H40" s="40"/>
@@ -9101,231 +9078,231 @@
       <c r="N40" s="40"/>
       <c r="O40" s="40"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="F41" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="F42" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
-      <c r="F42" s="1" t="s">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E43" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="F44" s="89" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D45" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
-      <c r="E43" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="F44" s="104" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="D45" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E46" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="38" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
       <c r="I47" s="42"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="39"/>
       <c r="B48" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="E49" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="E50" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D51" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="4:8">
-      <c r="E49" s="1" t="s">
+    <row r="52" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="E52" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="4:8">
-      <c r="E50" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="4:8">
-      <c r="D51" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="4:8">
-      <c r="E52" s="2" t="s">
+    <row r="54" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="H54" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="4:8">
-      <c r="H54" s="1" t="s">
+    <row r="57" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="H57" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="4:8">
-      <c r="H57" s="1" t="s">
+    <row r="59" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="F59" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="4:8">
-      <c r="F59" s="2" t="s">
+    <row r="60" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="G60" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="4:8">
-      <c r="G60" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="4:8">
+    <row r="61" spans="4:8" x14ac:dyDescent="0.35">
       <c r="G61" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="G62" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="4:8">
-      <c r="G62" s="1" t="s">
+    <row r="63" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="H63" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="4:8">
-      <c r="H63" s="1" t="s">
+    <row r="64" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="G64" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="4:8">
-      <c r="G64" s="1" t="s">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H65" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
-      <c r="H65" s="1" t="s">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H66" s="34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H67" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
-      <c r="H66" s="34" t="s">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G68" s="34" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
-      <c r="H67" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="G68" s="34" t="s">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G69" s="34" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
-      <c r="G69" s="34" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F70" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="83"/>
       <c r="G71" s="34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="84"/>
       <c r="G72" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="84"/>
       <c r="G73" s="41" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H73" s="40"/>
       <c r="I73" s="40"/>
       <c r="J73" s="40"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="84"/>
       <c r="G74" s="41"/>
       <c r="H74" s="41" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="I74" s="41" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="J74" s="40"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="84"/>
       <c r="G75" s="41"/>
       <c r="H75" s="41" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="I75" s="41" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J75" s="40"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="84"/>
       <c r="G76" s="41"/>
       <c r="H76" s="41" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="I76" s="41"/>
       <c r="J76" s="40"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="84"/>
       <c r="G77" s="41"/>
       <c r="H77" s="41" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="I77" s="41"/>
       <c r="J77" s="40"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="83"/>
       <c r="E78" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="83"/>
       <c r="F79" s="34" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F80" s="37" t="s">
         <v>271</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="F80" s="37" t="s">
-        <v>272</v>
       </c>
       <c r="G80" s="20"/>
       <c r="H80" s="20"/>
     </row>
-    <row r="85" spans="8:10">
+    <row r="85" spans="8:10" x14ac:dyDescent="0.35">
       <c r="H85" s="39"/>
       <c r="I85" s="34"/>
       <c r="J85" s="34"/>
@@ -9334,7 +9311,7 @@
   <mergeCells count="1">
     <mergeCell ref="C1:AB1"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="notContainsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(B1))&gt;0</formula>
@@ -9353,193 +9330,193 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB211"/>
+  <dimension ref="A1:AB209"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F213" sqref="F213"/>
+    <sheetView topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="39.25" style="38" customWidth="1"/>
     <col min="2" max="2" width="32.875" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:28" ht="22.5">
-      <c r="C1" s="103" t="s">
+    <row r="1" spans="3:28" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="C1" s="104" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104"/>
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
+    </row>
+    <row r="3" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="H3" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="E5" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103"/>
-      <c r="Z1" s="103"/>
-      <c r="AA1" s="103"/>
-      <c r="AB1" s="103"/>
-    </row>
-    <row r="3" spans="3:28">
-      <c r="H3" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="I3" s="1" t="s">
+    </row>
+    <row r="7" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="Q7" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="E10" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J3" s="34" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="5" spans="3:28">
-      <c r="E5" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="3:28">
-      <c r="Q7" s="1" t="s">
+    </row>
+    <row r="11" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="Q11" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="3:28">
-      <c r="E10" s="1" t="s">
+    <row r="18" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E18" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="11" spans="3:28">
-      <c r="Q11" s="1" t="s">
+      <c r="Q18" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="5:17">
-      <c r="E18" s="1" t="s">
+    <row r="19" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E19" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="Q18" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="5:17">
-      <c r="E19" s="1" t="s">
+    </row>
+    <row r="20" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E20" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="5:17">
-      <c r="E20" s="1" t="s">
+    <row r="24" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="H24" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="5:17">
-      <c r="H24" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="5:17">
+    <row r="26" spans="5:17" x14ac:dyDescent="0.35">
       <c r="F26" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="5:17">
+    <row r="27" spans="5:17" x14ac:dyDescent="0.35">
       <c r="G27" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="5:17">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="5:17" x14ac:dyDescent="0.35">
       <c r="F28" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="5:17">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="5:17" x14ac:dyDescent="0.35">
       <c r="F29" s="2"/>
       <c r="G29" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="5:17">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="5:17" x14ac:dyDescent="0.35">
       <c r="G30" s="34" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="31" spans="5:17">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31" spans="5:17" x14ac:dyDescent="0.35">
       <c r="G31" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="F32" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="H32" s="40"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="G33" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="G34" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A35" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="32" spans="5:17">
-      <c r="F32" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="H32" s="40"/>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="G33" s="1" t="s">
+      <c r="H35" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A36" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B37" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="G38" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="G39" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
-      <c r="G34" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="38" t="s">
-        <v>293</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="40" t="s">
-        <v>312</v>
-      </c>
-      <c r="B36" s="34" t="s">
-        <v>280</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="B37" s="40" t="s">
-        <v>311</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="G38" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="G39" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G40" s="41" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="H40" s="40"/>
       <c r="I40" s="40"/>
@@ -9552,10 +9529,10 @@
       <c r="P40" s="40"/>
       <c r="Q40" s="40"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G41" s="41"/>
       <c r="H41" s="41" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="I41" s="40"/>
       <c r="J41" s="40"/>
@@ -9567,10 +9544,10 @@
       <c r="P41" s="40"/>
       <c r="Q41" s="40"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G42" s="41"/>
       <c r="H42" s="41" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="I42" s="40"/>
       <c r="J42" s="40"/>
@@ -9582,10 +9559,10 @@
       <c r="P42" s="40"/>
       <c r="Q42" s="40"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G43" s="41"/>
       <c r="H43" s="41" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="I43" s="40"/>
       <c r="J43" s="40"/>
@@ -9597,7 +9574,7 @@
       <c r="P43" s="40"/>
       <c r="Q43" s="40"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G44" s="41"/>
       <c r="H44" s="41"/>
       <c r="I44" s="40"/>
@@ -9610,7 +9587,7 @@
       <c r="P44" s="40"/>
       <c r="Q44" s="40"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G45" s="41"/>
       <c r="H45" s="41"/>
       <c r="I45" s="40"/>
@@ -9623,7 +9600,7 @@
       <c r="P45" s="40"/>
       <c r="Q45" s="40"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G46" s="41"/>
       <c r="H46" s="41"/>
       <c r="I46" s="40"/>
@@ -9636,12 +9613,12 @@
       <c r="P46" s="40"/>
       <c r="Q46" s="40"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G47" s="41"/>
       <c r="H47" s="41"/>
       <c r="I47" s="40"/>
       <c r="J47" s="63" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="K47" s="40"/>
       <c r="L47" s="40"/>
@@ -9651,7 +9628,7 @@
       <c r="P47" s="40"/>
       <c r="Q47" s="40"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G48" s="41"/>
       <c r="H48" s="41"/>
       <c r="I48" s="40"/>
@@ -9664,7 +9641,7 @@
       <c r="P48" s="40"/>
       <c r="Q48" s="40"/>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G49" s="41"/>
       <c r="H49" s="41"/>
       <c r="I49" s="40"/>
@@ -9677,7 +9654,7 @@
       <c r="P49" s="40"/>
       <c r="Q49" s="40"/>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G50" s="41"/>
       <c r="H50" s="41"/>
       <c r="I50" s="40"/>
@@ -9690,7 +9667,7 @@
       <c r="P50" s="40"/>
       <c r="Q50" s="40"/>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G51" s="41"/>
       <c r="H51" s="41"/>
       <c r="I51" s="40"/>
@@ -9703,10 +9680,10 @@
       <c r="P51" s="40"/>
       <c r="Q51" s="40"/>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G52" s="41"/>
       <c r="H52" s="41" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="I52" s="40"/>
       <c r="J52" s="40"/>
@@ -9718,10 +9695,10 @@
       <c r="P52" s="40"/>
       <c r="Q52" s="40"/>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G53" s="41"/>
       <c r="H53" s="41" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="I53" s="40"/>
       <c r="J53" s="40"/>
@@ -9733,1065 +9710,1044 @@
       <c r="P53" s="40"/>
       <c r="Q53" s="40"/>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="F54" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G55" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G56" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H56" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I56" s="87" t="s">
+        <v>410</v>
+      </c>
+      <c r="J56" s="66"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="G57" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I56" s="87" t="s">
-        <v>416</v>
-      </c>
-      <c r="J56" s="66"/>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="G57" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="H57" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="H58" s="34" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="H59" s="41" t="s">
+        <v>348</v>
+      </c>
+      <c r="I59" s="40"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A60" s="38" t="s">
+        <v>292</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
-      <c r="H58" s="34" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="H59" s="41" t="s">
-        <v>354</v>
-      </c>
-      <c r="I59" s="40"/>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="A60" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="H60" s="1" t="s">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A61" s="40" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="F62" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="I63" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="7:12" x14ac:dyDescent="0.35">
+      <c r="G66" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="A61" s="40" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
-      <c r="F62" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
-      <c r="I63" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="66" spans="7:12">
-      <c r="G66" s="1" t="s">
+      <c r="H66" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H66" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="68" spans="7:12">
+    </row>
+    <row r="68" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G68" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="69" spans="7:12">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="7:12" x14ac:dyDescent="0.35">
       <c r="H69" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I69" s="14"/>
       <c r="J69" s="14"/>
       <c r="K69" s="14"/>
       <c r="L69" s="14"/>
     </row>
-    <row r="70" spans="7:12">
+    <row r="70" spans="7:12" x14ac:dyDescent="0.35">
       <c r="H70" s="13"/>
       <c r="I70" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J70" s="14"/>
       <c r="K70" s="14"/>
       <c r="L70" s="14"/>
     </row>
-    <row r="71" spans="7:12">
+    <row r="71" spans="7:12" x14ac:dyDescent="0.35">
       <c r="H71" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I71" s="14"/>
       <c r="J71" s="14"/>
       <c r="K71" s="14"/>
       <c r="L71" s="14"/>
     </row>
-    <row r="72" spans="7:12">
+    <row r="72" spans="7:12" x14ac:dyDescent="0.35">
       <c r="H72" s="13"/>
       <c r="I72" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J72" s="14"/>
       <c r="K72" s="14"/>
       <c r="L72" s="14"/>
     </row>
-    <row r="73" spans="7:12">
+    <row r="73" spans="7:12" x14ac:dyDescent="0.35">
       <c r="H73" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I73" s="14"/>
       <c r="J73" s="14"/>
       <c r="K73" s="14"/>
       <c r="L73" s="14"/>
     </row>
-    <row r="74" spans="7:12">
+    <row r="74" spans="7:12" x14ac:dyDescent="0.35">
       <c r="H74" s="13"/>
       <c r="I74" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J74" s="14"/>
       <c r="K74" s="14"/>
       <c r="L74" s="14"/>
     </row>
-    <row r="75" spans="7:12">
+    <row r="75" spans="7:12" x14ac:dyDescent="0.35">
       <c r="H75" s="13"/>
       <c r="I75" s="14"/>
       <c r="J75" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K75" s="14"/>
       <c r="L75" s="14"/>
     </row>
-    <row r="76" spans="7:12">
+    <row r="76" spans="7:12" x14ac:dyDescent="0.35">
       <c r="H76" s="13"/>
       <c r="I76" s="14"/>
       <c r="J76" s="14"/>
       <c r="K76" s="14"/>
       <c r="L76" s="14"/>
     </row>
-    <row r="77" spans="7:12">
+    <row r="77" spans="7:12" x14ac:dyDescent="0.35">
       <c r="I77" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="78" spans="7:12">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="7:12" x14ac:dyDescent="0.35">
       <c r="I78" s="14"/>
       <c r="J78" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="7:12" x14ac:dyDescent="0.35">
+      <c r="I79" s="14"/>
+    </row>
+    <row r="80" spans="7:12" x14ac:dyDescent="0.35">
+      <c r="H80" s="13" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="79" spans="7:12">
-      <c r="I79" s="14"/>
-    </row>
-    <row r="80" spans="7:12">
-      <c r="H80" s="13" t="s">
-        <v>149</v>
       </c>
       <c r="I80" s="14"/>
       <c r="J80" s="14"/>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="6:12" x14ac:dyDescent="0.35">
       <c r="H81" s="13"/>
       <c r="I81" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J81" s="16"/>
       <c r="K81" s="16"/>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="6:12" x14ac:dyDescent="0.35">
       <c r="H82" s="13"/>
       <c r="I82" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J82" s="16"/>
       <c r="K82" s="16"/>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="6:12" x14ac:dyDescent="0.35">
       <c r="H83" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I83" s="14"/>
       <c r="J83" s="14"/>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="6:12" x14ac:dyDescent="0.35">
       <c r="I84" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J84" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="J84" s="14" t="s">
+    </row>
+    <row r="85" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="I85" s="14" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="85" spans="1:16">
-      <c r="I85" s="14" t="s">
+      <c r="J85" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="J85" s="17" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16">
+    </row>
+    <row r="86" spans="6:12" x14ac:dyDescent="0.35">
       <c r="G86" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="6:12" x14ac:dyDescent="0.35">
       <c r="H87" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="18"/>
       <c r="K87" s="18"/>
       <c r="L87" s="18"/>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="6:12" x14ac:dyDescent="0.35">
       <c r="G88" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" spans="6:12" x14ac:dyDescent="0.35">
       <c r="H89" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="90" spans="6:12" x14ac:dyDescent="0.35">
       <c r="F90" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
-      <c r="A91" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="G91" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="H91" s="40"/>
-    </row>
-    <row r="92" spans="1:16">
-      <c r="A92" s="38" t="s">
-        <v>296</v>
-      </c>
-      <c r="B92" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="G92" s="34" t="s">
-        <v>320</v>
-      </c>
-      <c r="N92" s="11"/>
-      <c r="O92" s="11"/>
-      <c r="P92" s="11"/>
-    </row>
-    <row r="93" spans="1:16">
-      <c r="A93" s="41" t="s">
-        <v>351</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="N93" s="11"/>
-      <c r="O93" s="11"/>
-      <c r="P93" s="11"/>
-    </row>
-    <row r="94" spans="1:16">
-      <c r="G94" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="6"/>
-    </row>
-    <row r="95" spans="1:16">
-      <c r="F95" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16">
-      <c r="G96" s="13" t="s">
+    <row r="91" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="G91" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="14"/>
+    </row>
+    <row r="92" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="G92" s="13"/>
+      <c r="H92" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="H96" s="14"/>
+      <c r="I92" s="14"/>
+      <c r="J92" s="14"/>
+    </row>
+    <row r="93" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="G93" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="14"/>
+    </row>
+    <row r="94" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="G94" s="13"/>
+      <c r="H94" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="I94" s="14"/>
+      <c r="J94" s="14"/>
+    </row>
+    <row r="95" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="G95" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="14"/>
+    </row>
+    <row r="96" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="G96" s="13"/>
+      <c r="H96" s="34" t="s">
+        <v>333</v>
+      </c>
       <c r="I96" s="14"/>
       <c r="J96" s="14"/>
     </row>
-    <row r="97" spans="1:23">
-      <c r="G97" s="13"/>
-      <c r="H97" s="14" t="s">
-        <v>137</v>
-      </c>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="G97" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="H97" s="14"/>
       <c r="I97" s="14"/>
       <c r="J97" s="14"/>
     </row>
-    <row r="98" spans="1:23">
-      <c r="G98" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H98" s="14"/>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="G98" s="13"/>
+      <c r="H98" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="I98" s="14"/>
       <c r="J98" s="14"/>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.35">
       <c r="G99" s="13"/>
-      <c r="H99" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="I99" s="14"/>
+      <c r="H99" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I99" s="34" t="s">
+        <v>260</v>
+      </c>
       <c r="J99" s="14"/>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A100" s="41" t="s">
+        <v>314</v>
+      </c>
       <c r="G100" s="13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H100" s="14"/>
       <c r="I100" s="14"/>
       <c r="J100" s="14"/>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.35">
       <c r="G101" s="13"/>
-      <c r="H101" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="I101" s="14"/>
-      <c r="J101" s="14"/>
-    </row>
-    <row r="102" spans="1:23">
-      <c r="G102" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="H102" s="14"/>
+      <c r="H101" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="I101" s="60"/>
+      <c r="J101" s="60"/>
+      <c r="K101" s="40"/>
+      <c r="L101" s="40"/>
+      <c r="M101" s="40"/>
+      <c r="N101" s="40"/>
+      <c r="O101" s="40"/>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A102" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="G102" s="13"/>
+      <c r="H102" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="I102" s="14"/>
       <c r="J102" s="14"/>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.35">
       <c r="G103" s="13"/>
-      <c r="H103" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I103" s="14"/>
+      <c r="I103" s="14" t="s">
+        <v>165</v>
+      </c>
       <c r="J103" s="14"/>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.35">
       <c r="G104" s="13"/>
-      <c r="H104" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="I104" s="34" t="s">
-        <v>261</v>
-      </c>
-      <c r="J104" s="14"/>
-    </row>
-    <row r="105" spans="1:23">
-      <c r="A105" s="41" t="s">
-        <v>319</v>
-      </c>
-      <c r="G105" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="H105" s="14"/>
-      <c r="I105" s="14"/>
+      <c r="I104" s="14"/>
+      <c r="J104" s="43" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A105" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="B105" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="G105" s="13"/>
+      <c r="I105" s="61" t="s">
+        <v>311</v>
+      </c>
       <c r="J105" s="14"/>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A106" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="B106" s="34" t="s">
+        <v>281</v>
+      </c>
       <c r="G106" s="13"/>
-      <c r="H106" s="41" t="s">
-        <v>337</v>
-      </c>
-      <c r="I106" s="60"/>
-      <c r="J106" s="60"/>
-      <c r="K106" s="40"/>
-      <c r="L106" s="40"/>
-      <c r="M106" s="40"/>
-      <c r="N106" s="40"/>
-      <c r="O106" s="40"/>
-    </row>
-    <row r="107" spans="1:23">
-      <c r="A107" s="38" t="s">
-        <v>297</v>
+      <c r="I106" s="14"/>
+      <c r="J106" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A107" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="B107" s="34" t="s">
+        <v>300</v>
       </c>
       <c r="G107" s="13"/>
-      <c r="H107" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="I107" s="14"/>
       <c r="J107" s="14"/>
-    </row>
-    <row r="108" spans="1:23">
+      <c r="K107" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="U107" s="20"/>
+      <c r="V107" s="20"/>
+      <c r="W107" s="20"/>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A108" s="41"/>
+      <c r="B108" s="34"/>
       <c r="G108" s="13"/>
-      <c r="I108" s="14" t="s">
-        <v>166</v>
-      </c>
+      <c r="I108" s="14"/>
       <c r="J108" s="14"/>
-    </row>
-    <row r="109" spans="1:23">
+      <c r="K108" s="71" t="s">
+        <v>384</v>
+      </c>
+      <c r="L108" s="40"/>
+      <c r="M108" s="40"/>
+      <c r="N108" s="40"/>
+      <c r="O108" s="66"/>
+      <c r="P108" s="66"/>
+      <c r="Q108" s="66"/>
+      <c r="R108" s="66"/>
+      <c r="S108" s="11"/>
+      <c r="T108" s="11"/>
+      <c r="U108" s="11"/>
+      <c r="V108" s="11"/>
+      <c r="W108" s="11"/>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A109" s="41" t="s">
+        <v>313</v>
+      </c>
+      <c r="B109" s="34" t="s">
+        <v>282</v>
+      </c>
       <c r="G109" s="13"/>
       <c r="I109" s="14"/>
-      <c r="J109" s="43" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="110" spans="1:23">
+      <c r="J109" s="14"/>
+      <c r="K109" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="U109" s="11"/>
+      <c r="V109" s="11"/>
+      <c r="W109" s="11"/>
+      <c r="X109" s="11"/>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A110" s="38" t="s">
-        <v>298</v>
-      </c>
-      <c r="B110" s="34" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="G110" s="13"/>
-      <c r="I110" s="61" t="s">
-        <v>316</v>
-      </c>
+      <c r="I110" s="14"/>
       <c r="J110" s="14"/>
-    </row>
-    <row r="111" spans="1:23">
-      <c r="A111" s="41" t="s">
-        <v>317</v>
-      </c>
+      <c r="K110" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B111" s="34" t="s">
         <v>283</v>
       </c>
       <c r="G111" s="13"/>
       <c r="I111" s="14"/>
-      <c r="J111" s="14" t="s">
+      <c r="J111" s="14"/>
+      <c r="K111" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L111" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A112" s="41" t="s">
-        <v>317</v>
-      </c>
-      <c r="B112" s="34" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="G112" s="13"/>
       <c r="I112" s="14"/>
-      <c r="J112" s="14"/>
-      <c r="K112" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="U112" s="20"/>
-      <c r="V112" s="20"/>
-      <c r="W112" s="20"/>
-    </row>
-    <row r="113" spans="1:24">
-      <c r="A113" s="41"/>
-      <c r="B113" s="34"/>
+      <c r="J112" s="43" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G113" s="13"/>
       <c r="I113" s="14"/>
-      <c r="J113" s="14"/>
-      <c r="K113" s="71" t="s">
-        <v>390</v>
-      </c>
-      <c r="L113" s="40"/>
-      <c r="M113" s="40"/>
-      <c r="N113" s="40"/>
-      <c r="O113" s="66"/>
-      <c r="P113" s="66"/>
-      <c r="Q113" s="66"/>
-      <c r="R113" s="66"/>
-      <c r="S113" s="11"/>
-      <c r="T113" s="11"/>
-      <c r="U113" s="11"/>
-      <c r="V113" s="11"/>
-      <c r="W113" s="11"/>
-    </row>
-    <row r="114" spans="1:24">
-      <c r="A114" s="41" t="s">
-        <v>318</v>
-      </c>
-      <c r="B114" s="34" t="s">
-        <v>284</v>
-      </c>
+      <c r="J113" s="43" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G114" s="13"/>
       <c r="I114" s="14"/>
-      <c r="J114" s="14"/>
-      <c r="K114" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="U114" s="11"/>
-      <c r="V114" s="11"/>
-      <c r="W114" s="11"/>
-      <c r="X114" s="11"/>
-    </row>
-    <row r="115" spans="1:24">
-      <c r="A115" s="38" t="s">
-        <v>305</v>
-      </c>
-      <c r="G115" s="13"/>
-      <c r="I115" s="14"/>
-      <c r="J115" s="14"/>
-      <c r="K115" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="L115" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="116" spans="1:24">
-      <c r="B116" s="34" t="s">
+      <c r="J114" s="43" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="H115" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="N117" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="O117" s="22"/>
+      <c r="P117" s="22"/>
+      <c r="Q117" s="22"/>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="N118" s="22"/>
+      <c r="O118" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="P118" s="22"/>
+      <c r="Q118" s="22"/>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="N119" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="O119" s="18"/>
+      <c r="P119" s="15"/>
+      <c r="Q119" s="16"/>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="N120" s="16"/>
+      <c r="O120" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="P120" s="16"/>
+      <c r="R120" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="S120" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="O121" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="S121" s="18"/>
+      <c r="T121" s="15"/>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="O122" s="41" t="s">
+        <v>336</v>
+      </c>
+      <c r="S122" s="18"/>
+      <c r="T122" s="15"/>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="O123" s="106" t="s">
+        <v>415</v>
+      </c>
+      <c r="P123" s="107"/>
+      <c r="Q123" s="107"/>
+      <c r="R123" s="107"/>
+      <c r="T123" s="15"/>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="O124" s="108" t="s">
+        <v>315</v>
+      </c>
+      <c r="P124" s="107"/>
+      <c r="Q124" s="107"/>
+      <c r="R124" s="107"/>
+      <c r="T124" s="15"/>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="O125" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P125" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="T125" s="15"/>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A126" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="B126" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="O126" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A127" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="B127" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="G116" s="13"/>
-      <c r="I116" s="14"/>
-      <c r="J116" s="14"/>
-      <c r="K116" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="L116" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="117" spans="1:24">
-      <c r="A117" s="41" t="s">
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H136" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H137" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A138" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A139" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G140" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="H140" s="14"/>
+      <c r="I140" s="14"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G141" s="13"/>
+      <c r="H141" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="I141" s="16"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G142" s="13"/>
+      <c r="H142" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="I142" s="16"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G143" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="H143" s="14"/>
+      <c r="I143" s="14"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H144" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="I144" s="14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="H145" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="I145" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="F146" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A147" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A148" s="39"/>
+      <c r="G148" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B149" s="34" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="G151" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="H154" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I155" s="34" t="s">
         <v>339</v>
       </c>
-      <c r="G117" s="13"/>
-      <c r="I117" s="14"/>
-      <c r="J117" s="43" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="118" spans="1:24">
-      <c r="G118" s="13"/>
-      <c r="I118" s="14"/>
-      <c r="J118" s="43" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="119" spans="1:24">
-      <c r="G119" s="13"/>
-      <c r="I119" s="14"/>
-      <c r="J119" s="43" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="120" spans="1:24">
-      <c r="H120" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="122" spans="1:24">
-      <c r="N122" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="O122" s="22"/>
-      <c r="P122" s="22"/>
-      <c r="Q122" s="22"/>
-    </row>
-    <row r="123" spans="1:24">
-      <c r="N123" s="22"/>
-      <c r="O123" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="P123" s="22"/>
-      <c r="Q123" s="22"/>
-    </row>
-    <row r="124" spans="1:24">
-      <c r="N124" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="O124" s="18"/>
-      <c r="P124" s="15"/>
-      <c r="Q124" s="16"/>
-    </row>
-    <row r="125" spans="1:24">
-      <c r="N125" s="16"/>
-      <c r="O125" s="16" t="s">
+      <c r="O155" s="40"/>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I159" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="P125" s="16"/>
-      <c r="R125" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="S125" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="126" spans="1:24">
-      <c r="O126" s="41" t="s">
-        <v>340</v>
-      </c>
-      <c r="S126" s="18"/>
-      <c r="T126" s="15"/>
-    </row>
-    <row r="127" spans="1:24">
-      <c r="O127" s="41" t="s">
-        <v>341</v>
-      </c>
-      <c r="S127" s="18"/>
-      <c r="T127" s="15"/>
-    </row>
-    <row r="128" spans="1:24">
-      <c r="A128" s="38" t="s">
-        <v>306</v>
-      </c>
-      <c r="B128" s="34" t="s">
-        <v>286</v>
-      </c>
-      <c r="O128" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129" s="38" t="s">
-        <v>299</v>
-      </c>
-      <c r="B129" s="34" t="s">
+      <c r="J159" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J160" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K160" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="161" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="J161" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K161" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="162" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="J162" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="K162" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="163" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="J163" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K163" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="164" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="J164" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K164" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="165" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I165" s="41" t="s">
+        <v>338</v>
+      </c>
+      <c r="J165" s="40"/>
+      <c r="K165" s="40"/>
+    </row>
+    <row r="166" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="F166" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="167" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="G167" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="168" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="G168" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="169" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B169" s="34" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
-      <c r="H138" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
-      <c r="H139" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="A140" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="H140" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
-      <c r="G142" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="H142" s="14"/>
-      <c r="I142" s="14"/>
-    </row>
-    <row r="143" spans="1:9">
-      <c r="G143" s="13"/>
-      <c r="H143" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="I143" s="16"/>
-    </row>
-    <row r="144" spans="1:9">
-      <c r="G144" s="13"/>
-      <c r="H144" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="I144" s="16"/>
-    </row>
-    <row r="145" spans="1:15">
-      <c r="G145" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="H145" s="14"/>
-      <c r="I145" s="14"/>
-    </row>
-    <row r="146" spans="1:15">
-      <c r="H146" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="I146" s="14" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15">
-      <c r="H147" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="I147" s="17" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15">
-      <c r="F148" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15">
-      <c r="A149" s="38" t="s">
-        <v>301</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15">
-      <c r="A150" s="39"/>
-      <c r="G150" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15">
-      <c r="B151" s="34" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15">
-      <c r="G153" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15">
-      <c r="H156" s="23" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15">
-      <c r="I157" s="34" t="s">
+    <row r="171" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="G171" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="175" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="H175" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="176" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I176" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I177" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K177" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H178" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A179" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I180" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I181" s="41" t="s">
+        <v>342</v>
+      </c>
+      <c r="J181" s="40"/>
+      <c r="K181" s="40"/>
+      <c r="L181" s="40"/>
+      <c r="M181" s="40"/>
+      <c r="N181" s="40"/>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I182" s="41"/>
+      <c r="J182" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="K182" s="40"/>
+      <c r="L182" s="40"/>
+      <c r="M182" s="40"/>
+      <c r="N182" s="40"/>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I183" s="41"/>
+      <c r="J183" s="41" t="s">
         <v>344</v>
       </c>
-      <c r="O157" s="40"/>
-    </row>
-    <row r="161" spans="2:11">
-      <c r="I161" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="J161" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="K161" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="162" spans="2:11">
-      <c r="J162" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="K162" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="163" spans="2:11">
-      <c r="J163" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="K163" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="164" spans="2:11">
-      <c r="J164" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K164" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="165" spans="2:11">
-      <c r="J165" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="K165" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="166" spans="2:11">
-      <c r="J166" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="K166" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="167" spans="2:11">
-      <c r="I167" s="41" t="s">
-        <v>343</v>
-      </c>
-      <c r="J167" s="40"/>
-      <c r="K167" s="40"/>
-    </row>
-    <row r="168" spans="2:11">
-      <c r="F168" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="169" spans="2:11">
-      <c r="G169" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="170" spans="2:11">
-      <c r="G170" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="171" spans="2:11">
-      <c r="B171" s="34" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="173" spans="2:11">
-      <c r="G173" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14">
-      <c r="H177" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14">
-      <c r="I178" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14">
-      <c r="I179" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="J179" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="K179" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14">
-      <c r="H180" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14">
-      <c r="A181" s="38" t="s">
-        <v>302</v>
-      </c>
-      <c r="I181" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14">
-      <c r="I182" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="183" spans="1:14">
-      <c r="I183" s="41" t="s">
-        <v>347</v>
-      </c>
-      <c r="J183" s="40"/>
       <c r="K183" s="40"/>
       <c r="L183" s="40"/>
       <c r="M183" s="40"/>
       <c r="N183" s="40"/>
     </row>
-    <row r="184" spans="1:14">
-      <c r="I184" s="41"/>
-      <c r="J184" s="41" t="s">
-        <v>348</v>
-      </c>
-      <c r="K184" s="40"/>
-      <c r="L184" s="40"/>
-      <c r="M184" s="40"/>
-      <c r="N184" s="40"/>
-    </row>
-    <row r="185" spans="1:14">
-      <c r="I185" s="41"/>
-      <c r="J185" s="41" t="s">
-        <v>349</v>
-      </c>
-      <c r="K185" s="40"/>
-      <c r="L185" s="40"/>
-      <c r="M185" s="40"/>
-      <c r="N185" s="40"/>
-    </row>
-    <row r="186" spans="1:14">
-      <c r="I186" s="34" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14">
-      <c r="I187" s="65" t="s">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I184" s="34" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I185" s="65" t="s">
+        <v>372</v>
+      </c>
+      <c r="J185" s="66"/>
+      <c r="K185" s="66"/>
+      <c r="L185" s="66"/>
+      <c r="M185" s="66"/>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="F186" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G187" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G188" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G189" s="64" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G191" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G193" s="64" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H196" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I197" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I198" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J198" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K198" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H199" s="68" t="s">
+        <v>376</v>
+      </c>
+      <c r="I199" s="69"/>
+      <c r="J199" s="66"/>
+      <c r="K199" s="66"/>
+      <c r="L199" s="66"/>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H200" s="66"/>
+      <c r="I200" s="70" t="s">
         <v>378</v>
       </c>
-      <c r="J187" s="66"/>
-      <c r="K187" s="66"/>
-      <c r="L187" s="66"/>
-      <c r="M187" s="66"/>
-    </row>
-    <row r="188" spans="1:14">
-      <c r="F188" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14">
-      <c r="G189" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="190" spans="1:14">
-      <c r="G190" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="191" spans="1:14">
-      <c r="G191" s="64" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="193" spans="2:12">
-      <c r="G193" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="195" spans="2:12">
-      <c r="G195" s="64" t="s">
+      <c r="J200" s="66"/>
+      <c r="K200" s="66"/>
+      <c r="L200" s="66"/>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H201" s="66"/>
+      <c r="I201" s="4" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="198" spans="2:12">
-      <c r="H198" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="199" spans="2:12">
-      <c r="I199" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="200" spans="2:12">
-      <c r="I200" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="J200" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K200" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="201" spans="2:12">
-      <c r="H201" s="68" t="s">
-        <v>382</v>
-      </c>
-      <c r="I201" s="69"/>
-      <c r="J201" s="66"/>
-      <c r="K201" s="66"/>
+      <c r="J201" s="85" t="s">
+        <v>379</v>
+      </c>
+      <c r="K201" s="85" t="s">
+        <v>407</v>
+      </c>
       <c r="L201" s="66"/>
     </row>
-    <row r="202" spans="2:12">
-      <c r="H202" s="66"/>
-      <c r="I202" s="70" t="s">
-        <v>384</v>
-      </c>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H202" s="68" t="s">
+        <v>380</v>
+      </c>
+      <c r="I202" s="69"/>
       <c r="J202" s="66"/>
       <c r="K202" s="66"/>
       <c r="L202" s="66"/>
     </row>
-    <row r="203" spans="2:12">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H203" s="66"/>
-      <c r="I203" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="J203" s="85" t="s">
-        <v>385</v>
-      </c>
-      <c r="K203" s="85" t="s">
-        <v>413</v>
-      </c>
+      <c r="I203" s="70" t="s">
+        <v>381</v>
+      </c>
+      <c r="J203" s="66"/>
+      <c r="K203" s="66"/>
       <c r="L203" s="66"/>
     </row>
-    <row r="204" spans="2:12">
-      <c r="H204" s="68" t="s">
-        <v>386</v>
-      </c>
-      <c r="I204" s="69"/>
-      <c r="J204" s="66"/>
-      <c r="K204" s="66"/>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H204" s="66"/>
+      <c r="I204" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="J204" s="85" t="s">
+        <v>382</v>
+      </c>
+      <c r="K204" s="85" t="s">
+        <v>408</v>
+      </c>
       <c r="L204" s="66"/>
     </row>
-    <row r="205" spans="2:12">
-      <c r="H205" s="66"/>
-      <c r="I205" s="70" t="s">
-        <v>387</v>
-      </c>
-      <c r="J205" s="66"/>
-      <c r="K205" s="66"/>
-      <c r="L205" s="66"/>
-    </row>
-    <row r="206" spans="2:12">
-      <c r="H206" s="66"/>
-      <c r="I206" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="J206" s="85" t="s">
-        <v>388</v>
-      </c>
-      <c r="K206" s="85" t="s">
-        <v>414</v>
-      </c>
-      <c r="L206" s="66"/>
-    </row>
-    <row r="207" spans="2:12">
-      <c r="F207" s="36" t="s">
-        <v>363</v>
-      </c>
-      <c r="H207" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="208" spans="2:12">
-      <c r="B208" s="34" t="s">
-        <v>290</v>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F205" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="H205" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B206" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="I206" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A207" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="B207" s="41" t="s">
+        <v>341</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A208" s="41" t="s">
+        <v>340</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11">
-      <c r="A209" s="38" t="s">
-        <v>303</v>
-      </c>
-      <c r="B209" s="41" t="s">
-        <v>346</v>
-      </c>
-      <c r="I209" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
-      <c r="A210" s="41" t="s">
-        <v>345</v>
-      </c>
-      <c r="I210" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11">
-      <c r="I211" s="88" t="s">
-        <v>417</v>
-      </c>
-      <c r="J211" s="40"/>
-      <c r="K211" s="40"/>
+    <row r="209" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I209" s="88" t="s">
+        <v>411</v>
+      </c>
+      <c r="J209" s="40"/>
+      <c r="K209" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:AB1"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B36 B210:B1048576 B38:B208">
+  <phoneticPr fontId="10" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B36 B208:B1048576 B38:B206">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A35 A37:A60 A106:A110 A62:A92 A115:A116 A118:A140 A142:A149 A211:A1048576 A94:A104 A151:A209">
+  <conditionalFormatting sqref="A1:A35 A37:A60 A101:A105 A110:A111 A140:A147 A209:A1048576 A149:A207 A113:A138 A62:A99">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
@@ -10813,7 +10769,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.25" style="43" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="43" bestFit="1" customWidth="1"/>
@@ -10827,14 +10783,14 @@
     <col min="12" max="16384" width="8.875" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="44"/>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
       <c r="E1" s="44"/>
       <c r="F1" s="45" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G1" s="46"/>
       <c r="H1" s="46"/>
@@ -10842,53 +10798,53 @@
       <c r="J1" s="46"/>
       <c r="K1" s="46"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="47" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>318</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>320</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="F2" s="50" t="s">
         <v>322</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="G2" s="50" t="s">
         <v>323</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="H2" s="50" t="s">
         <v>324</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="I2" s="50" t="s">
         <v>325</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="J2" s="50" t="s">
         <v>326</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="K2" s="50" t="s">
         <v>327</v>
       </c>
-      <c r="G2" s="50" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="72" t="s">
+        <v>388</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>330</v>
+      </c>
+      <c r="C3" s="51" t="s">
         <v>328</v>
       </c>
-      <c r="H2" s="50" t="s">
-        <v>329</v>
-      </c>
-      <c r="I2" s="50" t="s">
-        <v>330</v>
-      </c>
-      <c r="J2" s="50" t="s">
+      <c r="D3" s="72" t="s">
         <v>331</v>
-      </c>
-      <c r="K2" s="50" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="72" t="s">
-        <v>394</v>
-      </c>
-      <c r="B3" s="51" t="s">
-        <v>335</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>333</v>
-      </c>
-      <c r="D3" s="72" t="s">
-        <v>336</v>
       </c>
       <c r="E3" s="52"/>
       <c r="F3" s="53"/>
@@ -10900,7 +10856,7 @@
       </c>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="1:11" s="57" customFormat="1">
+    <row r="4" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="55"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
@@ -10913,7 +10869,7 @@
       <c r="J4" s="58"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="51"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
@@ -10926,7 +10882,7 @@
       <c r="J5" s="52"/>
       <c r="K5" s="54"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="51"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
@@ -10939,7 +10895,7 @@
       <c r="J6" s="52"/>
       <c r="K6" s="54"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
@@ -10952,7 +10908,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="54"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
@@ -10965,7 +10921,7 @@
       <c r="J8" s="52"/>
       <c r="K8" s="54"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
@@ -10978,7 +10934,7 @@
       <c r="J9" s="52"/>
       <c r="K9" s="54"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
@@ -10991,7 +10947,7 @@
       <c r="J10" s="52"/>
       <c r="K10" s="54"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="51"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
@@ -11004,7 +10960,7 @@
       <c r="J11" s="52"/>
       <c r="K11" s="54"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="51"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
@@ -11017,7 +10973,7 @@
       <c r="J12" s="51"/>
       <c r="K12" s="54"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="51"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
@@ -11030,14 +10986,14 @@
       <c r="J13" s="51"/>
       <c r="K13" s="54"/>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="59"/>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="59"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11050,35 +11006,35 @@
       <selection activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="3" spans="12:14">
+    <row r="3" spans="12:14" x14ac:dyDescent="0.35">
       <c r="L3" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="4" spans="12:14">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="12:14" x14ac:dyDescent="0.35">
       <c r="M4" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="12:14">
+    <row r="5" spans="12:14" x14ac:dyDescent="0.35">
       <c r="M5" s="13"/>
       <c r="N5" s="14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="12:14">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="12:14" x14ac:dyDescent="0.35">
       <c r="M6" s="13"/>
       <c r="N6" s="14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -11089,15 +11045,15 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -11107,12 +11063,12 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -11137,7 +11093,7 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -11151,7 +11107,7 @@
       <c r="K22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -11162,9 +11118,9 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -11187,9 +11143,9 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -11202,7 +11158,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="N24" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -11214,9 +11170,9 @@
       <c r="V24" s="1"/>
       <c r="W24"/>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" s="36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -11230,7 +11186,7 @@
       <c r="K25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -11241,7 +11197,7 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -11254,7 +11210,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="N26" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -11266,7 +11222,7 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -11280,7 +11236,7 @@
       <c r="K27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -11291,7 +11247,7 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -11303,11 +11259,11 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P28" s="18"/>
       <c r="Q28" s="18"/>
@@ -11318,7 +11274,7 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -11331,7 +11287,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="N29" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -11343,7 +11299,7 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -11357,7 +11313,7 @@
       <c r="K30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -11368,7 +11324,7 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -11382,7 +11338,7 @@
       <c r="K31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -11393,7 +11349,7 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -11406,7 +11362,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="N32" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -11418,7 +11374,7 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -11432,7 +11388,7 @@
       <c r="K33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -11443,7 +11399,7 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -11466,7 +11422,7 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -11483,7 +11439,7 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -11491,7 +11447,7 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -11514,7 +11470,7 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -11537,13 +11493,13 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
@@ -11551,7 +11507,7 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -11563,11 +11519,11 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -11577,12 +11533,12 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
@@ -11591,12 +11547,12 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R42" s="36"/>
       <c r="S42" s="36"/>
@@ -11605,11 +11561,11 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -11619,12 +11575,12 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
@@ -11633,12 +11589,12 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
@@ -11647,18 +11603,18 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="F48" s="34" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -11669,7 +11625,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="1:31">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -11685,9 +11641,9 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="1:31">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -11703,7 +11659,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="1:31">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -11736,7 +11692,7 @@
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
     </row>
-    <row r="52" spans="1:31">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -11750,7 +11706,7 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
@@ -11771,7 +11727,7 @@
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
     </row>
-    <row r="53" spans="1:31">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -11786,7 +11742,7 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
@@ -11806,7 +11762,7 @@
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
     </row>
-    <row r="54" spans="1:31">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -11839,9 +11795,9 @@
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
     </row>
-    <row r="55" spans="1:31">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -11856,7 +11812,7 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
@@ -11876,7 +11832,7 @@
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
     </row>
-    <row r="56" spans="1:31">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -11890,11 +11846,11 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
@@ -11913,7 +11869,7 @@
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
     </row>
-    <row r="57" spans="1:31">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -11929,7 +11885,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
@@ -11948,7 +11904,7 @@
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -11964,10 +11920,10 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P58" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
@@ -11985,7 +11941,7 @@
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
     </row>
-    <row r="59" spans="1:31">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -12002,7 +11958,7 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
@@ -12020,7 +11976,7 @@
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
     </row>
-    <row r="60" spans="1:31">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -12035,7 +11991,7 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
@@ -12055,7 +12011,7 @@
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
     </row>
-    <row r="61" spans="1:31">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -12071,7 +12027,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
@@ -12090,7 +12046,7 @@
       <c r="AD61" s="1"/>
       <c r="AE61" s="1"/>
     </row>
-    <row r="62" spans="1:31">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -12106,7 +12062,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
@@ -12125,9 +12081,9 @@
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
     </row>
-    <row r="63" spans="1:31">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -12141,7 +12097,7 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
@@ -12162,9 +12118,9 @@
       <c r="AD63" s="1"/>
       <c r="AE63" s="1"/>
     </row>
-    <row r="64" spans="1:31">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -12179,7 +12135,7 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
@@ -12199,9 +12155,9 @@
       <c r="AD64" s="1"/>
       <c r="AE64" s="1"/>
     </row>
-    <row r="65" spans="1:31">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -12217,7 +12173,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
@@ -12236,7 +12192,7 @@
       <c r="AD65" s="1"/>
       <c r="AE65" s="1"/>
     </row>
-    <row r="66" spans="1:31">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -12269,7 +12225,7 @@
       <c r="AD66" s="1"/>
       <c r="AE66" s="1"/>
     </row>
-    <row r="67" spans="1:31">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -12284,7 +12240,7 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
@@ -12304,12 +12260,12 @@
       <c r="AD67" s="1"/>
       <c r="AE67" s="1"/>
     </row>
-    <row r="68" spans="1:31">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -12324,7 +12280,7 @@
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
@@ -12341,7 +12297,7 @@
       <c r="AD68" s="1"/>
       <c r="AE68" s="1"/>
     </row>
-    <row r="69" spans="1:31">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.35">
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
@@ -12361,7 +12317,7 @@
       <c r="AD69" s="1"/>
       <c r="AE69" s="1"/>
     </row>
-    <row r="70" spans="1:31">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.35">
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
@@ -12381,13 +12337,13 @@
       <c r="AD70" s="1"/>
       <c r="AE70" s="1"/>
     </row>
-    <row r="71" spans="1:31">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
       <c r="N71" s="1"/>
       <c r="O71" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="P71" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="P71" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
@@ -12405,10 +12361,10 @@
       <c r="AD71" s="1"/>
       <c r="AE71" s="1"/>
     </row>
-    <row r="72" spans="1:31">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.35">
       <c r="N72" s="1"/>
       <c r="O72" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
@@ -12427,11 +12383,11 @@
       <c r="AD72" s="1"/>
       <c r="AE72" s="1"/>
     </row>
-    <row r="73" spans="1:31">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.35">
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
       <c r="P73" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q73" s="14"/>
       <c r="R73" s="14"/>
@@ -12449,12 +12405,12 @@
       <c r="AD73" s="1"/>
       <c r="AE73" s="1"/>
     </row>
-    <row r="74" spans="1:31">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.35">
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
       <c r="P74" s="13"/>
       <c r="Q74" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R74" s="14"/>
       <c r="S74" s="14"/>
@@ -12471,13 +12427,13 @@
       <c r="AD74" s="1"/>
       <c r="AE74" s="1"/>
     </row>
-    <row r="75" spans="1:31">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.35">
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
       <c r="P75" s="13"/>
       <c r="Q75" s="14"/>
       <c r="R75" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S75" s="14"/>
       <c r="T75" s="14"/>
@@ -12493,7 +12449,7 @@
       <c r="AD75" s="1"/>
       <c r="AE75" s="1"/>
     </row>
-    <row r="76" spans="1:31">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.35">
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
       <c r="P76" s="13"/>
@@ -12513,12 +12469,12 @@
       <c r="AD76" s="1"/>
       <c r="AE76" s="1"/>
     </row>
-    <row r="77" spans="1:31">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.35">
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
@@ -12535,13 +12491,13 @@
       <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
     </row>
-    <row r="78" spans="1:31">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.35">
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="14"/>
       <c r="R78" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
@@ -12557,7 +12513,7 @@
       <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
     </row>
-    <row r="79" spans="1:31">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.35">
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
@@ -12577,11 +12533,11 @@
       <c r="AD79" s="1"/>
       <c r="AE79" s="1"/>
     </row>
-    <row r="80" spans="1:31">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.35">
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
       <c r="P80" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q80" s="14"/>
       <c r="R80" s="14"/>
@@ -12599,12 +12555,12 @@
       <c r="AD80" s="1"/>
       <c r="AE80" s="1"/>
     </row>
-    <row r="81" spans="14:31">
+    <row r="81" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
       <c r="P81" s="13"/>
       <c r="Q81" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R81" s="16"/>
       <c r="S81" s="16"/>
@@ -12621,12 +12577,12 @@
       <c r="AD81" s="1"/>
       <c r="AE81" s="1"/>
     </row>
-    <row r="82" spans="14:31">
+    <row r="82" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
       <c r="P82" s="13"/>
       <c r="Q82" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R82" s="16"/>
       <c r="S82" s="16"/>
@@ -12643,10 +12599,10 @@
       <c r="AD82" s="1"/>
       <c r="AE82" s="1"/>
     </row>
-    <row r="83" spans="14:31">
+    <row r="83" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N83" s="1"/>
       <c r="O83" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
@@ -12665,11 +12621,11 @@
       <c r="AD83" s="1"/>
       <c r="AE83" s="1"/>
     </row>
-    <row r="84" spans="14:31">
+    <row r="84" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
       <c r="P84" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q84" s="18"/>
       <c r="R84" s="18"/>
@@ -12687,10 +12643,10 @@
       <c r="AD84" s="1"/>
       <c r="AE84" s="1"/>
     </row>
-    <row r="85" spans="14:31">
+    <row r="85" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N85" s="1"/>
       <c r="O85" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
@@ -12709,11 +12665,11 @@
       <c r="AD85" s="1"/>
       <c r="AE85" s="1"/>
     </row>
-    <row r="86" spans="14:31">
+    <row r="86" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
       <c r="P86" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
@@ -12731,9 +12687,9 @@
       <c r="AD86" s="1"/>
       <c r="AE86" s="1"/>
     </row>
-    <row r="87" spans="14:31">
+    <row r="87" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N87" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
@@ -12753,10 +12709,10 @@
       <c r="AD87" s="1"/>
       <c r="AE87" s="1"/>
     </row>
-    <row r="88" spans="14:31">
+    <row r="88" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N88" s="1"/>
       <c r="O88" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
@@ -12775,10 +12731,10 @@
       <c r="AD88" s="1"/>
       <c r="AE88" s="1"/>
     </row>
-    <row r="89" spans="14:31">
+    <row r="89" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N89" s="1"/>
       <c r="O89" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
@@ -12797,10 +12753,10 @@
       <c r="AD89" s="1"/>
       <c r="AE89" s="1"/>
     </row>
-    <row r="90" spans="14:31">
+    <row r="90" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N90" s="1"/>
       <c r="O90" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P90" s="6"/>
       <c r="Q90" s="35"/>
@@ -12819,9 +12775,9 @@
       <c r="AD90" s="1"/>
       <c r="AE90" s="1"/>
     </row>
-    <row r="91" spans="14:31">
+    <row r="91" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N91" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
@@ -12841,10 +12797,10 @@
       <c r="AD91" s="1"/>
       <c r="AE91" s="1"/>
     </row>
-    <row r="92" spans="14:31">
+    <row r="92" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N92" s="1"/>
       <c r="O92" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P92" s="14"/>
       <c r="Q92" s="14"/>
@@ -12863,11 +12819,11 @@
       <c r="AD92" s="1"/>
       <c r="AE92" s="1"/>
     </row>
-    <row r="93" spans="14:31">
+    <row r="93" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N93" s="1"/>
       <c r="O93" s="13"/>
       <c r="P93" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q93" s="14"/>
       <c r="R93" s="14"/>
@@ -12885,10 +12841,10 @@
       <c r="AD93" s="1"/>
       <c r="AE93" s="1"/>
     </row>
-    <row r="94" spans="14:31">
+    <row r="94" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N94" s="1"/>
       <c r="O94" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P94" s="14"/>
       <c r="Q94" s="14"/>
@@ -12907,11 +12863,11 @@
       <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
     </row>
-    <row r="95" spans="14:31">
+    <row r="95" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
       <c r="P95" s="34" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
@@ -12929,7 +12885,7 @@
       <c r="AD95" s="1"/>
       <c r="AE95" s="1"/>
     </row>
-    <row r="96" spans="14:31">
+    <row r="96" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
@@ -12939,7 +12895,7 @@
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
       <c r="V96" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W96" s="22"/>
       <c r="X96" s="22"/>
@@ -12951,7 +12907,7 @@
       <c r="AD96" s="1"/>
       <c r="AE96" s="1"/>
     </row>
-    <row r="97" spans="14:31">
+    <row r="97" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
@@ -12962,7 +12918,7 @@
       <c r="U97" s="1"/>
       <c r="V97" s="22"/>
       <c r="W97" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X97" s="22"/>
       <c r="Y97" s="22"/>
@@ -12973,7 +12929,7 @@
       <c r="AD97" s="1"/>
       <c r="AE97" s="1"/>
     </row>
-    <row r="98" spans="14:31">
+    <row r="98" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
@@ -12983,7 +12939,7 @@
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
       <c r="V98" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="W98" s="18"/>
       <c r="X98" s="15"/>
@@ -12995,7 +12951,7 @@
       <c r="AD98" s="1"/>
       <c r="AE98" s="1"/>
     </row>
-    <row r="99" spans="14:31">
+    <row r="99" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
@@ -13006,22 +12962,22 @@
       <c r="U99" s="1"/>
       <c r="V99" s="16"/>
       <c r="W99" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X99" s="16"/>
       <c r="Y99" s="1"/>
       <c r="Z99" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA99" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB99" s="1"/>
       <c r="AC99" s="1"/>
       <c r="AD99" s="1"/>
       <c r="AE99" s="1"/>
     </row>
-    <row r="100" spans="14:31">
+    <row r="100" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
@@ -13032,7 +12988,7 @@
       <c r="U100" s="1"/>
       <c r="V100" s="1"/>
       <c r="W100" s="39" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
@@ -13043,7 +12999,7 @@
       <c r="AD100" s="1"/>
       <c r="AE100" s="1"/>
     </row>
-    <row r="101" spans="14:31">
+    <row r="101" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
@@ -13054,7 +13010,7 @@
       <c r="U101" s="1"/>
       <c r="V101" s="1"/>
       <c r="W101" s="39" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
@@ -13065,7 +13021,7 @@
       <c r="AD101" s="1"/>
       <c r="AE101" s="1"/>
     </row>
-    <row r="102" spans="14:31">
+    <row r="102" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
@@ -13076,7 +13032,7 @@
       <c r="U102" s="1"/>
       <c r="V102" s="1"/>
       <c r="W102" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
@@ -13087,7 +13043,7 @@
       <c r="AD102" s="1"/>
       <c r="AE102" s="1"/>
     </row>
-    <row r="103" spans="14:31">
+    <row r="103" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
@@ -13107,7 +13063,7 @@
       <c r="AD103" s="1"/>
       <c r="AE103" s="39"/>
     </row>
-    <row r="104" spans="14:31">
+    <row r="104" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
@@ -13127,7 +13083,7 @@
       <c r="AD104" s="1"/>
       <c r="AE104" s="1"/>
     </row>
-    <row r="105" spans="14:31">
+    <row r="105" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
@@ -13147,7 +13103,7 @@
       <c r="AD105" s="1"/>
       <c r="AE105" s="1"/>
     </row>
-    <row r="106" spans="14:31">
+    <row r="106" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
       <c r="P106" s="1"/>
@@ -13167,7 +13123,7 @@
       <c r="AD106" s="1"/>
       <c r="AE106" s="1"/>
     </row>
-    <row r="107" spans="14:31">
+    <row r="107" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
@@ -13187,7 +13143,7 @@
       <c r="AD107" s="1"/>
       <c r="AE107" s="1"/>
     </row>
-    <row r="108" spans="14:31">
+    <row r="108" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
       <c r="P108" s="1"/>
@@ -13207,7 +13163,7 @@
       <c r="AD108" s="1"/>
       <c r="AE108" s="1"/>
     </row>
-    <row r="109" spans="14:31">
+    <row r="109" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
       <c r="P109" s="1"/>
@@ -13227,7 +13183,7 @@
       <c r="AD109" s="1"/>
       <c r="AE109" s="1"/>
     </row>
-    <row r="110" spans="14:31">
+    <row r="110" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
       <c r="P110" s="1"/>
@@ -13247,7 +13203,7 @@
       <c r="AD110" s="1"/>
       <c r="AE110" s="1"/>
     </row>
-    <row r="111" spans="14:31">
+    <row r="111" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
       <c r="P111" s="1"/>
@@ -13267,7 +13223,7 @@
       <c r="AD111" s="1"/>
       <c r="AE111" s="1"/>
     </row>
-    <row r="112" spans="14:31">
+    <row r="112" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
       <c r="P112" s="1"/>
@@ -13287,11 +13243,11 @@
       <c r="AD112" s="1"/>
       <c r="AE112" s="1"/>
     </row>
-    <row r="113" spans="14:31">
+    <row r="113" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
       <c r="P113" s="34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
@@ -13309,10 +13265,10 @@
       <c r="AD113" s="1"/>
       <c r="AE113" s="1"/>
     </row>
-    <row r="114" spans="14:31">
+    <row r="114" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N114" s="1"/>
       <c r="O114" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P114" s="14"/>
       <c r="Q114" s="14"/>
@@ -13331,11 +13287,11 @@
       <c r="AD114" s="1"/>
       <c r="AE114" s="1"/>
     </row>
-    <row r="115" spans="14:31">
+    <row r="115" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N115" s="1"/>
       <c r="O115" s="13"/>
       <c r="P115" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q115" s="16"/>
       <c r="R115" s="1"/>
@@ -13353,11 +13309,11 @@
       <c r="AD115" s="1"/>
       <c r="AE115" s="1"/>
     </row>
-    <row r="116" spans="14:31">
+    <row r="116" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N116" s="1"/>
       <c r="O116" s="13"/>
       <c r="P116" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q116" s="16"/>
       <c r="R116" s="1"/>
@@ -13375,11 +13331,11 @@
       <c r="AD116" s="1"/>
       <c r="AE116" s="1"/>
     </row>
-    <row r="117" spans="14:31">
+    <row r="117" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N117" s="1"/>
       <c r="O117" s="13"/>
       <c r="P117" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q117" s="16"/>
       <c r="R117" s="1"/>
@@ -13397,9 +13353,9 @@
       <c r="AD117" s="1"/>
       <c r="AE117" s="1"/>
     </row>
-    <row r="118" spans="14:31">
+    <row r="118" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N118" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O118" s="1"/>
       <c r="P118" s="1"/>
@@ -13419,10 +13375,10 @@
       <c r="AD118" s="1"/>
       <c r="AE118" s="1"/>
     </row>
-    <row r="119" spans="14:31">
+    <row r="119" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N119" s="1"/>
       <c r="O119" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
@@ -13441,10 +13397,10 @@
       <c r="AD119" s="1"/>
       <c r="AE119" s="1"/>
     </row>
-    <row r="120" spans="14:31">
+    <row r="120" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N120" s="1"/>
       <c r="O120" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
@@ -13463,7 +13419,7 @@
       <c r="AD120" s="1"/>
       <c r="AE120" s="1"/>
     </row>
-    <row r="121" spans="14:31">
+    <row r="121" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
@@ -13483,7 +13439,7 @@
       <c r="AD121" s="1"/>
       <c r="AE121" s="1"/>
     </row>
-    <row r="122" spans="14:31">
+    <row r="122" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
@@ -13503,10 +13459,10 @@
       <c r="AD122" s="1"/>
       <c r="AE122" s="1"/>
     </row>
-    <row r="123" spans="14:31">
+    <row r="123" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N123" s="1"/>
       <c r="O123" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
@@ -13525,7 +13481,7 @@
       <c r="AD123" s="1"/>
       <c r="AE123" s="1"/>
     </row>
-    <row r="124" spans="14:31">
+    <row r="124" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
       <c r="P124" s="1"/>
@@ -13545,7 +13501,7 @@
       <c r="AD124" s="1"/>
       <c r="AE124" s="1"/>
     </row>
-    <row r="125" spans="14:31">
+    <row r="125" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
@@ -13565,11 +13521,11 @@
       <c r="AD125" s="1"/>
       <c r="AE125" s="1"/>
     </row>
-    <row r="126" spans="14:31">
+    <row r="126" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
       <c r="P126" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
@@ -13587,12 +13543,12 @@
       <c r="AD126" s="1"/>
       <c r="AE126" s="1"/>
     </row>
-    <row r="127" spans="14:31">
+    <row r="127" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
       <c r="Q127" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R127" s="1"/>
       <c r="S127" s="1"/>
@@ -13609,7 +13565,7 @@
       <c r="AD127" s="1"/>
       <c r="AE127" s="1"/>
     </row>
-    <row r="128" spans="14:31">
+    <row r="128" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
       <c r="P128" s="1"/>
@@ -13629,7 +13585,7 @@
       <c r="AD128" s="1"/>
       <c r="AE128" s="1"/>
     </row>
-    <row r="129" spans="14:31">
+    <row r="129" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
       <c r="P129" s="1"/>
@@ -13649,7 +13605,7 @@
       <c r="AD129" s="1"/>
       <c r="AE129" s="1"/>
     </row>
-    <row r="130" spans="14:31">
+    <row r="130" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
@@ -13669,7 +13625,7 @@
       <c r="AD130" s="1"/>
       <c r="AE130" s="1"/>
     </row>
-    <row r="131" spans="14:31">
+    <row r="131" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
       <c r="P131" s="1"/>
@@ -13689,9 +13645,9 @@
       <c r="AD131" s="1"/>
       <c r="AE131" s="1"/>
     </row>
-    <row r="132" spans="14:31">
+    <row r="132" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N132" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O132" s="1"/>
       <c r="P132" s="1"/>
@@ -13711,10 +13667,10 @@
       <c r="AD132" s="1"/>
       <c r="AE132" s="1"/>
     </row>
-    <row r="133" spans="14:31">
+    <row r="133" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N133" s="1"/>
       <c r="O133" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
@@ -13733,10 +13689,10 @@
       <c r="AD133" s="1"/>
       <c r="AE133" s="1"/>
     </row>
-    <row r="134" spans="14:31">
+    <row r="134" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N134" s="1"/>
       <c r="O134" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
@@ -13755,7 +13711,7 @@
       <c r="AD134" s="1"/>
       <c r="AE134" s="1"/>
     </row>
-    <row r="135" spans="14:31">
+    <row r="135" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
       <c r="P135" s="1"/>
@@ -13775,7 +13731,7 @@
       <c r="AD135" s="1"/>
       <c r="AE135" s="1"/>
     </row>
-    <row r="136" spans="14:31">
+    <row r="136" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
       <c r="P136" s="1"/>
@@ -13795,10 +13751,10 @@
       <c r="AD136" s="1"/>
       <c r="AE136" s="1"/>
     </row>
-    <row r="137" spans="14:31">
+    <row r="137" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N137" s="1"/>
       <c r="O137" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
@@ -13817,7 +13773,7 @@
       <c r="AD137" s="1"/>
       <c r="AE137" s="1"/>
     </row>
-    <row r="138" spans="14:31">
+    <row r="138" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
       <c r="P138" s="1"/>
@@ -13837,7 +13793,7 @@
       <c r="AD138" s="1"/>
       <c r="AE138" s="1"/>
     </row>
-    <row r="139" spans="14:31">
+    <row r="139" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
       <c r="P139" s="1"/>
@@ -13857,7 +13813,7 @@
       <c r="AD139" s="1"/>
       <c r="AE139" s="1"/>
     </row>
-    <row r="140" spans="14:31">
+    <row r="140" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
       <c r="P140" s="1"/>
@@ -13877,11 +13833,11 @@
       <c r="AD140" s="1"/>
       <c r="AE140" s="1"/>
     </row>
-    <row r="141" spans="14:31">
+    <row r="141" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
       <c r="P141" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
@@ -13899,12 +13855,12 @@
       <c r="AD141" s="1"/>
       <c r="AE141" s="1"/>
     </row>
-    <row r="142" spans="14:31">
+    <row r="142" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
       <c r="P142" s="1"/>
       <c r="Q142" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R142" s="1"/>
       <c r="S142" s="1"/>
@@ -13921,11 +13877,11 @@
       <c r="AD142" s="1"/>
       <c r="AE142" s="1"/>
     </row>
-    <row r="143" spans="14:31">
+    <row r="143" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
       <c r="P143" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
@@ -13943,12 +13899,12 @@
       <c r="AD143" s="1"/>
       <c r="AE143" s="1"/>
     </row>
-    <row r="144" spans="14:31">
+    <row r="144" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
       <c r="P144" s="1"/>
       <c r="Q144" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R144" s="1"/>
       <c r="S144" s="1"/>
@@ -13965,12 +13921,12 @@
       <c r="AD144" s="1"/>
       <c r="AE144" s="1"/>
     </row>
-    <row r="145" spans="14:31">
+    <row r="145" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
       <c r="P145" s="1"/>
       <c r="Q145" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R145" s="1"/>
       <c r="S145" s="1"/>
@@ -13987,9 +13943,9 @@
       <c r="AD145" s="1"/>
       <c r="AE145" s="1"/>
     </row>
-    <row r="146" spans="14:31">
+    <row r="146" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N146" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O146" s="1"/>
       <c r="P146" s="1"/>
@@ -14009,10 +13965,10 @@
       <c r="AD146" s="1"/>
       <c r="AE146" s="1"/>
     </row>
-    <row r="147" spans="14:31">
+    <row r="147" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N147" s="1"/>
       <c r="O147" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P147" s="1"/>
       <c r="Q147" s="1"/>
@@ -14031,10 +13987,10 @@
       <c r="AD147" s="1"/>
       <c r="AE147" s="1"/>
     </row>
-    <row r="148" spans="14:31">
+    <row r="148" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N148" s="1"/>
       <c r="O148" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
@@ -14053,10 +14009,10 @@
       <c r="AD148" s="1"/>
       <c r="AE148" s="1"/>
     </row>
-    <row r="149" spans="14:31">
+    <row r="149" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N149" s="1"/>
       <c r="O149" s="64" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
@@ -14075,7 +14031,7 @@
       <c r="AD149" s="1"/>
       <c r="AE149" s="1"/>
     </row>
-    <row r="150" spans="14:31">
+    <row r="150" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
       <c r="P150" s="1"/>
@@ -14095,10 +14051,10 @@
       <c r="AD150" s="1"/>
       <c r="AE150" s="1"/>
     </row>
-    <row r="151" spans="14:31">
+    <row r="151" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N151" s="1"/>
       <c r="O151" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
@@ -14117,7 +14073,7 @@
       <c r="AD151" s="1"/>
       <c r="AE151" s="1"/>
     </row>
-    <row r="152" spans="14:31">
+    <row r="152" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
       <c r="P152" s="1"/>
@@ -14137,10 +14093,10 @@
       <c r="AD152" s="1"/>
       <c r="AE152" s="1"/>
     </row>
-    <row r="153" spans="14:31">
+    <row r="153" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N153" s="1"/>
       <c r="O153" s="64" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
@@ -14159,7 +14115,7 @@
       <c r="AD153" s="1"/>
       <c r="AE153" s="1"/>
     </row>
-    <row r="154" spans="14:31">
+    <row r="154" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
       <c r="P154" s="1"/>
@@ -14179,7 +14135,7 @@
       <c r="AD154" s="1"/>
       <c r="AE154" s="1"/>
     </row>
-    <row r="155" spans="14:31">
+    <row r="155" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
       <c r="P155" s="1"/>
@@ -14199,11 +14155,11 @@
       <c r="AD155" s="1"/>
       <c r="AE155" s="1"/>
     </row>
-    <row r="156" spans="14:31">
+    <row r="156" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
       <c r="P156" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q156" s="1"/>
       <c r="R156" s="1"/>
@@ -14221,12 +14177,12 @@
       <c r="AD156" s="1"/>
       <c r="AE156" s="1"/>
     </row>
-    <row r="157" spans="14:31">
+    <row r="157" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
       <c r="P157" s="1"/>
       <c r="Q157" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R157" s="1"/>
       <c r="S157" s="1"/>
@@ -14243,11 +14199,11 @@
       <c r="AD157" s="1"/>
       <c r="AE157" s="1"/>
     </row>
-    <row r="158" spans="14:31">
+    <row r="158" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
       <c r="P158" s="74" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="Q158" s="75"/>
       <c r="R158" s="11"/>
@@ -14265,11 +14221,11 @@
       <c r="AD158" s="1"/>
       <c r="AE158" s="1"/>
     </row>
-    <row r="159" spans="14:31">
+    <row r="159" spans="14:31" x14ac:dyDescent="0.35">
       <c r="O159" s="1"/>
       <c r="P159" s="11"/>
       <c r="Q159" s="18" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="R159" s="11"/>
       <c r="S159" s="11"/>
@@ -14279,10 +14235,10 @@
       <c r="W159" s="1"/>
       <c r="X159" s="1"/>
     </row>
-    <row r="160" spans="14:31">
+    <row r="160" spans="14:31" x14ac:dyDescent="0.35">
       <c r="O160" s="1"/>
       <c r="P160" s="74" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="Q160" s="75"/>
       <c r="R160" s="11"/>
@@ -14293,11 +14249,11 @@
       <c r="W160" s="1"/>
       <c r="X160" s="1"/>
     </row>
-    <row r="161" spans="15:24">
+    <row r="161" spans="15:24" x14ac:dyDescent="0.35">
       <c r="O161" s="1"/>
       <c r="P161" s="11"/>
       <c r="Q161" s="18" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="R161" s="11"/>
       <c r="S161" s="11"/>
@@ -14307,10 +14263,10 @@
       <c r="W161" s="1"/>
       <c r="X161" s="1"/>
     </row>
-    <row r="162" spans="15:24">
+    <row r="162" spans="15:24" x14ac:dyDescent="0.35">
       <c r="O162" s="1"/>
       <c r="P162" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q162" s="1"/>
       <c r="R162" s="1"/>
@@ -14321,11 +14277,11 @@
       <c r="W162" s="1"/>
       <c r="X162" s="1"/>
     </row>
-    <row r="163" spans="15:24">
+    <row r="163" spans="15:24" x14ac:dyDescent="0.35">
       <c r="O163" s="1"/>
       <c r="P163" s="1"/>
       <c r="Q163" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R163" s="1"/>
       <c r="S163" s="1"/>
@@ -14335,11 +14291,11 @@
       <c r="W163" s="1"/>
       <c r="X163" s="1"/>
     </row>
-    <row r="164" spans="15:24">
+    <row r="164" spans="15:24" x14ac:dyDescent="0.35">
       <c r="O164" s="1"/>
       <c r="P164" s="1"/>
       <c r="Q164" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R164" s="1"/>
       <c r="S164" s="1"/>
@@ -14349,11 +14305,11 @@
       <c r="W164" s="1"/>
       <c r="X164" s="1"/>
     </row>
-    <row r="165" spans="15:24">
+    <row r="165" spans="15:24" x14ac:dyDescent="0.35">
       <c r="O165" s="1"/>
       <c r="P165" s="1"/>
       <c r="Q165" s="39" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="R165" s="11"/>
       <c r="S165" s="11"/>
@@ -14364,7 +14320,7 @@
       <c r="X165" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="R81" location="若右侧列表存在该道具条目_则直接堆叠数量加1" display="进入列表的处理快速通道"/>
   </hyperlinks>
@@ -14381,7 +14337,7 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" style="78" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="9" style="78"/>
@@ -14390,147 +14346,147 @@
     <col min="14" max="16384" width="9" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="77" customFormat="1">
+    <row r="1" spans="1:15" s="77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="76">
         <v>42312</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="17.25">
+    <row r="2" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B2" s="79" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C2" s="79" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
       <c r="H2" s="80" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="L2" s="80" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="M2" s="80" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="N2" s="80" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="O2" s="81"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B3" s="82" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B5" s="78">
         <v>1</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="H5" s="78">
         <v>1</v>
       </c>
       <c r="M5" s="78" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="N5" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B6" s="78">
         <v>2</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="H6" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B8" s="78">
         <v>3</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="H8" s="78">
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B9" s="78">
         <v>4</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="H9" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B10" s="78">
         <v>5</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="H10" s="78">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B11" s="78">
         <v>6</v>
       </c>
       <c r="C11" s="78" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H11" s="78">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B12" s="78">
         <v>7</v>
       </c>
       <c r="C12" s="78" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="H12" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C15" s="78" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="H15" s="78">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14543,461 +14499,461 @@
       <selection activeCell="M109" sqref="M109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1">
+    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7">
         <v>42303</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="9" t="s">
-        <v>8</v>
-      </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="B12" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="B21" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>6</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B34" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B35" s="10"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B37" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="B37" s="1" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B38" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="B38" s="1" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B39" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="B39" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>7</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>8</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>9</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>10</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>11</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>12</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B62" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="B62" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B63" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B64" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66" s="11"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B67" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B68" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B69" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C66" s="11"/>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="B67" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="B68" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="B69" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>13</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>14</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B78" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
-      <c r="B78" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>15</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>16</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>17</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>18</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B95" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>19</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B98" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="B98" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B101" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="B101" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/gd/宠物系统/宠物图鉴设计.xlsx
+++ b/gd/宠物系统/宠物图鉴设计.xlsx
@@ -16,1095 +16,1093 @@
     <sheet name="评审问题" sheetId="2" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="该比例与稀有度关系固定_类似合成宝石的权重规则__记在config里即可_方便策划修改_。">宠物合成界面!$K$108</definedName>
-    <definedName name="获得途径子标题1">宠物合成界面!$H$199</definedName>
-    <definedName name="技能tips规范详见文档《阵容选择界面》的“UI规则”切页">宠物合成界面!$I$185</definedName>
-    <definedName name="万能碎片最多只能替换X_的宠物碎片哟_”">宠物合成界面!$O$123</definedName>
+    <definedName name="宠物展示效果">宠物合成界面!$H$148</definedName>
+    <definedName name="该比例与稀有度关系固定_类似合成宝石的权重规则__记在config里即可_方便策划修改_。">宠物合成界面!$K$118</definedName>
+    <definedName name="获得途径子标题1">宠物合成界面!$H$211</definedName>
+    <definedName name="技能tips规范详见文档《阵容选择界面》的“UI规则”切页">宠物合成界面!$I$197</definedName>
+    <definedName name="类别信息">宠物合成界面!$G$37</definedName>
+    <definedName name="万能碎片最多只能替换X_的宠物碎片哟_”">宠物合成界面!$O$133</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="446">
   <si>
     <t>进入</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>标题</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>多语言ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>详见文档《宠物界面》的“玩家拥有宠物界面”切页</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>图鉴</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物图鉴评审</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物图鉴的页签建议和宠物列表保持统一，要是用图都用图，要是用文字都用问题。没有“全部”？</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决方案</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成出来都是白色宠物么？碎片数量区别用途是？都是白色的话图鉴有点没吸引力</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物图鉴界面彩色和灰色头像区别是什么？灰色看起来像不能点击</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物图鉴排序规则是？</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集宠物的数量是代表种类是么？</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>有万能碎片的话优先用万能碎片么？先消耗宠物碎片比较合适吧</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得途径是点了能直接去打副本么？</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>图鉴中缺少宠物属性内容，建议增加</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>万能碎片设计目的不明，非常必要么？</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物技能要有tips么？</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体布局与宠物列表相似，且从宠物列表作为入口，但是分页签与宠物列表使用了相同含义不同表现的分页，感觉不好。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>图鉴中宠物是否有天生三星之类的，是否需要显示其天生的品质</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物稀有度属性还要么，其他地方没有显示，图鉴里要不要显示</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>挺好 但是如果能从这里看出 那些怪比较稀有就好了</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>不错，那个android的图标是什么？</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性图标看起来比较单薄，也和其他界面不统一</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少稀有度等简要信息。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰色建议加锁等更明确的提示。</t>
+  </si>
+  <si>
+    <t>目前的养成会使得宠物碎片出现过剩的情况,通过到的宠物碎片再次回收为万能碎片来使其他宠物升级,目前数值汇率暂定为4换1,参考影之刃招式万能碎片的定位</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>要有的，和宠物的技能界面的技能图标逻辑一致</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤出来都是最低品质的，没有天生厉害的</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个临时的万能宠物碎片图标</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>图鉴中是否有必要 包含 “碎片”信息？</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集宠物代表的是我已经合成了多少个宠物？还是已经点亮了多少个图鉴？</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>万能碎片给个tips告诉玩家如何获得么？</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否按照碎片的多少排列下？方便合成？不确定合不合适=，=</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>点完就合成了么？还有合成的界面么？</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击图鉴能看到宠物信息么或者tips</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉应该优先消耗宠物碎片而不是万能碎片</t>
+  </si>
+  <si>
+    <t>结算得到宠物和召唤，当年说统一效果，现在是否已经废弃了这个设计</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤和宠物图鉴放在一起，个人感觉是个不好的设计，这样除了掉落，得到宠物只能是通过碎片召唤了，</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>是不准备做抽取宠物这种东西吗 还是说 抽取宠物再出一种得到宠物的表现</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有“全部”。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>页签大家反映比较多，改为和宠物列表一致的。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成出来的都是白色宠物</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎片数量肯定是越稀有的宠物需要的碎片比较多（这一点演示有点问题，做的时候忘记改那个数量了，其实也是从少到多的）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩色代表玩家拥有过该宠物，灰着代表玩家从未拥有过该宠物</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照宠物稀有度由低到高排序的，排列位置固定</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>万能碎片与宠物碎片之间首先在合成操作上，没有一定的优先消耗谁的规则，宠物碎片足够时，是否消耗万能碎片是玩家自己点选的。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是一旦选择使用万能碎片，是由一定规则的：</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）最大只能替换一定比例的宠物碎片，若玩家拥有的万能碎片足够支付某宠物可替换比例的最大值，则选择了万能碎片后，一定消耗最大值；</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2）若玩家拥有的万能碎片不足够支付某宠物可替换比例的最大值，则选择了万能碎片后，消耗掉玩家拥有的所有量。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>点了指引到副本入口（获得途径的指引逻辑与道具tips一致）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为宠物合成是放在图鉴这边的，增加碎片信息时为了使玩家在图鉴界面就能一目了然的看到哪个宠物能合成，哪个宠物不能合成</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>否则需要点击图鉴中的宠物头像进入合成界面才能看到这个信息，比较麻烦</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>是种类，也就是点亮了多少个图鉴</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>万能碎片算是一个道具，符合道具通用逻辑，所以tips是会告诉如何获得的</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>已确认，没有问题</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>已确认，没有问题</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>是统一效果，区别只在于这个位置不像副本有背景，所以这个位置需要美术给个背景（就是副本外的得到宠物的展示都统一用这个背景）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是除了掉落得到宠物只能通过碎片召唤，这里只是利用宠物碎片合成宠物这种途径的操作界面。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>不影响抽取宠物的功能（也就是说抽蛋那些玩意一样能抽宠物），获得宠物的展现形式一致即可（如问题19所回答的那样）。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他效果与结算都是一样的（恭喜的文字信息、宠物跑过来先播出场然后待机、下面的确定按钮）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>看了一部分游戏（看了魔灵、dota、小红帽、十冷、天下，当然他们之间有可重复召唤或者只能有一个的区别）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>在宠物图鉴这块都是用置灰来代表未拥有过该宠物或者该宠物不可召唤，且他们置灰时都是响应点击的，所以灰色在这里能点击感觉还算可以接受。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>加锁这个处理方法是首先我们的游戏可以给宠物加锁（这个宠物就不能当做材料、分解等），所以这里不建议用加锁，容易误解。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>首先稀有度这个玩意是完全不影响属性的，他只是代表这个怪物好获得还是不好获得，</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以图鉴这个位置在排序时是打算按照稀有度由低到高排，在界面上直接显示给玩家的就是合成需要的碎片由少到多的。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>不打算再多让玩家多学习一个“稀有度”的概念，增加学习成本，用处还不大（主要理由就是稀有度并不影响属性）。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>图鉴从头像上能区分好坏么？</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像不能区分好坏，只能区分稀有度。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>采纳，增加宠物基础属性内容（右侧可以滑动查看更多）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物图鉴UI</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>详见文档《宠物界面》的“玩家拥有宠物界面”切页</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>图鉴</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物图鉴评审</t>
+    <t>标题</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭按钮</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集宠物进度</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>万能碎片数量</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>切页标签</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物列表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示“收集宠物  玩家已拥有宠物种类数量/当前页签属性下的宠物种类数量总数”</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集宠物</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>handbook_shouji</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家已拥有宠物种类数量</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家当前是否仍拥有该宠物不影响（即玩家拥有后将宠物分解了、当做材料喂了等等情况）。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里计数只包含当前页签下的玩家拥有或者拥有过的宠物种类数量。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>万能碎片数量</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>（顺序别看这图！！！）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>同“玩家拥有宠物界面”</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个样式</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物头像</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物碎片信息</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物头像</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示宠物头像</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示“玩家当前拥有的该宠物碎片数量/该宠物合成需要的碎片数量“</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体在宠物头像下方居中显示</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表排列规则</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>图鉴目前其实是按照宠物稀有度由低到高排序的，排列位置固定</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要有正常显示状态和暗色显示状态</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常显示状态</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>代表玩家已经拥有或者拥有过该宠物</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗色显示状态</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>代表玩家从未拥有过该宠物</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得后回到该界面立即刷新宠物头像状态</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊规则</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个位置的万能碎片图标需要缩小版的icon图标，且该icon图标响应点击，弹出万能碎片的tips（tips符合通用规范）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认显示</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开界面时，默认显示第一个切页，且下方列表显示最上</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>若玩家关闭该图鉴界面，重新打开，则回到界面默认显示；</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>若玩家通过宠物头像打开宠物合成界面，则从宠物合成界面回到该界面时，该界面的切页选择与列表位置保持在进入宠物合成界面之前的显示状态（宠物头像根据玩家在宠物合成界面的操作进行刷新显示）。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物合成界面</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>宠物图鉴的页签建议和宠物列表保持统一，要是用图都用图，要是用文字都用问题。没有“全部”？</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决方案</t>
+    <t>返回按钮</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物属性图标</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物名称</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物3D形象</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物碎片信息</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>万能碎片信息</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示信息</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤按钮</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础属性区域</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能区域</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得途径区域</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过点击宠物图鉴界面的宠物头像进入</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击按钮，返回到宠物图鉴界面</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物属性图标、宠物名称</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>同”宠物详情界面“</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>详见文档《宠物界面》的“宠物详情界面”切页</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>区别</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）由于图鉴位置宠物均为白色品质，因此这个位置的宠物名称均显示为白色</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2）这个位置不会有宠物+n的显示需求</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示   碎片</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎片</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎片条</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示  “万能碎片图标  玩家拥有的万能碎片数量”</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示出玩家拥有的该宠物碎片数量占该宠物合成需求的碎片数量比例</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>若n&gt;=m，则显示为填充满的装填</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选按钮</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>万能宠物碎片图标</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家拥有的万能宠物碎片数量</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件类型</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示位置</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>见示意图</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现/隐藏规则</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮文案</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮操作</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示位置</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>见示意图</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现/隐藏规则</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件操作</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>——》</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮样式</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效资源</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击控件</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>待回归</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选控件普通状态时，点击后变为选中状态</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选控件</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物合成界面出现时出现</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选控件选中状态时，点击后变为普通状态</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示玩家拥有量</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>handbook_tips</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>不满足该宠物召唤需求</t>
+  </si>
+  <si>
+    <t>按钮正常状态时，点击按钮，弹出二级确认框</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）当玩家未选择万能碎片时，判断玩家拥有的宠物碎片数量a与召唤该宠物需要的碎片数量b的关系，</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示“*万能碎片最大只能替换X%的宠物碎片哟！”</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>万能碎片逻辑</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>若玩家拥有的万能碎片不足够支付某宠物可替换比例的最大值，则选择了万能碎片后，消耗掉玩家拥有的所有量。</t>
+  </si>
+  <si>
+    <t>1）万能碎片最大只能替换一定比例的宠物碎片，该比例跟随宠物稀有度变化，宠物每个稀有度都对应一个最大可替换的宠物碎片比例，各稀有度对应比例待定。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中，X跟随宠物稀有度变化</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2）玩家选择使用万能碎片时：</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>若玩家拥有的万能碎片足够支付某宠物可替换比例的最大值，则选择了万能碎片后，一定消耗该最大值；</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>情况1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>情况2</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示位置</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏幕中央</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示信息</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定进行1次召唤吗？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>handbook_tips1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击取消按钮，关闭二级，不进行召唤操作，回到宠物召唤界面（宠物召唤界面状态保持与开启二级之前相同）；</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据实际消耗的碎片数量显示，若玩家未选择使用万能碎片，则不显示万能碎片数量那一行</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击确定按钮，关闭二级，进行召唤操作，扣除实际消耗的碎片，进入获得宠物展示阶段。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示完成后，回到宠物合成界面，界面宠物碎片与万能碎片数量刷新为扣除之前召唤消耗之后的量，万能碎片的单选按钮均变为未选中状态（无论召唤前是否选中）。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮样式</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>按下</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可用</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效资源</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击按钮</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>待回归</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示宠物基础属性</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础属性标题</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet_detail_stage_attr</t>
+  </si>
+  <si>
+    <t>基础属性数值</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础属性</t>
+  </si>
+  <si>
+    <t>体力</t>
+  </si>
+  <si>
+    <t>力量</t>
+  </si>
+  <si>
+    <t>智力</t>
+  </si>
+  <si>
+    <t>防御</t>
+  </si>
+  <si>
+    <t>速度</t>
+  </si>
+  <si>
+    <t>common_attr_health</t>
+  </si>
+  <si>
+    <t>common_attr_strenth</t>
+  </si>
+  <si>
+    <t>common_attr_intelligence</t>
+  </si>
+  <si>
+    <t>common_attr_defence</t>
+  </si>
+  <si>
+    <t>common_attr_speed</t>
+  </si>
+  <si>
+    <t>显示宠物拥有的技能</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能标题</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能图标列表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础属性标题、基础属性数值</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字效果与“装备属性界面”相同即可，基础属性数值此处排版如图所示</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果与“基础属性标题”相同</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet_detail_left_skill</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示出该宠物拥有的所有技能icon</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先排从左至右排列</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示可以获得该宠物碎片的途径介绍</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得途径标题</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体获得途径</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得途径</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>handbook_huodeway</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示规则同道具tips中的获得途径</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>详见文档《道具基础逻辑》的“UI表现逻辑”切页</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS：美术需定义在此界面显示的字体大小，由于和tips页面大小不同，所以显示上文字大小应有不同</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档名称</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档目的</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标读者</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档路径</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档状态</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细信息</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写中</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>待审核(策划)</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改中（策划）</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>待审核(QC)</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改中(QC)</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>待3方</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>已定案</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档历史</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布日期</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>知会同事</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记颜色</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>修订人</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ver 0.1</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>有关会议</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议日期</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与同事</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本概要</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物图鉴相关逻辑说明</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能icon响应点击，点击弹出tips</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2）通过“玩家拥有宠物界面”的“图鉴”按钮进入</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>合成出来都是白色宠物么？碎片数量区别用途是？都是白色的话图鉴有点没吸引力</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物图鉴界面彩色和灰色头像区别是什么？灰色看起来像不能点击</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物图鉴排序规则是？</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>收集宠物的数量是代表种类是么？</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>有万能碎片的话优先用万能碎片么？先消耗宠物碎片比较合适吧</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得途径是点了能直接去打副本么？</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>图鉴中缺少宠物属性内容，建议增加</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>万能碎片设计目的不明，非常必要么？</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物技能要有tips么？</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>整体布局与宠物列表相似，且从宠物列表作为入口，但是分页签与宠物列表使用了相同含义不同表现的分页，感觉不好。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>图鉴中宠物是否有天生三星之类的，是否需要显示其天生的品质</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物稀有度属性还要么，其他地方没有显示，图鉴里要不要显示</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>挺好 但是如果能从这里看出 那些怪比较稀有就好了</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>不错，那个android的图标是什么？</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性图标看起来比较单薄，也和其他界面不统一</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺少稀有度等简要信息。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>灰色建议加锁等更明确的提示。</t>
-  </si>
-  <si>
-    <t>目前的养成会使得宠物碎片出现过剩的情况,通过到的宠物碎片再次回收为万能碎片来使其他宠物升级,目前数值汇率暂定为4换1,参考影之刃招式万能碎片的定位</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>要有的，和宠物的技能界面的技能图标逻辑一致</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤出来都是最低品质的，没有天生厉害的</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个临时的万能宠物碎片图标</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>图鉴中是否有必要 包含 “碎片”信息？</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>收集宠物代表的是我已经合成了多少个宠物？还是已经点亮了多少个图鉴？</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>万能碎片给个tips告诉玩家如何获得么？</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否按照碎片的多少排列下？方便合成？不确定合不合适=，=</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>点完就合成了么？还有合成的界面么？</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击图鉴能看到宠物信息么或者tips</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>感觉应该优先消耗宠物碎片而不是万能碎片</t>
-  </si>
-  <si>
-    <t>结算得到宠物和召唤，当年说统一效果，现在是否已经废弃了这个设计</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤和宠物图鉴放在一起，个人感觉是个不好的设计，这样除了掉落，得到宠物只能是通过碎片召唤了，</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>是不准备做抽取宠物这种东西吗 还是说 抽取宠物再出一种得到宠物的表现</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有“全部”。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>页签大家反映比较多，改为和宠物列表一致的。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成出来的都是白色宠物</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>碎片数量肯定是越稀有的宠物需要的碎片比较多（这一点演示有点问题，做的时候忘记改那个数量了，其实也是从少到多的）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>彩色代表玩家拥有过该宠物，灰着代表玩家从未拥有过该宠物</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照宠物稀有度由低到高排序的，排列位置固定</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>万能碎片与宠物碎片之间首先在合成操作上，没有一定的优先消耗谁的规则，宠物碎片足够时，是否消耗万能碎片是玩家自己点选的。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>但是一旦选择使用万能碎片，是由一定规则的：</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1）最大只能替换一定比例的宠物碎片，若玩家拥有的万能碎片足够支付某宠物可替换比例的最大值，则选择了万能碎片后，一定消耗最大值；</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>2）若玩家拥有的万能碎片不足够支付某宠物可替换比例的最大值，则选择了万能碎片后，消耗掉玩家拥有的所有量。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>点了指引到副本入口（获得途径的指引逻辑与道具tips一致）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>因为宠物合成是放在图鉴这边的，增加碎片信息时为了使玩家在图鉴界面就能一目了然的看到哪个宠物能合成，哪个宠物不能合成</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>否则需要点击图鉴中的宠物头像进入合成界面才能看到这个信息，比较麻烦</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>是种类，也就是点亮了多少个图鉴</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>万能碎片算是一个道具，符合道具通用逻辑，所以tips是会告诉如何获得的</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>已确认，没有问题</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>已确认，没有问题</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>是统一效果，区别只在于这个位置不像副本有背景，所以这个位置需要美术给个背景（就是副本外的得到宠物的展示都统一用这个背景）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>不是除了掉落得到宠物只能通过碎片召唤，这里只是利用宠物碎片合成宠物这种途径的操作界面。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>不影响抽取宠物的功能（也就是说抽蛋那些玩意一样能抽宠物），获得宠物的展现形式一致即可（如问题19所回答的那样）。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他效果与结算都是一样的（恭喜的文字信息、宠物跑过来先播出场然后待机、下面的确定按钮）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>看了一部分游戏（看了魔灵、dota、小红帽、十冷、天下，当然他们之间有可重复召唤或者只能有一个的区别）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在宠物图鉴这块都是用置灰来代表未拥有过该宠物或者该宠物不可召唤，且他们置灰时都是响应点击的，所以灰色在这里能点击感觉还算可以接受。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>加锁这个处理方法是首先我们的游戏可以给宠物加锁（这个宠物就不能当做材料、分解等），所以这里不建议用加锁，容易误解。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>首先稀有度这个玩意是完全不影响属性的，他只是代表这个怪物好获得还是不好获得，</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>所以图鉴这个位置在排序时是打算按照稀有度由低到高排，在界面上直接显示给玩家的就是合成需要的碎片由少到多的。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>不打算再多让玩家多学习一个“稀有度”的概念，增加学习成本，用处还不大（主要理由就是稀有度并不影响属性）。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>图鉴从头像上能区分好坏么？</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>头像不能区分好坏，只能区分稀有度。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>采纳，增加宠物基础属性内容（右侧可以滑动查看更多）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物图鉴UI</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>标题</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭按钮</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>收集宠物进度</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>万能碎片数量</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>切页标签</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物列表</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示“收集宠物  玩家已拥有宠物种类数量/当前页签属性下的宠物种类数量总数”</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>收集宠物</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>handbook_shouji</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家已拥有宠物种类数量</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家当前是否仍拥有该宠物不影响（即玩家拥有后将宠物分解了、当做材料喂了等等情况）。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>这里计数只包含当前页签下的玩家拥有或者拥有过的宠物种类数量。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>万能碎片数量</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>（顺序别看这图！！！）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>同“玩家拥有宠物界面”</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个样式</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物头像</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物碎片信息</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物头像</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示宠物头像</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示“玩家当前拥有的该宠物碎片数量/该宠物合成需要的碎片数量“</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>整体在宠物头像下方居中显示</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表排列规则</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>图鉴目前其实是按照宠物稀有度由低到高排序的，排列位置固定</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要有正常显示状态和暗色显示状态</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常显示状态</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>代表玩家已经拥有或者拥有过该宠物</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗色显示状态</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>代表玩家从未拥有过该宠物</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得后回到该界面立即刷新宠物头像状态</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊规则</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个位置的万能碎片图标需要缩小版的icon图标，且该icon图标响应点击，弹出万能碎片的tips（tips符合通用规范）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认显示</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开界面时，默认显示第一个切页，且下方列表显示最上</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>若玩家关闭该图鉴界面，重新打开，则回到界面默认显示；</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>若玩家通过宠物头像打开宠物合成界面，则从宠物合成界面回到该界面时，该界面的切页选择与列表位置保持在进入宠物合成界面之前的显示状态（宠物头像根据玩家在宠物合成界面的操作进行刷新显示）。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物合成界面</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回按钮</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物属性图标</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物名称</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物3D形象</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物碎片信息</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>万能碎片信息</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示信息</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤按钮</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础属性区域</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能区域</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得途径区域</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过点击宠物图鉴界面的宠物头像进入</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击按钮，返回到宠物图鉴界面</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物属性图标、宠物名称</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>同”宠物详情界面“</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>详见文档《宠物界面》的“宠物详情界面”切页</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>区别</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1）由于图鉴位置宠物均为白色品质，因此这个位置的宠物名称均显示为白色</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>2）这个位置不会有宠物+n的显示需求</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示   碎片</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>碎片</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>碎片条</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示  “万能碎片图标  玩家拥有的万能碎片数量”</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示出玩家拥有的该宠物碎片数量占该宠物合成需求的碎片数量比例</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>若n&gt;=m，则显示为填充满的装填</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>单选按钮</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>万能宠物碎片图标</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家拥有的万能宠物碎片数量</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>控件类型</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示位置</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>见示意图</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>出现/隐藏规则</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮文案</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>多语言ID</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮操作</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示位置</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>见示意图</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>出现/隐藏规则</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>控件操作</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>——》</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮样式</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>选中</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>音效</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>音效资源</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击控件</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>待回归</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>单选控件普通状态时，点击后变为选中状态</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>单选控件</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物合成界面出现时出现</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>单选控件选中状态时，点击后变为普通状态</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示玩家拥有量</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>handbook_tips</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>不满足该宠物召唤需求</t>
-  </si>
-  <si>
-    <t>按钮正常状态时，点击按钮，弹出二级确认框</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1）当玩家未选择万能碎片时，判断玩家拥有的宠物碎片数量a与召唤该宠物需要的碎片数量b的关系，</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示“*万能碎片最大只能替换X%的宠物碎片哟！”</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>万能碎片逻辑</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>若玩家拥有的万能碎片不足够支付某宠物可替换比例的最大值，则选择了万能碎片后，消耗掉玩家拥有的所有量。</t>
-  </si>
-  <si>
-    <t>1）万能碎片最大只能替换一定比例的宠物碎片，该比例跟随宠物稀有度变化，宠物每个稀有度都对应一个最大可替换的宠物碎片比例，各稀有度对应比例待定。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>其中，X跟随宠物稀有度变化</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>2）玩家选择使用万能碎片时：</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>若玩家拥有的万能碎片足够支付某宠物可替换比例的最大值，则选择了万能碎片后，一定消耗该最大值；</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>情况1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>情况2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示位置</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>屏幕中央</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示信息</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定进行1次召唤吗？</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>多语言ID</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>handbook_tips1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击取消按钮，关闭二级，不进行召唤操作，回到宠物召唤界面（宠物召唤界面状态保持与开启二级之前相同）；</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据实际消耗的碎片数量显示，若玩家未选择使用万能碎片，则不显示万能碎片数量那一行</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击确定按钮，关闭二级，进行召唤操作，扣除实际消耗的碎片，进入获得宠物展示阶段。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得宠物展示需求与副本获得宠物展示需求相同，区别在于此处没有副本背景，因此需要美术提供一个宠物展示背景。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>展示完成后，回到宠物合成界面，界面宠物碎片与万能碎片数量刷新为扣除之前召唤消耗之后的量，万能碎片的单选按钮均变为未选中状态（无论召唤前是否选中）。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮样式</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>按下</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>不可用</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>音效</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>音效资源</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击按钮</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>待回归</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示宠物基础属性</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础属性标题</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>pet_detail_stage_attr</t>
-  </si>
-  <si>
-    <t>基础属性数值</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础属性</t>
-  </si>
-  <si>
-    <t>体力</t>
-  </si>
-  <si>
-    <t>力量</t>
-  </si>
-  <si>
-    <t>智力</t>
-  </si>
-  <si>
-    <t>防御</t>
-  </si>
-  <si>
-    <t>速度</t>
-  </si>
-  <si>
-    <t>common_attr_health</t>
-  </si>
-  <si>
-    <t>common_attr_strenth</t>
-  </si>
-  <si>
-    <t>common_attr_intelligence</t>
-  </si>
-  <si>
-    <t>common_attr_defence</t>
-  </si>
-  <si>
-    <t>common_attr_speed</t>
-  </si>
-  <si>
-    <t>显示宠物拥有的技能</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能标题</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能图标列表</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础属性标题、基础属性数值</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>文字效果与“装备属性界面”相同即可，基础属性数值此处排版如图所示</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果与“基础属性标题”相同</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>pet_detail_left_skill</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示出该宠物拥有的所有技能icon</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先排从左至右排列</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示可以获得该宠物碎片的途径介绍</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得途径标题</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体获得途径</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得途径</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>handbook_huodeway</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示规则同道具tips中的获得途径</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>详见文档《道具基础逻辑》的“UI表现逻辑”切页</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS：美术需定义在此界面显示的字体大小，由于和tips页面大小不同，所以显示上文字大小应有不同</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档名称</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档目的</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标读者</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档路径</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档状态</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>详细信息</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写中</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>待审核(策划)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改中（策划）</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>待审核(QC)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改中(QC)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>待3方</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>已定案</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档历史</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本号</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布日期</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>知会同事</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>标记颜色</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建人</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>修订人</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ver 0.1</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>有关会议</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>会议日期</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与同事</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本概要</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物图鉴相关逻辑说明</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能icon响应点击，点击弹出tips</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>2）通过“玩家拥有宠物界面”的“图鉴”按钮进入</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>handbook_zhaohuan</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>1）从主界面的图鉴UI进入（具体由主界面设计）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>“图鉴”按钮</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>符合通用文字缩放规则，美术给控件尺寸及字体范围</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>（顺序别</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>看这图！！！）</t>
   </si>
   <si>
     <t>这个位置的万能碎片图标需要缩小版的icon图标</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>当玩家获得该宠物时（无论以何种方式获得，不限于此界面获得），该宠物的头像由暗色显示变为正常显示</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>宠物头像无论在哪种状态下，均响应玩家点击，点击弹出对应宠物的宠物合成界面。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>宠物合成界面见“宠物合成界面”切页</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>各个宠物的排列位置固定（按照宠物稀有度由低到高排序，表现上为合成需要的碎片数量由少到多）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>具体位置待版本内怪物都设计好后定</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>样式同”宠物详情界面“</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>这个位置的万能碎片图标需要缩小版的icon图标，且该icon图标响应点击</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1131,245 +1129,245 @@
       </rPr>
       <t>。</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>svn://10.21.2.47/gd/宠物系统/宠物图鉴设计.xlsx</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴设计</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>碎片数量有上限么</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>太小了手机上不好点吧</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>圣兽那个玩意，这个界面要显示么</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>已选择吧</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片是道具么，在背包显示么？</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>分解宠物能不能获得万能碎片呢？</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>这个意思是不是就是说优先消耗万能碎片？</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>直接显示碎片图标也行吧？</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>同上</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>顺序如图？</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>技能顺序？</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>道具那边写的好像不是太详细，也没有提到商城</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>为啥不使用全属性宠物总数，单属性感觉上每个页签是相互独立的，另外，是否考虑过加个全部页签，和宠物列表统一起来</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>都是数字,缩放啥………………</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>感觉好惨淡</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>n有上限限制么</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>建议，可点并提示im</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>勘误，选择万能碎片时</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片不用图标么</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>感觉采用变暗处理就行了</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>显示1级白色宠物属性？</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>有顺序需求么，小招在前大招在后</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>道具里面的获得途径待定，这里也待定么？</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>宠物碎片是道具么，在背包显示么？</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>为啥是优先消耗万能碎片，而不是优先消耗玩家碎片</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>显示的下</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>不加“全部”了，主要考虑是宠物图鉴这如果有分页签，一般就没有看全部的需求了</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>歧义，拥有某只宠物，在失去，在拥有，应该数量只+1，改成玩家拥有该页签下的任意一只宠物时，此位置数量加1，之后玩家多次失去或者获得该宠物，此处数量不会随之改变如何</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>是指玩家拥有任一页签下的任意一只宠物时，此位置数量加1，之后玩家多次失去或者获得该宠物，此处数量不会随之改变。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>这个位置的万能碎片图标需要缩小版的icon图标（尽量大点），且该icon图标响应点击，弹出万能碎片的tips（tips符合通用规范）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>不要</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>。。。。=。=</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>没有</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>这的位置可扩展的地界太小，怕多语言时候放不下</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2）当玩家选择万能碎片时，判断玩家拥有的宠物碎片数量a、万能碎片数量c与召唤该宠物需要的碎片数量b的关系，</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>是道具，但是背包不显示</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>能</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>因为按钮大小固定，翻译成其他国家文字很难保证不超出</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>其中，X跟随宠物稀有度变化</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>提示方式</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>触发条件</t>
   </si>
   <si>
     <t>提示范围</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>文字内容</t>
   </si>
   <si>
     <t>对应英文</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界频道</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>世界频道</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>公会频道</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>走马灯</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>走马灯</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>系统提示（非警示）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>系统提示（警示）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>系统公告</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>玩家自己</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>handbook_btn</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>玩家不满足合成宠物条件时点击召唤按钮</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>碎片不足</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>当玩家拥有的材料不满足该宠物召唤需求时，点击按钮弹出提示信息handbook_record_001；</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>该界面出现时出现</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>数值回答你：优先消耗，万能碎片会投产较多,特定的宠物碎片比较不易得</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1395,7 +1393,7 @@
       </rPr>
       <t>*实际消耗的宠物碎片数量</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1421,63 +1419,63 @@
       </rPr>
       <t>*实际消耗的宠物碎片数量</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮，弹出二级确认框</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>基础属性数值显示的是1级白色宠物的</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>文字效果与“装备属性界面”相同即可，基础属性数值此处排版如图所示（包含顺序）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>因为规则和道具的完全一致，唯一区别就是这里显示的字体可能大一些（还是美术定，我只是预估），所以这里都是跟着道具的（道具待定，那这个也得待定）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>例子是瞎写的。。。别介意。。。具体有什么都跟着道具那边的规则走</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>排列顺序</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>大招，物理，法术，buff，被动</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>如果某个怪没有其中得某个技能，则后面的依次提前</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>显示不下时，可以通过下滑查看更多</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>有背景好看一些~炫酷一些~</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>上方数字显示格式：n/m，n为玩家拥有的该宠物碎片数量，m为该宠物合成需求的碎片数量</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>整体居中显示</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>回归测试反馈</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1493,7 +1491,7 @@
       </rPr>
       <t>D形象进行查看</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1509,130 +1507,130 @@
       </rPr>
       <t>5度</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>上下可进行旋转角度范围为：水平视角与俯角45度，玩家手指在屏幕上直线上下滑动只会造成查看模型的视角旋转</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>左右可进行360度旋转，玩家手指在屏幕上直线水平滑动只会造成模型左右旋转</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>玩家手指在屏幕上非直线水平或者上下滑动时，以上两个旋转会同时发生。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>增加宠物展示区旋转宠物功能（同样适用于宠物详情界面）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>等道具tips获得途径出了再做</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>（效果可参考一下魔灵）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>类别信息</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>宠物属性图标、宠物名称、类别信息</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>targetItem</t>
   </si>
   <si>
     <t xml:space="preserve">needCount </t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>合成/兑换列表</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>合成/兑换需要数量</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>配置格式符合道具通用配置结构</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>该宠物合成需要的碎片数量的配置：道具Item表</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>填写该碎片可合成的宠物id</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>若a&gt;=b，则满足召唤需求；否则为不满足。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>因此，若万能碎片c满足情况1，加上玩家拥有的该宠物碎片的数量a的值&gt;=b，则满足召唤需求；</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">           若万能碎片c满足情况2，加上玩家拥有的该宠物碎片的数量a的值&gt;=b，则满足召唤需求；</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">           否则，为不满足召唤需求。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>技能tips规范详见文档《阵容选择界面》的“UI规则”切页</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>三方后回归问题</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>1、修改技能tips指引文档</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>获得途径子标题1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>获得途径子标题2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>显示“宠物”</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>获得途径子标题2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>显示“宠物碎片”</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>宠物碎片</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>多语言ID</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1658,66 +1656,66 @@
       </rPr>
       <t>即可（方便策划修改）。</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2、获得途径修改</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>3、万能碎片的稀有度对应比例描述修改</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>4、删除不需要的缩放需求</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>handbook_record_001</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>类别</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>对应工时（单位d）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>策划验收+配置任务</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>对应程序任务</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>程序</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>宠物3D形象(重新封装一下，添加功能)</t>
   </si>
   <si>
     <t>宠物合成界面UI(需要修改技能tip通用，途径只包含界面部分)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>召唤获取宠物界面(视需要添加的情况)</t>
@@ -1727,79 +1725,193 @@
   </si>
   <si>
     <t>宠物合成</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>图鉴功能修改</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>图鉴、合成界面</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>1,2,3,4,5,6</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">客户端宠物图鉴UI </t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>pet_list_title</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>handbook_petsuipian</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>添加任务拆分切页</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>item_type_chip</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>显示不下时，可以通过下滑查看更多（是指整个右侧界面可滑动）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>显示“收集宠物  玩家已拥有宠物种类数量/所有页签的宠物种类数量总数”</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>所有页签的宠物种类数量总数</t>
   </si>
   <si>
     <t>是所有页签下显示的宠物种类总数</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>*万能碎片最多只能替换X%的宠物碎片哟！”</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>修改万能碎片提示信息位置</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文对应</t>
+  </si>
+  <si>
+    <t>动物</t>
+  </si>
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>monstertype1</t>
+  </si>
+  <si>
+    <t>人物</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>monstertype2</t>
+  </si>
+  <si>
+    <t>特异</t>
+  </si>
+  <si>
+    <t>Peculiar</t>
+  </si>
+  <si>
+    <t>monstertype3</t>
+  </si>
+  <si>
+    <t>植物</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>monstertype4</t>
+  </si>
+  <si>
+    <t>神</t>
+  </si>
+  <si>
+    <t>Deity</t>
+  </si>
+  <si>
+    <t>monstertype5</t>
+  </si>
+  <si>
+    <t>类别信息</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>指宠物的类别：5种分别为</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitdata表中需要添加type列用于对应宠物的类别</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物类型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>将宠物类别内容移入文档（之前在宠物文档）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物展示效果</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物做胜利动作，同时播放在宠物周围播放一个特效。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效效果待设计</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改合成宠物后的宠物展示效果</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1992,7 +2104,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2056,6 +2168,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1BBFA4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2267,253 +2385,271 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="58" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="58" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="28" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="26" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2553,10 +2689,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCCC"/>
       <color rgb="FF00CC99"/>
       <color rgb="FF66FFCC"/>
       <color rgb="FF66FF33"/>
-      <color rgb="FFFFCCCC"/>
       <color rgb="FF99CCFF"/>
       <color rgb="FF9999FF"/>
     </mruColors>
@@ -3827,13 +3963,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>654326</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>8283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>446535</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>8283</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3865,14 +4001,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>455542</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>4113</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>4112</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3903,14 +4039,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>66261</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>198783</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>378805</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>79890</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>79891</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3941,13 +4077,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>66260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>198783</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>198783</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3991,13 +4127,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>488675</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>74543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>157369</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>165652</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4041,13 +4177,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>347870</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>157370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>24848</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>157370</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4091,14 +4227,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>173935</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>8282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>545364</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>96455</xdr:rowOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>96454</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4129,14 +4265,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409524</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>69125</xdr:rowOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>69124</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4167,13 +4303,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>160682</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>28162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>570206</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>97287</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4205,13 +4341,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>371429</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>88173</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4243,13 +4379,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>33131</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>16564</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>226162</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>2910</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4281,13 +4417,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>115956</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>149087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>149088</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4331,13 +4467,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>177247</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>94421</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>108915</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>94422</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4381,14 +4517,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>33131</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>33130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>162980</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>5035</xdr:rowOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>5034</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4419,13 +4555,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>621196</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>596347</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>4341</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4457,13 +4593,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>41414</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>115957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>660538</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>115958</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4507,13 +4643,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>124240</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>107674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>55908</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>107675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4557,13 +4693,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>132521</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>149087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>64189</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>149088</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4607,13 +4743,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>41413</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>8283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>136251</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4623,8 +4759,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13782261" y="26181326"/>
-          <a:ext cx="2898913" cy="1784490"/>
+          <a:off x="13782261" y="28251979"/>
+          <a:ext cx="2898913" cy="1784489"/>
           <a:chOff x="13782261" y="23704826"/>
           <a:chExt cx="2898913" cy="1784490"/>
         </a:xfrm>
@@ -4682,14 +4818,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>240195</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>82827</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>28989</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>178077</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>178078</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4729,13 +4865,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>28989</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>24848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>49696</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>26920</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4775,13 +4911,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>8283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>447261</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>5385</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5156,14 +5292,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>135888</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>7687</xdr:rowOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>7686</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5194,13 +5330,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>372718</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>132522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>80756</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>132522</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5244,13 +5380,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>389282</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>204</xdr:row>
       <xdr:rowOff>57979</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>97320</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>204</xdr:row>
       <xdr:rowOff>57979</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5294,13 +5430,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>160683</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>202</xdr:row>
       <xdr:rowOff>127553</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>306456</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>202</xdr:row>
       <xdr:rowOff>140804</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5344,13 +5480,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>318051</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>110987</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5394,13 +5530,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>41413</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>57979</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>414130</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>44282</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5420,44 +5556,6 @@
         <a:xfrm>
           <a:off x="9657522" y="24988631"/>
           <a:ext cx="3122543" cy="2056955"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>372717</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>99392</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>546652</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>36054</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="图片 32"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14113565" y="27514827"/>
-          <a:ext cx="2236304" cy="350793"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8557,10 +8655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H34"/>
+  <dimension ref="A2:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -8575,10 +8673,10 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -8586,151 +8684,151 @@
     </row>
     <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
     </row>
     <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="25"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="94" t="s">
+      <c r="B12" s="102" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" s="103"/>
+      <c r="D12" s="104" t="s">
         <v>233</v>
       </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="96" t="s">
-        <v>234</v>
-      </c>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="97"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="105"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="C13" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="91"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="99"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C14" s="30"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="100"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="108"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C15" s="30"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="103"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="111"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="91"/>
+        <v>238</v>
+      </c>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="99"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B17" s="28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C17" s="29"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="91"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="99"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B18" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C18" s="29"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="91"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="99"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C19" s="32"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="93"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="101"/>
     </row>
     <row r="20" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="D21" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="E21" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="F21" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="G21" s="25" t="s">
         <v>248</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -8739,16 +8837,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B23" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C23" s="33">
         <v>42305</v>
       </c>
       <c r="E23" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="F23" s="25" t="s">
         <v>251</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -8758,10 +8856,10 @@
       </c>
       <c r="E24" s="62"/>
       <c r="G24" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>349</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -8771,10 +8869,10 @@
       </c>
       <c r="E25" s="67"/>
       <c r="G25" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -8782,7 +8880,7 @@
       <c r="C26" s="33"/>
       <c r="E26" s="67"/>
       <c r="H26" s="73" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -8790,7 +8888,7 @@
       <c r="C27" s="33"/>
       <c r="E27" s="67"/>
       <c r="H27" s="73" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -8798,7 +8896,7 @@
       <c r="C28" s="33"/>
       <c r="E28" s="67"/>
       <c r="H28" s="73" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -8806,7 +8904,7 @@
       <c r="C29" s="33"/>
       <c r="E29" s="67"/>
       <c r="H29" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -8814,7 +8912,7 @@
       <c r="C30" s="33"/>
       <c r="E30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -8822,42 +8920,68 @@
       <c r="C31" s="33">
         <v>42326</v>
       </c>
-      <c r="E31" s="105"/>
+      <c r="E31" s="90"/>
       <c r="G31" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="H31" s="73" t="s">
         <v>416</v>
-      </c>
-      <c r="H31" s="73" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B32" s="3"/>
-      <c r="C32" s="33"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="24" t="s">
+      <c r="C32" s="33">
+        <v>42328</v>
+      </c>
+      <c r="E32" s="97"/>
+      <c r="G32" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="H32" s="73" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B33" s="3"/>
+      <c r="C33" s="33">
+        <v>42329</v>
+      </c>
+      <c r="E33" s="116"/>
+      <c r="G33" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="H33" s="73" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B34" s="3"/>
+      <c r="C34" s="33"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C35" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C33" s="25" t="s">
+      <c r="D35" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="E35" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="E33" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="G34" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="G36" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -8871,12 +8995,14 @@
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="D16:H16"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H27" location="获得途径子标题1" display="2、获得途径修改"/>
     <hyperlink ref="H26" location="技能tips规范详见文档《阵容选择界面》的“UI规则”切页" display="1、修改技能tips指引文档"/>
     <hyperlink ref="H28" location="该比例与稀有度关系固定_类似合成宝石的权重规则__记在config里即可_方便策划修改_。" display="3、万能碎片的稀有度对应比例描述修改"/>
     <hyperlink ref="H31" location="万能碎片最多只能替换X_的宠物碎片哟_”" display="修改万能碎片提示信息位置"/>
+    <hyperlink ref="H32" location="类别信息" display="将宠物类别内容移入文档（之前在宠物文档）"/>
+    <hyperlink ref="H33" location="宠物展示效果" display="修改合成宠物后的宠物展示效果"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8886,8 +9012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB85"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -8898,34 +9024,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:28" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="104"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="112"/>
+      <c r="AB1" s="112"/>
     </row>
     <row r="3" spans="3:28" x14ac:dyDescent="0.35">
       <c r="I3" s="12" t="s">
@@ -8966,12 +9092,12 @@
     <row r="25" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D25" s="2"/>
       <c r="E25" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="4:10" x14ac:dyDescent="0.35">
       <c r="E26" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J26" s="11"/>
     </row>
@@ -9020,7 +9146,7 @@
         <v>2</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
@@ -9030,10 +9156,10 @@
     </row>
     <row r="37" spans="1:15" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A37" s="38" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E37" s="89" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H37" s="40"/>
       <c r="I37" s="40"/>
@@ -9041,7 +9167,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="40" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>2</v>
@@ -9055,7 +9181,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="41" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>79</v>
@@ -9063,10 +9189,10 @@
     </row>
     <row r="40" spans="1:15" ht="66" x14ac:dyDescent="0.35">
       <c r="A40" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="F40" s="41" t="s">
         <v>304</v>
-      </c>
-      <c r="F40" s="41" t="s">
-        <v>305</v>
       </c>
       <c r="G40" s="40"/>
       <c r="H40" s="40"/>
@@ -9090,12 +9216,12 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E43" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="F44" s="89" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
@@ -9110,13 +9236,13 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="38" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
@@ -9126,7 +9252,7 @@
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="39"/>
       <c r="B48" s="34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>74</v>
@@ -9199,7 +9325,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H66" s="34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
@@ -9209,12 +9335,12 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G68" s="34" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="G69" s="34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
@@ -9237,7 +9363,7 @@
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="84"/>
       <c r="G73" s="41" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H73" s="40"/>
       <c r="I73" s="40"/>
@@ -9247,10 +9373,10 @@
       <c r="A74" s="84"/>
       <c r="G74" s="41"/>
       <c r="H74" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="I74" s="41" t="s">
         <v>361</v>
-      </c>
-      <c r="I74" s="41" t="s">
-        <v>362</v>
       </c>
       <c r="J74" s="40"/>
     </row>
@@ -9258,10 +9384,10 @@
       <c r="A75" s="84"/>
       <c r="G75" s="41"/>
       <c r="H75" s="41" t="s">
+        <v>362</v>
+      </c>
+      <c r="I75" s="41" t="s">
         <v>363</v>
-      </c>
-      <c r="I75" s="41" t="s">
-        <v>364</v>
       </c>
       <c r="J75" s="40"/>
     </row>
@@ -9269,7 +9395,7 @@
       <c r="A76" s="84"/>
       <c r="G76" s="41"/>
       <c r="H76" s="41" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I76" s="41"/>
       <c r="J76" s="40"/>
@@ -9278,7 +9404,7 @@
       <c r="A77" s="84"/>
       <c r="G77" s="41"/>
       <c r="H77" s="41" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I77" s="41"/>
       <c r="J77" s="40"/>
@@ -9292,12 +9418,12 @@
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="83"/>
       <c r="F79" s="34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F80" s="37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G80" s="20"/>
       <c r="H80" s="20"/>
@@ -9311,7 +9437,7 @@
   <mergeCells count="1">
     <mergeCell ref="C1:AB1"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="notContainsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(B1))&gt;0</formula>
@@ -9330,10 +9456,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB209"/>
+  <dimension ref="A1:AB221"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
+    <sheetView topLeftCell="B132" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H148" sqref="H148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -9344,34 +9470,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:28" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="112" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="104"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="112"/>
+      <c r="AB1" s="112"/>
     </row>
     <row r="3" spans="3:28" x14ac:dyDescent="0.35">
       <c r="H3" s="12" t="s">
@@ -9381,7 +9507,7 @@
         <v>109</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="3:28" x14ac:dyDescent="0.35">
@@ -9450,7 +9576,7 @@
     </row>
     <row r="30" spans="5:17" x14ac:dyDescent="0.35">
       <c r="G30" s="34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="5:17" x14ac:dyDescent="0.35">
@@ -9460,23 +9586,23 @@
     </row>
     <row r="32" spans="5:17" x14ac:dyDescent="0.35">
       <c r="F32" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H32" s="40"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="G33" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="G34" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>123</v>
@@ -9485,178 +9611,203 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="40" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" s="11"/>
       <c r="B37" s="40" t="s">
-        <v>307</v>
-      </c>
-      <c r="F37" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G37" s="96" t="s">
+        <v>433</v>
+      </c>
+      <c r="H37" s="96"/>
+      <c r="I37" s="96"/>
+      <c r="J37" s="96"/>
+      <c r="K37" s="94"/>
+      <c r="L37" s="94"/>
+      <c r="M37" s="94"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" s="11"/>
+      <c r="B38" s="34"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="I38" s="96"/>
+      <c r="J38" s="96"/>
+      <c r="K38" s="94"/>
+      <c r="L38" s="94"/>
+      <c r="M38" s="94"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" s="11"/>
+      <c r="B39" s="34"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="96"/>
+      <c r="I39" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="J39" s="96"/>
+      <c r="K39" s="94"/>
+      <c r="L39" s="94"/>
+      <c r="M39" s="95"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" s="11"/>
+      <c r="B40" s="34"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="96" t="s">
+        <v>436</v>
+      </c>
+      <c r="J40" s="96" t="s">
+        <v>437</v>
+      </c>
+      <c r="K40" s="94" t="s">
+        <v>417</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="M40" s="95"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" s="11"/>
+      <c r="B41" s="34"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="96">
+        <v>1</v>
+      </c>
+      <c r="J41" s="96" t="s">
+        <v>418</v>
+      </c>
+      <c r="K41" s="94" t="s">
+        <v>419</v>
+      </c>
+      <c r="L41" s="94" t="s">
+        <v>420</v>
+      </c>
+      <c r="M41" s="95"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" s="11"/>
+      <c r="B42" s="34"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="96">
+        <v>2</v>
+      </c>
+      <c r="J42" s="96" t="s">
+        <v>421</v>
+      </c>
+      <c r="K42" s="94" t="s">
+        <v>422</v>
+      </c>
+      <c r="L42" s="94" t="s">
+        <v>423</v>
+      </c>
+      <c r="M42" s="95"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" s="11"/>
+      <c r="B43" s="34"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96">
+        <v>3</v>
+      </c>
+      <c r="J43" s="96" t="s">
+        <v>424</v>
+      </c>
+      <c r="K43" s="94" t="s">
+        <v>425</v>
+      </c>
+      <c r="L43" s="94" t="s">
+        <v>426</v>
+      </c>
+      <c r="M43" s="95"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" s="11"/>
+      <c r="B44" s="34"/>
+      <c r="G44" s="96"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="96">
+        <v>4</v>
+      </c>
+      <c r="J44" s="96" t="s">
+        <v>427</v>
+      </c>
+      <c r="K44" s="94" t="s">
+        <v>428</v>
+      </c>
+      <c r="L44" s="94" t="s">
+        <v>429</v>
+      </c>
+      <c r="M44" s="95"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" s="11"/>
+      <c r="B45" s="34"/>
+      <c r="G45" s="96"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="96">
+        <v>5</v>
+      </c>
+      <c r="J45" s="96" t="s">
+        <v>430</v>
+      </c>
+      <c r="K45" s="94" t="s">
+        <v>431</v>
+      </c>
+      <c r="L45" s="94" t="s">
+        <v>432</v>
+      </c>
+      <c r="M45" s="95"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A46" s="11"/>
+      <c r="B46" s="34"/>
+      <c r="G46" s="94"/>
+      <c r="H46" s="94"/>
+      <c r="I46" s="94"/>
+      <c r="J46" s="94"/>
+      <c r="K46" s="94"/>
+      <c r="L46" s="94"/>
+      <c r="M46" s="95"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F47" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="G38" s="1" t="s">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G48" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="G39" s="1" t="s">
+    <row r="49" spans="6:17" x14ac:dyDescent="0.35">
+      <c r="G49" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="G40" s="41" t="s">
-        <v>356</v>
-      </c>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="G41" s="41"/>
-      <c r="H41" s="41" t="s">
-        <v>351</v>
-      </c>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="G42" s="41"/>
-      <c r="H42" s="41" t="s">
-        <v>354</v>
-      </c>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="40"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="G43" s="41"/>
-      <c r="H43" s="41" t="s">
-        <v>353</v>
-      </c>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="40"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="40"/>
-      <c r="N44" s="40"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="40"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="40"/>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="40"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="40"/>
-      <c r="N46" s="40"/>
-      <c r="O46" s="40"/>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="40"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="63" t="s">
-        <v>352</v>
-      </c>
-      <c r="K47" s="40"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="40"/>
-      <c r="P47" s="40"/>
-      <c r="Q47" s="40"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="40"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="40"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="40"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="40"/>
-      <c r="L49" s="40"/>
-      <c r="M49" s="40"/>
-      <c r="N49" s="40"/>
-      <c r="O49" s="40"/>
-      <c r="P49" s="40"/>
-      <c r="Q49" s="40"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
+    <row r="50" spans="6:17" x14ac:dyDescent="0.35">
+      <c r="G50" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="H50" s="40"/>
       <c r="I50" s="40"/>
       <c r="J50" s="40"/>
       <c r="K50" s="40"/>
@@ -9667,9 +9818,11 @@
       <c r="P50" s="40"/>
       <c r="Q50" s="40"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="6:17" x14ac:dyDescent="0.35">
       <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
+      <c r="H51" s="41" t="s">
+        <v>350</v>
+      </c>
       <c r="I51" s="40"/>
       <c r="J51" s="40"/>
       <c r="K51" s="40"/>
@@ -9680,10 +9833,10 @@
       <c r="P51" s="40"/>
       <c r="Q51" s="40"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="6:17" x14ac:dyDescent="0.35">
       <c r="G52" s="41"/>
       <c r="H52" s="41" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I52" s="40"/>
       <c r="J52" s="40"/>
@@ -9695,10 +9848,10 @@
       <c r="P52" s="40"/>
       <c r="Q52" s="40"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="6:17" x14ac:dyDescent="0.35">
       <c r="G53" s="41"/>
       <c r="H53" s="41" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="I53" s="40"/>
       <c r="J53" s="40"/>
@@ -9710,1050 +9863,1211 @@
       <c r="P53" s="40"/>
       <c r="Q53" s="40"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="F54" s="2" t="s">
+    <row r="54" spans="6:17" x14ac:dyDescent="0.35">
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="40"/>
+    </row>
+    <row r="55" spans="6:17" x14ac:dyDescent="0.35">
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="40"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="40"/>
+    </row>
+    <row r="56" spans="6:17" x14ac:dyDescent="0.35">
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="40"/>
+      <c r="O56" s="40"/>
+      <c r="P56" s="40"/>
+      <c r="Q56" s="40"/>
+    </row>
+    <row r="57" spans="6:17" x14ac:dyDescent="0.35">
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="63" t="s">
+        <v>351</v>
+      </c>
+      <c r="K57" s="40"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="40"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="40"/>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="40"/>
+    </row>
+    <row r="58" spans="6:17" x14ac:dyDescent="0.35">
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="40"/>
+      <c r="M58" s="40"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="40"/>
+      <c r="P58" s="40"/>
+      <c r="Q58" s="40"/>
+    </row>
+    <row r="59" spans="6:17" x14ac:dyDescent="0.35">
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+      <c r="M59" s="40"/>
+      <c r="N59" s="40"/>
+      <c r="O59" s="40"/>
+      <c r="P59" s="40"/>
+      <c r="Q59" s="40"/>
+    </row>
+    <row r="60" spans="6:17" x14ac:dyDescent="0.35">
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
+      <c r="O60" s="40"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="40"/>
+    </row>
+    <row r="61" spans="6:17" x14ac:dyDescent="0.35">
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="40"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="40"/>
+      <c r="N61" s="40"/>
+      <c r="O61" s="40"/>
+      <c r="P61" s="40"/>
+      <c r="Q61" s="40"/>
+    </row>
+    <row r="62" spans="6:17" x14ac:dyDescent="0.35">
+      <c r="G62" s="41"/>
+      <c r="H62" s="41" t="s">
+        <v>354</v>
+      </c>
+      <c r="I62" s="40"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="40"/>
+      <c r="L62" s="40"/>
+      <c r="M62" s="40"/>
+      <c r="N62" s="40"/>
+      <c r="O62" s="40"/>
+      <c r="P62" s="40"/>
+      <c r="Q62" s="40"/>
+    </row>
+    <row r="63" spans="6:17" x14ac:dyDescent="0.35">
+      <c r="G63" s="41"/>
+      <c r="H63" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="40"/>
+      <c r="L63" s="40"/>
+      <c r="M63" s="40"/>
+      <c r="N63" s="40"/>
+      <c r="O63" s="40"/>
+      <c r="P63" s="40"/>
+      <c r="Q63" s="40"/>
+    </row>
+    <row r="64" spans="6:17" x14ac:dyDescent="0.35">
+      <c r="F64" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="G55" s="1" t="s">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G65" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="G56" s="4" t="s">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G66" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H66" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I56" s="87" t="s">
-        <v>410</v>
-      </c>
-      <c r="J56" s="66"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="G57" s="1" t="s">
+      <c r="I66" s="87" t="s">
+        <v>409</v>
+      </c>
+      <c r="J66" s="66"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G67" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H67" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="H58" s="34" t="s">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H68" s="34" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H69" s="41" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="H59" s="41" t="s">
-        <v>348</v>
-      </c>
-      <c r="I59" s="40"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A60" s="38" t="s">
-        <v>292</v>
-      </c>
-      <c r="H60" s="1" t="s">
+      <c r="I69" s="40"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A70" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="H70" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A61" s="40" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="F62" s="2" t="s">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A71" s="40" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F72" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="I63" s="1" t="s">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I73" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="7:12" x14ac:dyDescent="0.35">
-      <c r="G66" s="1" t="s">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G76" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="H76" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="7:12" x14ac:dyDescent="0.35">
-      <c r="G68" s="2" t="s">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G78" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="7:12" x14ac:dyDescent="0.35">
-      <c r="H69" s="13" t="s">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H79" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="14"/>
-    </row>
-    <row r="70" spans="7:12" x14ac:dyDescent="0.35">
-      <c r="H70" s="13"/>
-      <c r="I70" s="14" t="s">
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="14"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H80" s="13"/>
+      <c r="I80" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="14"/>
-    </row>
-    <row r="71" spans="7:12" x14ac:dyDescent="0.35">
-      <c r="H71" s="13" t="s">
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="14"/>
+    </row>
+    <row r="81" spans="7:12" x14ac:dyDescent="0.35">
+      <c r="H81" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
-      <c r="L71" s="14"/>
-    </row>
-    <row r="72" spans="7:12" x14ac:dyDescent="0.35">
-      <c r="H72" s="13"/>
-      <c r="I72" s="1" t="s">
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="14"/>
+    </row>
+    <row r="82" spans="7:12" x14ac:dyDescent="0.35">
+      <c r="H82" s="13"/>
+      <c r="I82" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="14"/>
-    </row>
-    <row r="73" spans="7:12" x14ac:dyDescent="0.35">
-      <c r="H73" s="13" t="s">
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="14"/>
+    </row>
+    <row r="83" spans="7:12" x14ac:dyDescent="0.35">
+      <c r="H83" s="13" t="s">
         <v>146</v>
-      </c>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="14"/>
-    </row>
-    <row r="74" spans="7:12" x14ac:dyDescent="0.35">
-      <c r="H74" s="13"/>
-      <c r="I74" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="14"/>
-    </row>
-    <row r="75" spans="7:12" x14ac:dyDescent="0.35">
-      <c r="H75" s="13"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="K75" s="14"/>
-      <c r="L75" s="14"/>
-    </row>
-    <row r="76" spans="7:12" x14ac:dyDescent="0.35">
-      <c r="H76" s="13"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="14"/>
-      <c r="K76" s="14"/>
-      <c r="L76" s="14"/>
-    </row>
-    <row r="77" spans="7:12" x14ac:dyDescent="0.35">
-      <c r="I77" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="78" spans="7:12" x14ac:dyDescent="0.35">
-      <c r="I78" s="14"/>
-      <c r="J78" s="14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="79" spans="7:12" x14ac:dyDescent="0.35">
-      <c r="I79" s="14"/>
-    </row>
-    <row r="80" spans="7:12" x14ac:dyDescent="0.35">
-      <c r="H80" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14"/>
-    </row>
-    <row r="81" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="H81" s="13"/>
-      <c r="I81" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="J81" s="16"/>
-      <c r="K81" s="16"/>
-    </row>
-    <row r="82" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="H82" s="13"/>
-      <c r="I82" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="J82" s="16"/>
-      <c r="K82" s="16"/>
-    </row>
-    <row r="83" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="H83" s="13" t="s">
-        <v>151</v>
       </c>
       <c r="I83" s="14"/>
       <c r="J83" s="14"/>
-    </row>
-    <row r="84" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="K83" s="14"/>
+      <c r="L83" s="14"/>
+    </row>
+    <row r="84" spans="7:12" x14ac:dyDescent="0.35">
+      <c r="H84" s="13"/>
       <c r="I84" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="J84" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="85" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="I85" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="J85" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="86" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="G86" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="87" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="H87" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="I87" s="18"/>
-      <c r="J87" s="18"/>
-      <c r="K87" s="18"/>
-      <c r="L87" s="18"/>
-    </row>
-    <row r="88" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="G88" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="89" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="H89" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="90" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="F90" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="91" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="G91" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="14"/>
-    </row>
-    <row r="92" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="G92" s="13"/>
-      <c r="H92" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="I92" s="14"/>
-      <c r="J92" s="14"/>
-    </row>
-    <row r="93" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="G93" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="H93" s="14"/>
+        <v>156</v>
+      </c>
+      <c r="J84" s="14"/>
+      <c r="K84" s="14"/>
+      <c r="L84" s="14"/>
+    </row>
+    <row r="85" spans="7:12" x14ac:dyDescent="0.35">
+      <c r="H85" s="13"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K85" s="14"/>
+      <c r="L85" s="14"/>
+    </row>
+    <row r="86" spans="7:12" x14ac:dyDescent="0.35">
+      <c r="H86" s="13"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="14"/>
+    </row>
+    <row r="87" spans="7:12" x14ac:dyDescent="0.35">
+      <c r="I87" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="88" spans="7:12" x14ac:dyDescent="0.35">
+      <c r="I88" s="14"/>
+      <c r="J88" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="7:12" x14ac:dyDescent="0.35">
+      <c r="I89" s="14"/>
+    </row>
+    <row r="90" spans="7:12" x14ac:dyDescent="0.35">
+      <c r="H90" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="I90" s="14"/>
+      <c r="J90" s="14"/>
+    </row>
+    <row r="91" spans="7:12" x14ac:dyDescent="0.35">
+      <c r="H91" s="13"/>
+      <c r="I91" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="J91" s="16"/>
+      <c r="K91" s="16"/>
+    </row>
+    <row r="92" spans="7:12" x14ac:dyDescent="0.35">
+      <c r="H92" s="13"/>
+      <c r="I92" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="J92" s="16"/>
+      <c r="K92" s="16"/>
+    </row>
+    <row r="93" spans="7:12" x14ac:dyDescent="0.35">
+      <c r="H93" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="I93" s="14"/>
       <c r="J93" s="14"/>
     </row>
-    <row r="94" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="G94" s="13"/>
-      <c r="H94" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="I94" s="14"/>
-      <c r="J94" s="14"/>
-    </row>
-    <row r="95" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="G95" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="14"/>
-    </row>
-    <row r="96" spans="6:12" x14ac:dyDescent="0.35">
-      <c r="G96" s="13"/>
-      <c r="H96" s="34" t="s">
-        <v>333</v>
-      </c>
-      <c r="I96" s="14"/>
-      <c r="J96" s="14"/>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="G97" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="H97" s="14"/>
-      <c r="I97" s="14"/>
-      <c r="J97" s="14"/>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="G98" s="13"/>
-      <c r="H98" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I98" s="14"/>
-      <c r="J98" s="14"/>
-    </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="G99" s="13"/>
-      <c r="H99" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I99" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="J99" s="14"/>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A100" s="41" t="s">
-        <v>314</v>
-      </c>
-      <c r="G100" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="H100" s="14"/>
-      <c r="I100" s="14"/>
-      <c r="J100" s="14"/>
-    </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="G101" s="13"/>
-      <c r="H101" s="41" t="s">
-        <v>332</v>
-      </c>
-      <c r="I101" s="60"/>
-      <c r="J101" s="60"/>
-      <c r="K101" s="40"/>
-      <c r="L101" s="40"/>
-      <c r="M101" s="40"/>
-      <c r="N101" s="40"/>
-      <c r="O101" s="40"/>
-    </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A102" s="38" t="s">
-        <v>293</v>
-      </c>
+    <row r="94" spans="7:12" x14ac:dyDescent="0.35">
+      <c r="I94" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J94" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="95" spans="7:12" x14ac:dyDescent="0.35">
+      <c r="I95" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="J95" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="96" spans="7:12" x14ac:dyDescent="0.35">
+      <c r="G96" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="H97" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="I97" s="18"/>
+      <c r="J97" s="18"/>
+      <c r="K97" s="18"/>
+      <c r="L97" s="18"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="G98" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="H99" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="F100" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="G101" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
+      <c r="J101" s="14"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="G102" s="13"/>
-      <c r="H102" s="1" t="s">
-        <v>163</v>
+      <c r="H102" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="I102" s="14"/>
       <c r="J102" s="14"/>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="G103" s="13"/>
-      <c r="I103" s="14" t="s">
-        <v>165</v>
-      </c>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="G103" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14"/>
       <c r="J103" s="14"/>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="G104" s="13"/>
+      <c r="H104" s="14" t="s">
+        <v>138</v>
+      </c>
       <c r="I104" s="14"/>
-      <c r="J104" s="43" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A105" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="B105" s="34" t="s">
-        <v>280</v>
-      </c>
-      <c r="G105" s="13"/>
-      <c r="I105" s="61" t="s">
-        <v>311</v>
-      </c>
+      <c r="J104" s="14"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="G105" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14"/>
       <c r="J105" s="14"/>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A106" s="41" t="s">
-        <v>312</v>
-      </c>
-      <c r="B106" s="34" t="s">
-        <v>281</v>
-      </c>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="G106" s="13"/>
+      <c r="H106" s="34" t="s">
+        <v>332</v>
+      </c>
       <c r="I106" s="14"/>
-      <c r="J106" s="14" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A107" s="41" t="s">
-        <v>312</v>
-      </c>
-      <c r="B107" s="34" t="s">
-        <v>300</v>
-      </c>
-      <c r="G107" s="13"/>
+      <c r="J106" s="14"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="G107" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="H107" s="14"/>
       <c r="I107" s="14"/>
       <c r="J107" s="14"/>
-      <c r="K107" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="U107" s="20"/>
-      <c r="V107" s="20"/>
-      <c r="W107" s="20"/>
-    </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A108" s="41"/>
-      <c r="B108" s="34"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="G108" s="13"/>
+      <c r="H108" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="I108" s="14"/>
       <c r="J108" s="14"/>
-      <c r="K108" s="71" t="s">
-        <v>384</v>
-      </c>
-      <c r="L108" s="40"/>
-      <c r="M108" s="40"/>
-      <c r="N108" s="40"/>
-      <c r="O108" s="66"/>
-      <c r="P108" s="66"/>
-      <c r="Q108" s="66"/>
-      <c r="R108" s="66"/>
-      <c r="S108" s="11"/>
-      <c r="T108" s="11"/>
-      <c r="U108" s="11"/>
-      <c r="V108" s="11"/>
-      <c r="W108" s="11"/>
-    </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A109" s="41" t="s">
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="G109" s="13"/>
+      <c r="H109" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I109" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="J109" s="14"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A110" s="41" t="s">
         <v>313</v>
       </c>
-      <c r="B109" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="G109" s="13"/>
-      <c r="I109" s="14"/>
-      <c r="J109" s="14"/>
-      <c r="K109" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="U109" s="11"/>
-      <c r="V109" s="11"/>
-      <c r="W109" s="11"/>
-      <c r="X109" s="11"/>
-    </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A110" s="38" t="s">
-        <v>301</v>
-      </c>
-      <c r="G110" s="13"/>
+      <c r="G110" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H110" s="14"/>
       <c r="I110" s="14"/>
       <c r="J110" s="14"/>
-      <c r="K110" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="L110" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B111" s="34" t="s">
-        <v>283</v>
-      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="G111" s="13"/>
-      <c r="I111" s="14"/>
-      <c r="J111" s="14"/>
-      <c r="K111" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="L111" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A112" s="41" t="s">
-        <v>334</v>
+      <c r="H111" s="41" t="s">
+        <v>331</v>
+      </c>
+      <c r="I111" s="60"/>
+      <c r="J111" s="60"/>
+      <c r="K111" s="40"/>
+      <c r="L111" s="40"/>
+      <c r="M111" s="40"/>
+      <c r="N111" s="40"/>
+      <c r="O111" s="40"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A112" s="38" t="s">
+        <v>292</v>
       </c>
       <c r="G112" s="13"/>
+      <c r="H112" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="I112" s="14"/>
-      <c r="J112" s="43" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="J112" s="14"/>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.35">
       <c r="G113" s="13"/>
-      <c r="I113" s="14"/>
-      <c r="J113" s="43" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="I113" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="J113" s="14"/>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.35">
       <c r="G114" s="13"/>
       <c r="I114" s="14"/>
       <c r="J114" s="43" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A115" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="B115" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="G115" s="13"/>
+      <c r="I115" s="61" t="s">
+        <v>310</v>
+      </c>
+      <c r="J115" s="14"/>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A116" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="B116" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="G116" s="13"/>
+      <c r="I116" s="14"/>
+      <c r="J116" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A117" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="B117" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="G117" s="13"/>
+      <c r="I117" s="14"/>
+      <c r="J117" s="14"/>
+      <c r="K117" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="U117" s="20"/>
+      <c r="V117" s="20"/>
+      <c r="W117" s="20"/>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A118" s="41"/>
+      <c r="B118" s="34"/>
+      <c r="G118" s="13"/>
+      <c r="I118" s="14"/>
+      <c r="J118" s="14"/>
+      <c r="K118" s="71" t="s">
+        <v>383</v>
+      </c>
+      <c r="L118" s="40"/>
+      <c r="M118" s="40"/>
+      <c r="N118" s="40"/>
+      <c r="O118" s="66"/>
+      <c r="P118" s="66"/>
+      <c r="Q118" s="66"/>
+      <c r="R118" s="66"/>
+      <c r="S118" s="11"/>
+      <c r="T118" s="11"/>
+      <c r="U118" s="11"/>
+      <c r="V118" s="11"/>
+      <c r="W118" s="11"/>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A119" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="B119" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="G119" s="13"/>
+      <c r="I119" s="14"/>
+      <c r="J119" s="14"/>
+      <c r="K119" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="U119" s="11"/>
+      <c r="V119" s="11"/>
+      <c r="W119" s="11"/>
+      <c r="X119" s="11"/>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A120" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="G120" s="13"/>
+      <c r="I120" s="14"/>
+      <c r="J120" s="14"/>
+      <c r="K120" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B121" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="G121" s="13"/>
+      <c r="I121" s="14"/>
+      <c r="J121" s="14"/>
+      <c r="K121" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A122" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="G122" s="13"/>
+      <c r="I122" s="14"/>
+      <c r="J122" s="43" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="G123" s="13"/>
+      <c r="I123" s="14"/>
+      <c r="J123" s="43" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="G124" s="13"/>
+      <c r="I124" s="14"/>
+      <c r="J124" s="43" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="H125" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="N127" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="O127" s="22"/>
+      <c r="P127" s="22"/>
+      <c r="Q127" s="22"/>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="N128" s="22"/>
+      <c r="O128" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="P128" s="22"/>
+      <c r="Q128" s="22"/>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="N129" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="O129" s="18"/>
+      <c r="P129" s="15"/>
+      <c r="Q129" s="16"/>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="N130" s="16"/>
+      <c r="O130" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="P130" s="16"/>
+      <c r="R130" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="S130" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="O131" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="S131" s="18"/>
+      <c r="T131" s="15"/>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="O132" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="S132" s="18"/>
+      <c r="T132" s="15"/>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="O133" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="P133" s="92"/>
+      <c r="Q133" s="92"/>
+      <c r="R133" s="92"/>
+      <c r="T133" s="15"/>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="O134" s="93" t="s">
+        <v>314</v>
+      </c>
+      <c r="P134" s="92"/>
+      <c r="Q134" s="92"/>
+      <c r="R134" s="92"/>
+      <c r="T134" s="15"/>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="O135" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P135" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="T135" s="15"/>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A136" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="B136" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="O136" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A137" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="B137" s="34" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H146" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H147" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A148" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="H148" s="113" t="s">
+        <v>441</v>
+      </c>
+      <c r="I148" s="114"/>
+      <c r="J148" s="114"/>
+      <c r="K148" s="114"/>
+      <c r="L148" s="114"/>
+      <c r="M148" s="114"/>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H149" s="114"/>
+      <c r="I149" s="115" t="s">
+        <v>442</v>
+      </c>
+      <c r="J149" s="114"/>
+      <c r="K149" s="114"/>
+      <c r="L149" s="114"/>
+      <c r="M149" s="114"/>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H150" s="114"/>
+      <c r="I150" s="115" t="s">
+        <v>443</v>
+      </c>
+      <c r="J150" s="114"/>
+      <c r="K150" s="114"/>
+      <c r="L150" s="114"/>
+      <c r="M150" s="114"/>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A151" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G152" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="H152" s="14"/>
+      <c r="I152" s="14"/>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G153" s="13"/>
+      <c r="H153" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="I153" s="16"/>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G154" s="13"/>
+      <c r="H154" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="I154" s="16"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G155" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="H155" s="14"/>
+      <c r="I155" s="14"/>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H156" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="I156" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H157" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="I157" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F158" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A159" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A160" s="39"/>
+      <c r="G160" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="161" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B161" s="34" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="163" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="G163" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="166" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="H166" s="23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="167" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="I167" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="O167" s="40"/>
+    </row>
+    <row r="171" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="I171" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K171" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="172" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="J172" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K172" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="173" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="J173" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K173" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="174" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="J174" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K174" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="175" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="J175" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="K175" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="176" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="J176" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K176" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I177" s="41" t="s">
+        <v>337</v>
+      </c>
+      <c r="J177" s="40"/>
+      <c r="K177" s="40"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F178" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G179" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G180" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B181" s="34" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G183" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H187" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I188" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I189" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J189" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K189" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H190" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A191" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I192" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="193" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="I193" s="41" t="s">
+        <v>341</v>
+      </c>
+      <c r="J193" s="40"/>
+      <c r="K193" s="40"/>
+      <c r="L193" s="40"/>
+      <c r="M193" s="40"/>
+      <c r="N193" s="40"/>
+    </row>
+    <row r="194" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="I194" s="41"/>
+      <c r="J194" s="41" t="s">
+        <v>342</v>
+      </c>
+      <c r="K194" s="40"/>
+      <c r="L194" s="40"/>
+      <c r="M194" s="40"/>
+      <c r="N194" s="40"/>
+    </row>
+    <row r="195" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="I195" s="41"/>
+      <c r="J195" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="K195" s="40"/>
+      <c r="L195" s="40"/>
+      <c r="M195" s="40"/>
+      <c r="N195" s="40"/>
+    </row>
+    <row r="196" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="I196" s="34" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="197" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="I197" s="65" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="H115" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="N117" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="O117" s="22"/>
-      <c r="P117" s="22"/>
-      <c r="Q117" s="22"/>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="N118" s="22"/>
-      <c r="O118" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="P118" s="22"/>
-      <c r="Q118" s="22"/>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="N119" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="O119" s="18"/>
-      <c r="P119" s="15"/>
-      <c r="Q119" s="16"/>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="N120" s="16"/>
-      <c r="O120" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="P120" s="16"/>
-      <c r="R120" s="4" t="s">
+      <c r="J197" s="66"/>
+      <c r="K197" s="66"/>
+      <c r="L197" s="66"/>
+      <c r="M197" s="66"/>
+    </row>
+    <row r="198" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="F198" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="199" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="G199" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="200" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="G200" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="201" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="G201" s="64" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="203" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="G203" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="205" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="G205" s="64" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="208" spans="6:14" x14ac:dyDescent="0.35">
+      <c r="H208" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I209" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I210" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="S120" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="O121" s="41" t="s">
-        <v>335</v>
-      </c>
-      <c r="S121" s="18"/>
-      <c r="T121" s="15"/>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="O122" s="41" t="s">
-        <v>336</v>
-      </c>
-      <c r="S122" s="18"/>
-      <c r="T122" s="15"/>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="O123" s="106" t="s">
-        <v>415</v>
-      </c>
-      <c r="P123" s="107"/>
-      <c r="Q123" s="107"/>
-      <c r="R123" s="107"/>
-      <c r="T123" s="15"/>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="O124" s="108" t="s">
-        <v>315</v>
-      </c>
-      <c r="P124" s="107"/>
-      <c r="Q124" s="107"/>
-      <c r="R124" s="107"/>
-      <c r="T124" s="15"/>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="O125" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="P125" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="T125" s="15"/>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A126" s="38" t="s">
-        <v>302</v>
-      </c>
-      <c r="B126" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="O126" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A127" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="B127" s="34" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H136" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H137" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A138" s="38" t="s">
-        <v>296</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A139" s="41" t="s">
-        <v>346</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G140" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="H140" s="14"/>
-      <c r="I140" s="14"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G141" s="13"/>
-      <c r="H141" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="I141" s="16"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G142" s="13"/>
-      <c r="H142" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="I142" s="16"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G143" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="H143" s="14"/>
-      <c r="I143" s="14"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H144" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="I144" s="14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="H145" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="I145" s="17" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="F146" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A147" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A148" s="39"/>
-      <c r="G148" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B149" s="34" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="G151" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="H154" s="23" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I155" s="34" t="s">
+      <c r="J210" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K210" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H211" s="68" t="s">
+        <v>375</v>
+      </c>
+      <c r="I211" s="69"/>
+      <c r="J211" s="66"/>
+      <c r="K211" s="66"/>
+      <c r="L211" s="66"/>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H212" s="66"/>
+      <c r="I212" s="70" t="s">
+        <v>377</v>
+      </c>
+      <c r="J212" s="66"/>
+      <c r="K212" s="66"/>
+      <c r="L212" s="66"/>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H213" s="66"/>
+      <c r="I213" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="J213" s="85" t="s">
+        <v>378</v>
+      </c>
+      <c r="K213" s="85" t="s">
+        <v>406</v>
+      </c>
+      <c r="L213" s="66"/>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H214" s="68" t="s">
+        <v>379</v>
+      </c>
+      <c r="I214" s="69"/>
+      <c r="J214" s="66"/>
+      <c r="K214" s="66"/>
+      <c r="L214" s="66"/>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H215" s="66"/>
+      <c r="I215" s="70" t="s">
+        <v>380</v>
+      </c>
+      <c r="J215" s="66"/>
+      <c r="K215" s="66"/>
+      <c r="L215" s="66"/>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H216" s="66"/>
+      <c r="I216" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="J216" s="85" t="s">
+        <v>381</v>
+      </c>
+      <c r="K216" s="85" t="s">
+        <v>407</v>
+      </c>
+      <c r="L216" s="66"/>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F217" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="H217" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B218" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A219" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="B219" s="41" t="s">
+        <v>340</v>
+      </c>
+      <c r="I219" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A220" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="O155" s="40"/>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I159" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="J159" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="K159" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="J160" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="K160" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="161" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="J161" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="K161" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="162" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="J162" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="K162" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="163" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="J163" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K163" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="164" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="J164" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="K164" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="165" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="I165" s="41" t="s">
-        <v>338</v>
-      </c>
-      <c r="J165" s="40"/>
-      <c r="K165" s="40"/>
-    </row>
-    <row r="166" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="F166" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="167" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="G167" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="168" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="G168" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="169" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B169" s="34" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="171" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="G171" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="175" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="H175" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="176" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="I176" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I177" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="J177" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="K177" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="H178" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A179" s="38" t="s">
-        <v>298</v>
-      </c>
-      <c r="I179" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I180" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I181" s="41" t="s">
-        <v>342</v>
-      </c>
-      <c r="J181" s="40"/>
-      <c r="K181" s="40"/>
-      <c r="L181" s="40"/>
-      <c r="M181" s="40"/>
-      <c r="N181" s="40"/>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I182" s="41"/>
-      <c r="J182" s="41" t="s">
-        <v>343</v>
-      </c>
-      <c r="K182" s="40"/>
-      <c r="L182" s="40"/>
-      <c r="M182" s="40"/>
-      <c r="N182" s="40"/>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I183" s="41"/>
-      <c r="J183" s="41" t="s">
-        <v>344</v>
-      </c>
-      <c r="K183" s="40"/>
-      <c r="L183" s="40"/>
-      <c r="M183" s="40"/>
-      <c r="N183" s="40"/>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I184" s="34" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I185" s="65" t="s">
-        <v>372</v>
-      </c>
-      <c r="J185" s="66"/>
-      <c r="K185" s="66"/>
-      <c r="L185" s="66"/>
-      <c r="M185" s="66"/>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="F186" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G187" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G188" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G189" s="64" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G191" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="G193" s="64" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="H196" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="I197" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="I198" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="J198" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="K198" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="H199" s="68" t="s">
-        <v>376</v>
-      </c>
-      <c r="I199" s="69"/>
-      <c r="J199" s="66"/>
-      <c r="K199" s="66"/>
-      <c r="L199" s="66"/>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="H200" s="66"/>
-      <c r="I200" s="70" t="s">
-        <v>378</v>
-      </c>
-      <c r="J200" s="66"/>
-      <c r="K200" s="66"/>
-      <c r="L200" s="66"/>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="H201" s="66"/>
-      <c r="I201" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="J201" s="85" t="s">
-        <v>379</v>
-      </c>
-      <c r="K201" s="85" t="s">
-        <v>407</v>
-      </c>
-      <c r="L201" s="66"/>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="H202" s="68" t="s">
-        <v>380</v>
-      </c>
-      <c r="I202" s="69"/>
-      <c r="J202" s="66"/>
-      <c r="K202" s="66"/>
-      <c r="L202" s="66"/>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="H203" s="66"/>
-      <c r="I203" s="70" t="s">
-        <v>381</v>
-      </c>
-      <c r="J203" s="66"/>
-      <c r="K203" s="66"/>
-      <c r="L203" s="66"/>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="H204" s="66"/>
-      <c r="I204" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="J204" s="85" t="s">
-        <v>382</v>
-      </c>
-      <c r="K204" s="85" t="s">
-        <v>408</v>
-      </c>
-      <c r="L204" s="66"/>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="F205" s="36" t="s">
-        <v>357</v>
-      </c>
-      <c r="H205" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B206" s="34" t="s">
-        <v>288</v>
-      </c>
-      <c r="I206" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A207" s="38" t="s">
-        <v>299</v>
-      </c>
-      <c r="B207" s="41" t="s">
-        <v>341</v>
-      </c>
-      <c r="I207" s="1" t="s">
+      <c r="I220" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A208" s="41" t="s">
-        <v>340</v>
-      </c>
-      <c r="I208" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="209" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I209" s="88" t="s">
-        <v>411</v>
-      </c>
-      <c r="J209" s="40"/>
-      <c r="K209" s="40"/>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I221" s="88" t="s">
+        <v>410</v>
+      </c>
+      <c r="J221" s="40"/>
+      <c r="K221" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:AB1"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B36 B208:B1048576 B38:B206">
+  <phoneticPr fontId="12" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B36 B220:B1048576 B38:B46 B48:B218">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A35 A37:A60 A101:A105 A110:A111 A140:A147 A209:A1048576 A149:A207 A113:A138 A62:A99">
+  <conditionalFormatting sqref="A1:A35 A47:A70 A111:A115 A120:A121 A152:A159 A221:A1048576 A161:A219 A123:A150 A72:A109">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="J81" location="若右侧列表存在该道具条目_则直接堆叠数量加1" display="进入列表的处理快速通道"/>
+    <hyperlink ref="J91" location="若右侧列表存在该道具条目_则直接堆叠数量加1" display="进入列表的处理快速通道"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10790,7 +11104,7 @@
       <c r="D1" s="44"/>
       <c r="E1" s="44"/>
       <c r="F1" s="45" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G1" s="46"/>
       <c r="H1" s="46"/>
@@ -10800,51 +11114,51 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="47" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" s="48" t="s">
         <v>317</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="C2" s="49" t="s">
         <v>318</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="D2" s="49" t="s">
         <v>319</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="E2" s="49" t="s">
         <v>320</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="F2" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="G2" s="50" t="s">
         <v>322</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="H2" s="50" t="s">
         <v>323</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="I2" s="50" t="s">
         <v>324</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="J2" s="50" t="s">
         <v>325</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="K2" s="50" t="s">
         <v>326</v>
-      </c>
-      <c r="K2" s="50" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="72" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B3" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>327</v>
+      </c>
+      <c r="D3" s="72" t="s">
         <v>330</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>328</v>
-      </c>
-      <c r="D3" s="72" t="s">
-        <v>331</v>
       </c>
       <c r="E3" s="52"/>
       <c r="F3" s="53"/>
@@ -10993,7 +11307,7 @@
       <c r="B21" s="59"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11013,7 +11327,7 @@
   <sheetData>
     <row r="3" spans="12:14" x14ac:dyDescent="0.35">
       <c r="L3" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="12:14" x14ac:dyDescent="0.35">
@@ -11031,7 +11345,7 @@
     <row r="6" spans="12:14" x14ac:dyDescent="0.35">
       <c r="M6" s="13"/>
       <c r="N6" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.35">
@@ -11145,7 +11459,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" s="36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -11172,7 +11486,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -11263,7 +11577,7 @@
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P28" s="18"/>
       <c r="Q28" s="18"/>
@@ -11614,7 +11928,7 @@
         <v>109</v>
       </c>
       <c r="F48" s="34" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -12625,7 +12939,7 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
       <c r="P84" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q84" s="18"/>
       <c r="R84" s="18"/>
@@ -12756,7 +13070,7 @@
     <row r="90" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N90" s="1"/>
       <c r="O90" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P90" s="6"/>
       <c r="Q90" s="35"/>
@@ -12867,7 +13181,7 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
       <c r="P95" s="34" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
@@ -12988,7 +13302,7 @@
       <c r="U100" s="1"/>
       <c r="V100" s="1"/>
       <c r="W100" s="39" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
@@ -13010,7 +13324,7 @@
       <c r="U101" s="1"/>
       <c r="V101" s="1"/>
       <c r="W101" s="39" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
@@ -13247,7 +13561,7 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
       <c r="P113" s="34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
@@ -13313,7 +13627,7 @@
       <c r="N116" s="1"/>
       <c r="O116" s="13"/>
       <c r="P116" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q116" s="16"/>
       <c r="R116" s="1"/>
@@ -13335,7 +13649,7 @@
       <c r="N117" s="1"/>
       <c r="O117" s="13"/>
       <c r="P117" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q117" s="16"/>
       <c r="R117" s="1"/>
@@ -13378,7 +13692,7 @@
     <row r="119" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N119" s="1"/>
       <c r="O119" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
@@ -13400,7 +13714,7 @@
     <row r="120" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N120" s="1"/>
       <c r="O120" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
@@ -13462,7 +13776,7 @@
     <row r="123" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N123" s="1"/>
       <c r="O123" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
@@ -13525,7 +13839,7 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
       <c r="P126" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
@@ -13548,7 +13862,7 @@
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
       <c r="Q127" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R127" s="1"/>
       <c r="S127" s="1"/>
@@ -13670,7 +13984,7 @@
     <row r="133" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N133" s="1"/>
       <c r="O133" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
@@ -13692,7 +14006,7 @@
     <row r="134" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N134" s="1"/>
       <c r="O134" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
@@ -13754,7 +14068,7 @@
     <row r="137" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N137" s="1"/>
       <c r="O137" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
@@ -13837,7 +14151,7 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
       <c r="P141" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
@@ -13860,7 +14174,7 @@
       <c r="O142" s="1"/>
       <c r="P142" s="1"/>
       <c r="Q142" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R142" s="1"/>
       <c r="S142" s="1"/>
@@ -13881,7 +14195,7 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
       <c r="P143" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
@@ -13904,7 +14218,7 @@
       <c r="O144" s="1"/>
       <c r="P144" s="1"/>
       <c r="Q144" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R144" s="1"/>
       <c r="S144" s="1"/>
@@ -13926,7 +14240,7 @@
       <c r="O145" s="1"/>
       <c r="P145" s="1"/>
       <c r="Q145" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R145" s="1"/>
       <c r="S145" s="1"/>
@@ -13968,7 +14282,7 @@
     <row r="147" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N147" s="1"/>
       <c r="O147" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P147" s="1"/>
       <c r="Q147" s="1"/>
@@ -13990,7 +14304,7 @@
     <row r="148" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N148" s="1"/>
       <c r="O148" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
@@ -14012,7 +14326,7 @@
     <row r="149" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N149" s="1"/>
       <c r="O149" s="64" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
@@ -14054,7 +14368,7 @@
     <row r="151" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N151" s="1"/>
       <c r="O151" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
@@ -14096,7 +14410,7 @@
     <row r="153" spans="14:31" x14ac:dyDescent="0.35">
       <c r="N153" s="1"/>
       <c r="O153" s="64" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
@@ -14159,7 +14473,7 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
       <c r="P156" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q156" s="1"/>
       <c r="R156" s="1"/>
@@ -14182,7 +14496,7 @@
       <c r="O157" s="1"/>
       <c r="P157" s="1"/>
       <c r="Q157" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R157" s="1"/>
       <c r="S157" s="1"/>
@@ -14203,7 +14517,7 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
       <c r="P158" s="74" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Q158" s="75"/>
       <c r="R158" s="11"/>
@@ -14225,7 +14539,7 @@
       <c r="O159" s="1"/>
       <c r="P159" s="11"/>
       <c r="Q159" s="18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="R159" s="11"/>
       <c r="S159" s="11"/>
@@ -14238,7 +14552,7 @@
     <row r="160" spans="14:31" x14ac:dyDescent="0.35">
       <c r="O160" s="1"/>
       <c r="P160" s="74" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q160" s="75"/>
       <c r="R160" s="11"/>
@@ -14253,7 +14567,7 @@
       <c r="O161" s="1"/>
       <c r="P161" s="11"/>
       <c r="Q161" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="R161" s="11"/>
       <c r="S161" s="11"/>
@@ -14266,7 +14580,7 @@
     <row r="162" spans="15:24" x14ac:dyDescent="0.35">
       <c r="O162" s="1"/>
       <c r="P162" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q162" s="1"/>
       <c r="R162" s="1"/>
@@ -14281,7 +14595,7 @@
       <c r="O163" s="1"/>
       <c r="P163" s="1"/>
       <c r="Q163" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R163" s="1"/>
       <c r="S163" s="1"/>
@@ -14295,7 +14609,7 @@
       <c r="O164" s="1"/>
       <c r="P164" s="1"/>
       <c r="Q164" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R164" s="1"/>
       <c r="S164" s="1"/>
@@ -14309,7 +14623,7 @@
       <c r="O165" s="1"/>
       <c r="P165" s="1"/>
       <c r="Q165" s="39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R165" s="11"/>
       <c r="S165" s="11"/>
@@ -14320,7 +14634,7 @@
       <c r="X165" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="R81" location="若右侧列表存在该道具条目_则直接堆叠数量加1" display="进入列表的处理快速通道"/>
   </hyperlinks>
@@ -14353,35 +14667,35 @@
     </row>
     <row r="2" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B2" s="79" t="s">
+        <v>388</v>
+      </c>
+      <c r="C2" s="79" t="s">
         <v>389</v>
-      </c>
-      <c r="C2" s="79" t="s">
-        <v>390</v>
       </c>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
       <c r="H2" s="80" t="s">
+        <v>390</v>
+      </c>
+      <c r="L2" s="80" t="s">
         <v>391</v>
       </c>
-      <c r="L2" s="80" t="s">
+      <c r="M2" s="80" t="s">
         <v>392</v>
       </c>
-      <c r="M2" s="80" t="s">
-        <v>393</v>
-      </c>
       <c r="N2" s="80" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O2" s="81"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B3" s="82" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -14389,13 +14703,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H5" s="78">
         <v>1</v>
       </c>
       <c r="M5" s="78" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N5" s="78">
         <v>1</v>
@@ -14406,7 +14720,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H6" s="78">
         <v>1</v>
@@ -14414,7 +14728,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -14422,7 +14736,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H8" s="78">
         <v>1.5</v>
@@ -14433,7 +14747,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H9" s="78">
         <v>1</v>
@@ -14444,7 +14758,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H10" s="78">
         <v>2</v>
@@ -14455,7 +14769,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="78" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H11" s="78">
         <v>0.5</v>
@@ -14466,7 +14780,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="78" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H12" s="78">
         <v>1</v>
@@ -14474,19 +14788,19 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C15" s="78" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H15" s="78">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14953,7 +15267,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/gd/宠物系统/宠物图鉴设计.xlsx
+++ b/gd/宠物系统/宠物图鉴设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="4" r:id="rId1"/>
@@ -36,595 +36,595 @@
     <definedName name="万能碎片最多只能替换X_的宠物碎片哟_”" localSheetId="2">宠物合成界面!$O$145</definedName>
     <definedName name="万能碎片最多只能替换X_的宠物碎片哟_”">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="576">
   <si>
     <t>进入</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>标题</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>多语言ID</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>详见文档《宠物界面》的“玩家拥有宠物界面”切页</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>图鉴</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴评审</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴的页签建议和宠物列表保持统一，要是用图都用图，要是用文字都用问题。没有“全部”？</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>解决方案</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>合成出来都是白色宠物么？碎片数量区别用途是？都是白色的话图鉴有点没吸引力</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴界面彩色和灰色头像区别是什么？灰色看起来像不能点击</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴排序规则是？</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>收集宠物的数量是代表种类是么？</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>有万能碎片的话优先用万能碎片么？先消耗宠物碎片比较合适吧</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>获得途径是点了能直接去打副本么？</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>图鉴中缺少宠物属性内容，建议增加</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片设计目的不明，非常必要么？</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物技能要有tips么？</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>整体布局与宠物列表相似，且从宠物列表作为入口，但是分页签与宠物列表使用了相同含义不同表现的分页，感觉不好。</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>图鉴中宠物是否有天生三星之类的，是否需要显示其天生的品质</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物稀有度属性还要么，其他地方没有显示，图鉴里要不要显示</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>挺好 但是如果能从这里看出 那些怪比较稀有就好了</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>不错，那个android的图标是什么？</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>属性图标看起来比较单薄，也和其他界面不统一</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>缺少稀有度等简要信息。</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>灰色建议加锁等更明确的提示。</t>
   </si>
   <si>
     <t>目前的养成会使得宠物碎片出现过剩的情况,通过到的宠物碎片再次回收为万能碎片来使其他宠物升级,目前数值汇率暂定为4换1,参考影之刃招式万能碎片的定位</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>要有的，和宠物的技能界面的技能图标逻辑一致</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>召唤出来都是最低品质的，没有天生厉害的</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>一个临时的万能宠物碎片图标</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>图鉴中是否有必要 包含 “碎片”信息？</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>收集宠物代表的是我已经合成了多少个宠物？还是已经点亮了多少个图鉴？</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片给个tips告诉玩家如何获得么？</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>是否按照碎片的多少排列下？方便合成？不确定合不合适=，=</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>点完就合成了么？还有合成的界面么？</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>点击图鉴能看到宠物信息么或者tips</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>感觉应该优先消耗宠物碎片而不是万能碎片</t>
   </si>
   <si>
     <t>结算得到宠物和召唤，当年说统一效果，现在是否已经废弃了这个设计</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>召唤和宠物图鉴放在一起，个人感觉是个不好的设计，这样除了掉落，得到宠物只能是通过碎片召唤了，</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>是不准备做抽取宠物这种东西吗 还是说 抽取宠物再出一种得到宠物的表现</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>没有“全部”。</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>页签大家反映比较多，改为和宠物列表一致的。</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>合成出来的都是白色宠物</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>碎片数量肯定是越稀有的宠物需要的碎片比较多（这一点演示有点问题，做的时候忘记改那个数量了，其实也是从少到多的）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>彩色代表玩家拥有过该宠物，灰着代表玩家从未拥有过该宠物</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>按照宠物稀有度由低到高排序的，排列位置固定</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片与宠物碎片之间首先在合成操作上，没有一定的优先消耗谁的规则，宠物碎片足够时，是否消耗万能碎片是玩家自己点选的。</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>但是一旦选择使用万能碎片，是由一定规则的：</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>1）最大只能替换一定比例的宠物碎片，若玩家拥有的万能碎片足够支付某宠物可替换比例的最大值，则选择了万能碎片后，一定消耗最大值；</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>2）若玩家拥有的万能碎片不足够支付某宠物可替换比例的最大值，则选择了万能碎片后，消耗掉玩家拥有的所有量。</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>点了指引到副本入口（获得途径的指引逻辑与道具tips一致）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>因为宠物合成是放在图鉴这边的，增加碎片信息时为了使玩家在图鉴界面就能一目了然的看到哪个宠物能合成，哪个宠物不能合成</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>否则需要点击图鉴中的宠物头像进入合成界面才能看到这个信息，比较麻烦</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>是种类，也就是点亮了多少个图鉴</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片算是一个道具，符合道具通用逻辑，所以tips是会告诉如何获得的</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>已确认，没有问题</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>已确认，没有问题</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>是统一效果，区别只在于这个位置不像副本有背景，所以这个位置需要美术给个背景（就是副本外的得到宠物的展示都统一用这个背景）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>不是除了掉落得到宠物只能通过碎片召唤，这里只是利用宠物碎片合成宠物这种途径的操作界面。</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>不影响抽取宠物的功能（也就是说抽蛋那些玩意一样能抽宠物），获得宠物的展现形式一致即可（如问题19所回答的那样）。</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>其他效果与结算都是一样的（恭喜的文字信息、宠物跑过来先播出场然后待机、下面的确定按钮）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>看了一部分游戏（看了魔灵、dota、小红帽、十冷、天下，当然他们之间有可重复召唤或者只能有一个的区别）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>在宠物图鉴这块都是用置灰来代表未拥有过该宠物或者该宠物不可召唤，且他们置灰时都是响应点击的，所以灰色在这里能点击感觉还算可以接受。</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>加锁这个处理方法是首先我们的游戏可以给宠物加锁（这个宠物就不能当做材料、分解等），所以这里不建议用加锁，容易误解。</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>首先稀有度这个玩意是完全不影响属性的，他只是代表这个怪物好获得还是不好获得，</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>所以图鉴这个位置在排序时是打算按照稀有度由低到高排，在界面上直接显示给玩家的就是合成需要的碎片由少到多的。</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>不打算再多让玩家多学习一个“稀有度”的概念，增加学习成本，用处还不大（主要理由就是稀有度并不影响属性）。</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>图鉴从头像上能区分好坏么？</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>头像不能区分好坏，只能区分稀有度。</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>采纳，增加宠物基础属性内容（右侧可以滑动查看更多）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴UI</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>标题</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>关闭按钮</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>收集宠物进度</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片数量</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>切页标签</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物列表</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>显示“收集宠物  玩家已拥有宠物种类数量/当前页签属性下的宠物种类数量总数”</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>收集宠物</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>handbook_shouji</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>玩家已拥有宠物种类数量</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>玩家当前是否仍拥有该宠物不影响（即玩家拥有后将宠物分解了、当做材料喂了等等情况）。</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>这里计数只包含当前页签下的玩家拥有或者拥有过的宠物种类数量。</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片数量</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>同“玩家拥有宠物界面”</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>单个样式</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物头像</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物碎片信息</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物头像</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>显示宠物头像</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>显示“玩家当前拥有的该宠物碎片数量/该宠物合成需要的碎片数量“</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>整体在宠物头像下方居中显示</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>列表排列规则</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>图鉴目前其实是按照宠物稀有度由低到高排序的，排列位置固定</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>需要有正常显示状态和暗色显示状态</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>正常显示状态</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>代表玩家已经拥有或者拥有过该宠物</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>暗色显示状态</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>代表玩家从未拥有过该宠物</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>获得后回到该界面立即刷新宠物头像状态</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>特殊规则</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>默认显示</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>打开界面时，默认显示第一个切页，且下方列表显示最上</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>若玩家关闭该图鉴界面，重新打开，则回到界面默认显示；</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>若玩家通过宠物头像打开宠物合成界面，则从宠物合成界面回到该界面时，该界面的切页选择与列表位置保持在进入宠物合成界面之前的显示状态（宠物头像根据玩家在宠物合成界面的操作进行刷新显示）。</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>返回按钮</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物名称</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物3D形象</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片信息</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>提示信息</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>召唤按钮</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>基础属性区域</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>技能区域</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>获得途径区域</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物属性图标、宠物名称</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>同”宠物详情界面“</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>详见文档《宠物界面》的“宠物详情界面”切页</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>区别</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>1）由于图鉴位置宠物均为白色品质，因此这个位置的宠物名称均显示为白色</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>2）这个位置不会有宠物+n的显示需求</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>显示   碎片</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>显示  “万能碎片图标  玩家拥有的万能碎片数量”</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>万能宠物碎片图标</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>玩家拥有的万能宠物碎片数量</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>显示位置</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>按钮文案</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>多语言ID</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>按钮操作</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>出现/隐藏规则</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>控件操作</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>——》</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>按钮样式</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>普通</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>选中</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>单选控件普通状态时，点击后变为选中状态</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>单选控件</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>单选控件选中状态时，点击后变为普通状态</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>显示玩家拥有量</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>召唤</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>若玩家拥有的万能碎片不足够支付某宠物可替换比例的最大值，则选择了万能碎片后，消耗掉玩家拥有的所有量。</t>
   </si>
   <si>
     <t>屏幕中央</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>handbook_tips1</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>按下</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>不可用</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>显示宠物基础属性</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>基础属性标题</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>pet_detail_stage_attr</t>
   </si>
   <si>
     <t>基础属性数值</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>基础属性</t>
@@ -661,380 +661,380 @@
   </si>
   <si>
     <t>显示宠物拥有的技能</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>技能图标列表</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>基础属性标题、基础属性数值</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>文字效果与“装备属性界面”相同即可，基础属性数值此处排版如图所示</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>显示出该宠物拥有的所有技能icon</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>优先排从左至右排列</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>显示可以获得该宠物碎片的途径介绍</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>获得途径标题</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>具体获得途径</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>文档名称</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>文档目的</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>目标读者</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>所有</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>文档路径</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>文档状态</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>详细信息</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>编写中</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>待审核(策划)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>修改中（策划）</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>待审核(QC)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>修改中(QC)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>待3方</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>已定案</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>文档历史</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>发布日期</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>知会同事</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>标记颜色</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>创建人</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>修订人</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.1</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>有关会议</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>会议日期</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>参与同事</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>基本概要</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴相关逻辑说明</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>“图鉴”按钮</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>这个位置的万能碎片图标需要缩小版的icon图标</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>当玩家获得该宠物时（无论以何种方式获得，不限于此界面获得），该宠物的头像由暗色显示变为正常显示</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物头像无论在哪种状态下，均响应玩家点击，点击弹出对应宠物的宠物合成界面。</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物合成界面见“宠物合成界面”切页</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>各个宠物的排列位置固定（按照宠物稀有度由低到高排序，表现上为合成需要的碎片数量由少到多）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>具体位置待版本内怪物都设计好后定</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>这个位置的万能碎片图标需要缩小版的icon图标，且该icon图标响应点击</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>svn://10.21.2.47/gd/宠物系统/宠物图鉴设计.xlsx</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴设计</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>碎片数量有上限么</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>太小了手机上不好点吧</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>为啥不使用全属性宠物总数，单属性感觉上每个页签是相互独立的，另外，是否考虑过加个全部页签，和宠物列表统一起来</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>都是数字,缩放啥………………</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>不加“全部”了，主要考虑是宠物图鉴这如果有分页签，一般就没有看全部的需求了</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>歧义，拥有某只宠物，在失去，在拥有，应该数量只+1，改成玩家拥有该页签下的任意一只宠物时，此位置数量加1，之后玩家多次失去或者获得该宠物，此处数量不会随之改变如何</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>是指玩家拥有任一页签下的任意一只宠物时，此位置数量加1，之后玩家多次失去或者获得该宠物，此处数量不会随之改变。</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>这个位置的万能碎片图标需要缩小版的icon图标（尽量大点），且该icon图标响应点击，弹出万能碎片的tips（tips符合通用规范）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>这的位置可扩展的地界太小，怕多语言时候放不下</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>提示方式</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>触发条件</t>
   </si>
   <si>
     <t>提示范围</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>文字内容</t>
   </si>
   <si>
     <t>对应英文</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>世界频道</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>公会频道</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>走马灯</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>系统提示（非警示）</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>系统提示（警示）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>系统公告</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>玩家自己</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>handbook_btn</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>玩家不满足合成宠物条件时点击召唤按钮</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>碎片不足</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮，弹出二级确认框</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>回归测试反馈</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>三方后回归问题</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>1、修改技能tips指引文档</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>2、获得途径修改</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>3、万能碎片的稀有度对应比例描述修改</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>4、删除不需要的缩放需求</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>handbook_record_001</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>类别</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>对应工时（单位d）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>策划验收+配置任务</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>对应程序任务</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>程序</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物3D形象(重新封装一下，添加功能)</t>
   </si>
   <si>
     <t>宠物合成界面UI(需要修改技能tip通用，途径只包含界面部分)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>召唤获取宠物界面(视需要添加的情况)</t>
@@ -1044,46 +1044,46 @@
   </si>
   <si>
     <t>宠物合成</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>图鉴功能修改</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>图鉴、合成界面</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>1,2,3,4,5,6</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">客户端宠物图鉴UI </t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>添加任务拆分切页</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>显示“收集宠物  玩家已拥有宠物种类数量/所有页签的宠物种类数量总数”</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>所有页签的宠物种类数量总数</t>
   </si>
   <si>
     <t>是所有页签下显示的宠物种类总数</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>修改万能碎片提示信息位置</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>英文对应</t>
@@ -1135,90 +1135,90 @@
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>将宠物类别内容移入文档（之前在宠物文档）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>回归宠物、宠物碎片获取途径规则</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>显示不下时，可以通过下滑查看更多（是指整个右侧界面可滑动）</t>
   </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>本次验收内容</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>具体内容</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>验收结果</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>切页标签</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>图鉴界面</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>默认显示+特殊规则</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>收集宠物进度</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片数量</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>点击万能碎片图标没有弹出tips</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物列表</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物名称</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>显示宠物名称</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1244,7 +1244,7 @@
       </rPr>
       <t>表</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>fragmentId</t>
@@ -1254,51 +1254,51 @@
   </si>
   <si>
     <t>填写合成的宠物需要的碎片id</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>填写道具item表的id</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>合成需要的碎片</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>合成需要的碎片数量</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>填写数字</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>单个样式</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>单个样式的状态</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>列表排序规则</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>待版本内怪物都设计好后定具体顺序</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物合成界面</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>进入</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>应该为白色品质宠物，现在客户端均为绿色品质</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物属性图标、宠物名称、类别信息</t>
@@ -1308,46 +1308,46 @@
   </si>
   <si>
     <t>旋转</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物碎片信息</t>
   </si>
   <si>
     <t>关闭界面后重新打开界面，宠物旋转角度没有恢复默认，还保留了之前操作的旋转角度（期望关闭重新进来后恢复默认）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片图标相应点击未弹出道具tips，而是进行了选中万能碎片操作</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>召唤按钮</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>材料不足</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>自身碎片召唤</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>自身碎片+万能碎片召唤</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>召唤后的效果展示</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物被不明物体遮挡</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>伴随特效缺失，待美术资源到位添加</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
@@ -1366,139 +1366,139 @@
   </si>
   <si>
     <t>宠物合成界面</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>基础属性区域</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物属性图标</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物名称</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>类别信息</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>返回按钮</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>技能区域</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物3D形象</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物碎片信息</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>获得途径区域</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片信息</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>召唤按钮</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>进入</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>通过点击宠物图鉴界面的宠物头像进入</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮，返回到宠物图鉴界面</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>样式同”宠物详情界面“</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>详见文档《宠物界面》的“宠物详情界面”切页</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物属性图标、宠物名称、类别信息</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>同”宠物详情界面“</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>感觉好惨淡</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>区别</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>1）由于图鉴位置宠物均为白色品质，因此这个位置的宠物名称均显示为白色</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>。。。。=。=</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>圣兽那个玩意，这个界面要显示么</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>2）这个位置不会有宠物+n的显示需求</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>不要</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>类别信息</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>指宠物的类别：5种分别为</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>unitdata表中需要添加type列用于对应宠物的类别</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>宠物类型</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>多语言ID</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>宠物3D形象</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>增加宠物展示区旋转宠物功能（同样适用于宠物详情界面）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1514,15 +1514,15 @@
       </rPr>
       <t>D形象进行查看</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>左右可进行360度旋转，玩家手指在屏幕上直线水平滑动只会造成模型左右旋转</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>上下可进行旋转角度范围为：水平视角与俯角45度，玩家手指在屏幕上直线上下滑动只会造成查看模型的视角旋转</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1538,319 +1538,319 @@
       </rPr>
       <t>5度</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>玩家手指在屏幕上非直线水平或者上下滑动时，以上两个旋转会同时发生。</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>（效果可参考一下魔灵）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>在宠物之间切换时，保留旋转角度信息</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>关闭宠物图鉴界面后，重新打开时宠物旋转角度恢复到默认</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>显示   碎片</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>碎片</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>item_type_chip</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>碎片条</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>显示出玩家拥有的该宠物碎片数量占该宠物合成需求的碎片数量比例</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>上方数字显示格式：n/m，n为玩家拥有的该宠物碎片数量，m为该宠物合成需求的碎片数量</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>整体居中显示</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>n有上限限制么</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>若n&gt;=m，则显示为填充满的装填</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>没有</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>单选按钮</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>万能宠物碎片图标</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>玩家拥有的万能宠物碎片数量</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>单选控件</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>显示位置</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>见示意图</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>出现/隐藏规则</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物合成界面出现时出现</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>控件操作</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>单选控件普通状态时，点击后变为选中状态</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>——》</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>单选控件选中状态时，点击后变为普通状态</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>——》</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>按钮样式</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>普通</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>选中</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>音效</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>事件</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>音效资源</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>点击控件</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>待回归</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>万能宠物碎片图标</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>这个位置的万能碎片图标需要缩小版的icon图标，且该icon图标响应点击，弹出万能碎片的tips（tips符合通用规范）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>显示玩家拥有量</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>召唤按钮</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>控件类型</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>按钮</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>出现/隐藏规则</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>该界面出现时出现</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>按钮文案</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>召唤</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>handbook_zhaohuan</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>因为按钮大小固定，翻译成其他国家文字很难保证不超出</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>按钮操作</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>当玩家拥有的材料不满足该宠物召唤需求时，点击按钮弹出提示信息handbook_record_001；</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>建议，可点并提示im</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>不满足该宠物召唤需求：</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>1）当玩家未选择万能碎片时，判断玩家拥有的宠物碎片数量a与召唤该宠物需要的碎片数量b的关系，</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>若a&gt;=b，则满足召唤需求；否则为不满足。</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>勘误，选择万能碎片时</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>已选择吧</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>2）当玩家选择万能碎片时，判断玩家拥有的宠物碎片数量a、万能碎片数量c与召唤该宠物需要的碎片数量b的关系，</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>是道具，但是背包不显示</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片是道具么，在背包显示么？</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片逻辑</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物碎片是道具么，在背包显示么？</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>1）万能碎片最大只能替换一定比例的宠物碎片，该比例跟随宠物稀有度变化，宠物每个稀有度都对应一个最大可替换的宠物碎片比例，各稀有度对应比例待定。</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>能</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>分解宠物能不能获得万能碎片呢？</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>2）玩家选择使用万能碎片时：</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>为啥是优先消耗万能碎片，而不是优先消耗玩家碎片</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>情况1</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>若玩家拥有的万能碎片足够支付某宠物可替换比例的最大值，则选择了万能碎片后，一定消耗该最大值；</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>这个意思是不是就是说优先消耗万能碎片？</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>情况2</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>数值回答你：优先消耗，万能碎片会投产较多,特定的宠物碎片比较不易得</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>因此，若万能碎片c满足情况1，加上玩家拥有的该宠物碎片的数量a的值&gt;=b，则满足召唤需求；</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">           若万能碎片c满足情况2，加上玩家拥有的该宠物碎片的数量a的值&gt;=b，则满足召唤需求；</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">           否则，为不满足召唤需求。</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>按钮正常状态时，点击按钮，弹出二级确认框</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>屏幕中央</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>提示信息</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>确定进行1次召唤吗？</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>handbook_tips1</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1876,7 +1876,7 @@
       </rPr>
       <t>*实际消耗的宠物碎片数量</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1902,215 +1902,211 @@
       </rPr>
       <t>*实际消耗的宠物碎片数量</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>*万能碎片最多只能替换X%的宠物碎片哟！”</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>其中，X跟随宠物稀有度变化</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>handbook_tips</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>显示的下</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>直接显示碎片图标也行吧？</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>根据实际消耗的碎片数量显示，若玩家未选择使用万能碎片，则不显示万能碎片数量那一行及提示信息</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片不用图标么</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>同上</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>点击取消按钮，关闭二级，不进行召唤操作，回到宠物召唤界面（宠物召唤界面状态保持与开启二级之前相同）；</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>点击确定按钮，关闭二级，进行召唤操作，扣除实际消耗的碎片，进入获得宠物展示阶段。</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>感觉采用变暗处理就行了</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>有背景好看一些~炫酷一些~</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>展示完成后，回到宠物合成界面，界面宠物碎片与万能碎片数量刷新为扣除之前召唤消耗之后的量，万能碎片的单选按钮均变为未选中状态（无论召唤前是否选中）。</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>按钮样式</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>按下</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>事件</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>基础属性区域</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>显示1级白色宠物属性？</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>显示宠物基础属性</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>基础属性标题</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>顺序如图？</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>基础属性数值</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>基础属性标题、基础属性数值</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>文字效果与“装备属性界面”相同即可，基础属性数值此处排版如图所示（包含顺序）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>基础属性数值显示的是1级白色宠物的</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>显示宠物拥有的技能</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>技能顺序？</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>技能图标列表</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>有顺序需求么，小招在前大招在后</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>显示出该宠物拥有的所有技能icon</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>优先排从左至右排列</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>排列顺序</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>大招，物理，法术，buff，被动</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>如果某个怪没有其中得某个技能，则后面的依次提前</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>技能icon响应点击，点击弹出tips</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>技能tips规范详见文档《阵容选择界面》的“UI规则”切页</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>显示可以获得该宠物碎片的途径介绍</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>具体获得途径</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物碎片</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>等道具tips获得途径出了再做</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>道具那边写的好像不是太详细，也没有提到商城</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>道具里面的获得途径待定，这里也待定么？</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>例子是瞎写的。。。别介意。。。具体有什么都跟着道具那边的规则走</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>显示规则同道具tips中的获得途径</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>因为规则和道具的完全一致，唯一区别就是这里显示的字体可能大一些（还是美术定，我只是预估），所以这里都是跟着道具的（道具待定，那这个也得待定）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>需要在unitData表中增加三列，此三列配置与功能与道具item表表示获得途径的三列完全相同</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>符合道具tips中的获得途径逻辑</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>详见文档《道具产出配置》</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>PS：美术需定义在此界面显示的字体大小，由于和tips页面大小不同，所以显示上文字大小应有不同</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>基础属性区域</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2126,185 +2122,185 @@
       </rPr>
       <t>80,64,153,46,115</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>技能区域</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>技能区域</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>获得途径切页标签</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>控件类型</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>标签页</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>显示位置</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>见图1</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>显示形式</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>横向</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>合成页面出现时出现</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>标签页文案</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>多语言ID</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>分页签显示顺序为 宠物、宠物碎片</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>pet_list_title</t>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物碎片</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>标签页操作</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>采用默认</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>标签页样式</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>普通</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>按下</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>选中</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>音效</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>事件</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>音效资源</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>待回归</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>handbook_petsuipian</t>
   </si>
   <si>
     <t>有的属性莫名其妙的减了1</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>回归部分修改内容</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>增加策划验收切页</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>提示信息中的X%的X没进行替换</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>切换宠物按钮</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>切换宠物按钮</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>需求同宠物界面</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>选中</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>1）通过“玩家拥有宠物界面”的“图鉴”按钮进入</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>删除主界面入口需求</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>当玩家在宠物界面与图鉴界面之间切换时，保持右侧切页标签选中状态不改变</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>补充图鉴与宠物界面切换时右侧页签选择状态不变的规则</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>需要在unitData表中增加一列，此列配置与功能与道具item表表示获得途径的完全相同</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>三方后（获得途径）回归问题（1.修改配置增加列为1列；2.删掉获得途径位置的滑动需求）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>该比例与稀有度关系固定（类似合成宝石的权重规则），配在unitRarity.csv中</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>配置表结构：</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>rarity</t>
@@ -2329,7 +2325,7 @@
   </si>
   <si>
     <t>提示信息</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2355,19 +2351,19 @@
       </rPr>
       <t>*万能碎片最多只能替换X%的宠物碎片哟！”</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>*万能碎片最多只能替换X%的宠物碎片哟！</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物合成界面增加提示信息显示</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>按照程序实现方式回归万能碎片与稀有度关系的配置方式</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物与物品掉落配置表解析</t>
@@ -2380,7 +2376,7 @@
   </si>
   <si>
     <t>回归任务拆分</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2396,20 +2392,67 @@
       </rPr>
       <t>con响应点击，弹出tips，符合tips通用逻辑</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物获得途径</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物、宠物碎片指引跳转</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）点击红色指引未弹出提示</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S：只验收了合成分解、副本跳转</t>
+    </r>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>（开启等级限制等相关设计内容缺失）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加宠物获得途径指引验收</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2932,338 +2975,339 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="33" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="10" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="32" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="10" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8018,6 +8062,44 @@
         <a:xfrm>
           <a:off x="12089423" y="10470172"/>
           <a:ext cx="1386369" cy="1465385"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>21980</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>21983</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>446942</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>999176</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8667749" y="11737733"/>
+          <a:ext cx="2491155" cy="977193"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8507,10 +8589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H44"/>
+  <dimension ref="A2:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -8569,17 +8651,17 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="140" t="s">
+      <c r="B12" s="141" t="s">
         <v>172</v>
       </c>
-      <c r="C12" s="141"/>
-      <c r="D12" s="142" t="s">
+      <c r="C12" s="142"/>
+      <c r="D12" s="143" t="s">
         <v>173</v>
       </c>
-      <c r="E12" s="142"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="143"/>
+      <c r="E12" s="143"/>
+      <c r="F12" s="143"/>
+      <c r="G12" s="143"/>
+      <c r="H12" s="144"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="25" t="s">
@@ -8588,76 +8670,76 @@
       <c r="C13" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="137"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="138"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="25" t="s">
         <v>176</v>
       </c>
       <c r="C14" s="27"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="146"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="147"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="25" t="s">
         <v>177</v>
       </c>
       <c r="C15" s="27"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="149"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="150"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="138"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B17" s="25" t="s">
         <v>179</v>
       </c>
       <c r="C17" s="26"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="137"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B18" s="25" t="s">
         <v>180</v>
       </c>
       <c r="C18" s="26"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="137"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="138"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="28" t="s">
         <v>181</v>
       </c>
       <c r="C19" s="29"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="138"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="139"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="140"/>
     </row>
     <row r="20" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -8830,7 +8912,7 @@
         <v>235</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
@@ -8841,7 +8923,7 @@
       <c r="F36" s="107"/>
       <c r="G36" s="107"/>
       <c r="H36" s="93" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
@@ -8853,10 +8935,10 @@
       <c r="E37" s="56"/>
       <c r="F37" s="107"/>
       <c r="G37" s="107" t="s">
+        <v>544</v>
+      </c>
+      <c r="H37" s="93" t="s">
         <v>545</v>
-      </c>
-      <c r="H37" s="93" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
@@ -8867,7 +8949,7 @@
       <c r="F38" s="107"/>
       <c r="G38" s="107"/>
       <c r="H38" s="113" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
@@ -8878,7 +8960,7 @@
       <c r="F39" s="107"/>
       <c r="G39" s="107"/>
       <c r="H39" s="93" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
@@ -8889,7 +8971,7 @@
       <c r="F40" s="107"/>
       <c r="G40" s="107"/>
       <c r="H40" s="113" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
@@ -8900,7 +8982,7 @@
       <c r="F41" s="107"/>
       <c r="G41" s="107"/>
       <c r="H41" s="113" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
@@ -8911,33 +8993,48 @@
       <c r="F42" s="107"/>
       <c r="G42" s="107"/>
       <c r="H42" s="113" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="21" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="106"/>
+      <c r="C43" s="108">
+        <v>42345</v>
+      </c>
+      <c r="D43" s="107"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="107" t="s">
+        <v>574</v>
+      </c>
+      <c r="H43" s="113" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C44" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D44" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E44" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
       <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="G45" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -8951,7 +9048,7 @@
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="D16:H16"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H27" location="获得途径子标题1" display="2、获得途径修改"/>
     <hyperlink ref="H26" location="技能tips规范详见文档《阵容选择界面》的“UI规则”切页" display="1、修改技能tips指引文档"/>
@@ -8972,8 +9069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB88"/>
   <sheetViews>
-    <sheetView topLeftCell="C61" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView topLeftCell="C70" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -8984,34 +9081,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:28" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="C1" s="150" t="s">
+      <c r="C1" s="151" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="150"/>
-      <c r="L1" s="150"/>
-      <c r="M1" s="150"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="150"/>
-      <c r="P1" s="150"/>
-      <c r="Q1" s="150"/>
-      <c r="R1" s="150"/>
-      <c r="S1" s="150"/>
-      <c r="T1" s="150"/>
-      <c r="U1" s="150"/>
-      <c r="V1" s="150"/>
-      <c r="W1" s="150"/>
-      <c r="X1" s="150"/>
-      <c r="Y1" s="150"/>
-      <c r="Z1" s="150"/>
-      <c r="AA1" s="150"/>
-      <c r="AB1" s="150"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="151"/>
+      <c r="S1" s="151"/>
+      <c r="T1" s="151"/>
+      <c r="U1" s="151"/>
+      <c r="V1" s="151"/>
+      <c r="W1" s="151"/>
+      <c r="X1" s="151"/>
+      <c r="Y1" s="151"/>
+      <c r="Z1" s="151"/>
+      <c r="AA1" s="151"/>
+      <c r="AB1" s="151"/>
     </row>
     <row r="3" spans="3:28" x14ac:dyDescent="0.35">
       <c r="G3" s="1" t="s">
@@ -9044,7 +9141,7 @@
     </row>
     <row r="25" spans="4:10" x14ac:dyDescent="0.35">
       <c r="E25" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J25" s="9"/>
     </row>
@@ -9260,7 +9357,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E50" s="128" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F50" s="129"/>
       <c r="G50" s="129"/>
@@ -9489,7 +9586,7 @@
   <mergeCells count="1">
     <mergeCell ref="C1:AB1"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="notContainsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(B1))&gt;0</formula>
@@ -9510,8 +9607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C130" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M137" sqref="M137"/>
+    <sheetView topLeftCell="C232" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O247" sqref="O247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -9522,34 +9619,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:28" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="C1" s="150" t="s">
+      <c r="C1" s="151" t="s">
         <v>337</v>
       </c>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="150"/>
-      <c r="L1" s="150"/>
-      <c r="M1" s="150"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="150"/>
-      <c r="P1" s="150"/>
-      <c r="Q1" s="150"/>
-      <c r="R1" s="150"/>
-      <c r="S1" s="150"/>
-      <c r="T1" s="150"/>
-      <c r="U1" s="150"/>
-      <c r="V1" s="150"/>
-      <c r="W1" s="150"/>
-      <c r="X1" s="150"/>
-      <c r="Y1" s="150"/>
-      <c r="Z1" s="150"/>
-      <c r="AA1" s="150"/>
-      <c r="AB1" s="150"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="151"/>
+      <c r="S1" s="151"/>
+      <c r="T1" s="151"/>
+      <c r="U1" s="151"/>
+      <c r="V1" s="151"/>
+      <c r="W1" s="151"/>
+      <c r="X1" s="151"/>
+      <c r="Y1" s="151"/>
+      <c r="Z1" s="151"/>
+      <c r="AA1" s="151"/>
+      <c r="AB1" s="151"/>
     </row>
     <row r="3" spans="3:28" x14ac:dyDescent="0.35">
       <c r="G3" s="91" t="s">
@@ -9582,7 +9679,7 @@
     </row>
     <row r="14" spans="3:28" x14ac:dyDescent="0.35">
       <c r="P14" s="122" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20" spans="6:16" x14ac:dyDescent="0.35">
@@ -10098,7 +10195,7 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="F66" s="123" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G66" s="116"/>
       <c r="H66" s="116"/>
@@ -10115,7 +10212,7 @@
     <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="F67" s="111"/>
       <c r="G67" s="116" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H67" s="116"/>
       <c r="I67" s="116"/>
@@ -10362,7 +10459,7 @@
     </row>
     <row r="104" spans="6:12" x14ac:dyDescent="0.35">
       <c r="F104" s="134" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G104" s="133"/>
       <c r="H104" s="133"/>
@@ -10373,7 +10470,7 @@
     <row r="105" spans="6:12" x14ac:dyDescent="0.35">
       <c r="F105" s="133"/>
       <c r="G105" s="132" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H105" s="133"/>
       <c r="I105" s="133"/>
@@ -10670,7 +10767,7 @@
       <c r="I126" s="100"/>
       <c r="J126" s="100"/>
       <c r="K126" s="132" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L126" s="133"/>
       <c r="M126" s="133"/>
@@ -10693,7 +10790,7 @@
       <c r="I127" s="100"/>
       <c r="J127" s="100"/>
       <c r="K127" s="132" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L127" s="133"/>
       <c r="M127" s="133"/>
@@ -10717,13 +10814,13 @@
       <c r="J128" s="100"/>
       <c r="K128" s="132"/>
       <c r="L128" s="133" t="s">
+        <v>552</v>
+      </c>
+      <c r="M128" s="133" t="s">
         <v>553</v>
       </c>
-      <c r="M128" s="133" t="s">
+      <c r="N128" s="133" t="s">
         <v>554</v>
-      </c>
-      <c r="N128" s="133" t="s">
-        <v>555</v>
       </c>
       <c r="O128" s="133"/>
       <c r="P128" s="133"/>
@@ -10744,13 +10841,13 @@
       <c r="J129" s="100"/>
       <c r="K129" s="132"/>
       <c r="L129" s="133" t="s">
+        <v>555</v>
+      </c>
+      <c r="M129" s="133" t="s">
         <v>556</v>
       </c>
-      <c r="M129" s="133" t="s">
+      <c r="N129" s="133" t="s">
         <v>557</v>
-      </c>
-      <c r="N129" s="133" t="s">
-        <v>558</v>
       </c>
       <c r="O129" s="133"/>
       <c r="P129" s="133"/>
@@ -10774,7 +10871,7 @@
         <v>1</v>
       </c>
       <c r="M130" s="133" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="N130" s="133">
         <v>0.8</v>
@@ -10887,8 +10984,8 @@
       <c r="H137" s="91" t="s">
         <v>448</v>
       </c>
-      <c r="M137" s="151" t="s">
-        <v>569</v>
+      <c r="M137" s="136" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="139" spans="1:24" x14ac:dyDescent="0.35">
@@ -10950,7 +11047,7 @@
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.35">
       <c r="O145" s="131" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P145" s="95"/>
       <c r="Q145" s="95"/>
@@ -11190,7 +11287,7 @@
     </row>
     <row r="192" spans="6:15" x14ac:dyDescent="0.35">
       <c r="F192" s="92" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="193" spans="2:7" x14ac:dyDescent="0.35">
@@ -11298,7 +11395,7 @@
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.35">
       <c r="G220" s="91" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.35">
@@ -11308,14 +11405,14 @@
     </row>
     <row r="227" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H227" s="118" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I227" s="117"/>
     </row>
     <row r="228" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H228" s="117"/>
       <c r="I228" s="119" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J228" s="98"/>
       <c r="K228" s="98"/>
@@ -11325,7 +11422,7 @@
       <c r="H229" s="117"/>
       <c r="I229" s="119"/>
       <c r="J229" s="98" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K229" s="98"/>
       <c r="L229" s="98"/>
@@ -11333,7 +11430,7 @@
     <row r="230" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H230" s="117"/>
       <c r="I230" s="119" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J230" s="98"/>
       <c r="K230" s="98"/>
@@ -11343,7 +11440,7 @@
       <c r="H231" s="117"/>
       <c r="I231" s="119"/>
       <c r="J231" s="98" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K231" s="98"/>
       <c r="L231" s="98"/>
@@ -11351,7 +11448,7 @@
     <row r="232" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H232" s="117"/>
       <c r="I232" s="119" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J232" s="98"/>
       <c r="K232" s="98"/>
@@ -11361,7 +11458,7 @@
       <c r="H233" s="117"/>
       <c r="I233" s="119"/>
       <c r="J233" s="98" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K233" s="98"/>
       <c r="L233" s="98"/>
@@ -11379,7 +11476,7 @@
       <c r="H235" s="117"/>
       <c r="I235" s="119"/>
       <c r="J235" s="98" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K235" s="98"/>
       <c r="L235" s="98"/>
@@ -11387,7 +11484,7 @@
     <row r="236" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H236" s="117"/>
       <c r="I236" s="119" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J236" s="98"/>
       <c r="K236" s="98"/>
@@ -11398,7 +11495,7 @@
       <c r="H237" s="117"/>
       <c r="I237" s="119"/>
       <c r="J237" s="99" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K237" s="99"/>
       <c r="L237" s="99"/>
@@ -11408,13 +11505,13 @@
       <c r="H238" s="117"/>
       <c r="I238" s="119"/>
       <c r="J238" s="94" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K238" s="99" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L238" s="99" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M238" s="99"/>
     </row>
@@ -11423,17 +11520,17 @@
       <c r="I239" s="119"/>
       <c r="J239" s="99"/>
       <c r="K239" s="99" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L239" s="95" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M239" s="99"/>
     </row>
     <row r="240" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H240" s="117"/>
       <c r="I240" s="119" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J240" s="100"/>
       <c r="K240" s="100"/>
@@ -11444,7 +11541,7 @@
       <c r="H241" s="117"/>
       <c r="I241" s="119"/>
       <c r="J241" s="100" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K241" s="100"/>
       <c r="L241" s="95"/>
@@ -11453,7 +11550,7 @@
     <row r="242" spans="1:15" x14ac:dyDescent="0.35">
       <c r="H242" s="117"/>
       <c r="I242" s="119" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J242" s="98"/>
       <c r="K242" s="98"/>
@@ -11464,7 +11561,7 @@
       <c r="H243" s="117"/>
       <c r="I243" s="119"/>
       <c r="J243" s="100" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K243" s="100"/>
       <c r="L243" s="95"/>
@@ -11474,7 +11571,7 @@
       <c r="H244" s="117"/>
       <c r="I244" s="119"/>
       <c r="J244" s="100" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K244" s="100"/>
       <c r="L244" s="95"/>
@@ -11484,7 +11581,7 @@
       <c r="H245" s="117"/>
       <c r="I245" s="119"/>
       <c r="J245" s="100" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K245" s="100"/>
       <c r="L245" s="95"/>
@@ -11493,7 +11590,7 @@
     <row r="246" spans="1:15" x14ac:dyDescent="0.35">
       <c r="H246" s="117"/>
       <c r="I246" s="119" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J246" s="100"/>
       <c r="K246" s="100"/>
@@ -11504,10 +11601,10 @@
       <c r="H247" s="117"/>
       <c r="I247" s="120"/>
       <c r="J247" s="100" t="s">
+        <v>530</v>
+      </c>
+      <c r="K247" s="100" t="s">
         <v>531</v>
-      </c>
-      <c r="K247" s="100" t="s">
-        <v>532</v>
       </c>
       <c r="L247" s="95"/>
       <c r="M247" s="99"/>
@@ -11516,25 +11613,23 @@
       <c r="H248" s="117"/>
       <c r="I248" s="120"/>
       <c r="J248" s="100" t="s">
+        <v>532</v>
+      </c>
+      <c r="K248" s="101" t="s">
         <v>533</v>
-      </c>
-      <c r="K248" s="101" t="s">
-        <v>534</v>
       </c>
       <c r="L248" s="95"/>
       <c r="M248" s="99"/>
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="F249" s="109" t="s">
-        <v>496</v>
-      </c>
+      <c r="F249" s="109"/>
       <c r="H249" s="92" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B250" s="91" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I250" s="117" t="s">
         <v>494</v>
@@ -11548,14 +11643,14 @@
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A251" s="110" t="s">
+        <v>497</v>
+      </c>
+      <c r="B251" s="111" t="s">
         <v>498</v>
-      </c>
-      <c r="B251" s="111" t="s">
-        <v>499</v>
       </c>
       <c r="I251" s="117"/>
       <c r="J251" s="117" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K251" s="117"/>
       <c r="L251" s="117"/>
@@ -11565,11 +11660,11 @@
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A252" s="111" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I252" s="117"/>
       <c r="J252" s="130" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K252" s="117"/>
       <c r="L252" s="117"/>
@@ -11591,7 +11686,7 @@
     <row r="254" spans="1:15" x14ac:dyDescent="0.35">
       <c r="I254" s="117"/>
       <c r="J254" s="117" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K254" s="117"/>
       <c r="L254" s="117"/>
@@ -11602,7 +11697,7 @@
     <row r="255" spans="1:15" x14ac:dyDescent="0.35">
       <c r="I255" s="117"/>
       <c r="J255" s="117" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K255" s="117"/>
       <c r="L255" s="117"/>
@@ -11612,14 +11707,14 @@
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.35">
       <c r="I256" s="91" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:AB1"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="B1:B36 B38:B46 B252:B1048576 B48:B250">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(B1))&gt;0</formula>
@@ -11871,7 +11966,7 @@
       <c r="B21" s="53"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11966,7 +12061,7 @@
       <c r="K5" s="1"/>
       <c r="O5" s="11"/>
       <c r="P5" s="124" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -11990,7 +12085,7 @@
       <c r="K6" s="1"/>
       <c r="O6" s="11"/>
       <c r="P6" s="125" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Q6" s="34"/>
       <c r="R6" s="34"/>
@@ -13008,7 +13103,7 @@
       <c r="J46" s="91"/>
       <c r="K46" s="91"/>
       <c r="L46" s="122" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -15189,7 +15284,7 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
       <c r="P143" s="59" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Q143" s="95"/>
       <c r="R143" s="95"/>
@@ -15211,7 +15306,7 @@
       <c r="O144" s="1"/>
       <c r="P144" s="95"/>
       <c r="Q144" s="127" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="R144" s="100"/>
       <c r="S144" s="100"/>
@@ -15225,7 +15320,7 @@
       <c r="P145" s="95"/>
       <c r="Q145" s="127"/>
       <c r="R145" s="99" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="S145" s="99"/>
       <c r="T145" s="99"/>
@@ -15241,10 +15336,10 @@
         <v>2</v>
       </c>
       <c r="S146" s="99" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="T146" s="99" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="U146" s="99"/>
       <c r="V146" s="95"/>
@@ -15259,7 +15354,7 @@
         <v>495</v>
       </c>
       <c r="T147" s="95" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U147" s="99"/>
       <c r="V147" s="95"/>
@@ -15269,7 +15364,7 @@
     <row r="148" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P148" s="95"/>
       <c r="Q148" s="127" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="R148" s="100"/>
       <c r="S148" s="100"/>
@@ -15283,7 +15378,7 @@
       <c r="P149" s="95"/>
       <c r="Q149" s="127"/>
       <c r="R149" s="100" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="S149" s="100"/>
       <c r="T149" s="95"/>
@@ -15296,7 +15391,7 @@
       <c r="P150" s="95"/>
       <c r="Q150" s="127"/>
       <c r="R150" s="100" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="S150" s="100"/>
       <c r="T150" s="95"/>
@@ -15309,7 +15404,7 @@
       <c r="P151" s="95"/>
       <c r="Q151" s="127"/>
       <c r="R151" s="100" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="S151" s="100"/>
       <c r="T151" s="95"/>
@@ -15348,7 +15443,7 @@
       <c r="P154" s="95"/>
       <c r="Q154" s="95"/>
       <c r="R154" s="95" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="S154" s="95"/>
       <c r="T154" s="95"/>
@@ -15361,7 +15456,7 @@
       <c r="P155" s="95"/>
       <c r="Q155" s="95"/>
       <c r="R155" s="95" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="S155" s="95"/>
       <c r="T155" s="95"/>
@@ -15387,7 +15482,7 @@
       <c r="P157" s="95"/>
       <c r="Q157" s="95"/>
       <c r="R157" s="95" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="S157" s="95"/>
       <c r="T157" s="95"/>
@@ -15400,7 +15495,7 @@
       <c r="P158" s="95"/>
       <c r="Q158" s="95"/>
       <c r="R158" s="95" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="S158" s="95"/>
       <c r="T158" s="95"/>
@@ -15412,7 +15507,7 @@
     <row r="159" spans="16:24" x14ac:dyDescent="0.35">
       <c r="P159" s="95"/>
       <c r="Q159" s="95" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="R159" s="95"/>
       <c r="S159" s="95"/>
@@ -15436,7 +15531,7 @@
       <c r="X160" s="95"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="R64" location="若右侧列表存在该道具条目_则直接堆叠数量加1" display="进入列表的处理快速通道"/>
   </hyperlinks>
@@ -15450,7 +15545,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -15634,7 +15729,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="63" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H20" s="63">
         <v>0.5</v>
@@ -15651,7 +15746,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="63" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H21" s="63">
         <v>1</v>
@@ -15662,24 +15757,24 @@
         <v>3</v>
       </c>
       <c r="C22" s="63" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H22" s="63">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="B22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -15877,7 +15972,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="80">
         <v>6</v>
       </c>
@@ -15888,7 +15983,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B18" s="80">
         <v>7</v>
       </c>
@@ -15902,7 +15997,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D19" s="80" t="s">
         <v>327</v>
       </c>
@@ -15910,15 +16005,15 @@
         <v>295</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="136.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="136.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D20" s="80" t="s">
         <v>328</v>
       </c>
       <c r="E20" s="121" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="123.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="123.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D21" s="80" t="s">
         <v>329</v>
       </c>
@@ -15926,38 +16021,67 @@
         <v>330</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F22" s="80" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="145.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="145.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="80">
         <v>8</v>
       </c>
       <c r="C23" s="91" t="s">
+        <v>505</v>
+      </c>
+      <c r="E23" s="91" t="s">
+        <v>535</v>
+      </c>
+      <c r="K23" s="91" t="s">
         <v>506</v>
       </c>
-      <c r="E23" s="91" t="s">
-        <v>536</v>
-      </c>
-      <c r="K23" s="91" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B24" s="80">
         <v>9</v>
       </c>
       <c r="C24" s="91" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E24" s="80" t="s">
         <v>175</v>
       </c>
     </row>
+    <row r="26" spans="1:11" s="79" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="77">
+        <v>42331</v>
+      </c>
+      <c r="B26" s="78"/>
+      <c r="C26" s="79" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="80">
+        <v>1</v>
+      </c>
+      <c r="C27" s="152" t="s">
+        <v>570</v>
+      </c>
+      <c r="D27" s="152"/>
+      <c r="E27" s="152" t="s">
+        <v>571</v>
+      </c>
+      <c r="J27" s="152" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F28" s="152" t="s">
+        <v>572</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -16426,7 +16550,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/gd/宠物系统/宠物图鉴设计.xlsx
+++ b/gd/宠物系统/宠物图鉴设计.xlsx
@@ -17,7 +17,7 @@
     <sheet name="评审问题" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="宠物" localSheetId="2">宠物合成界面!$I$250</definedName>
+    <definedName name="宠物" localSheetId="2">宠物合成界面!$I$252</definedName>
     <definedName name="宠物">#REF!</definedName>
     <definedName name="宠物合成效果展示">宠物合成界面!$H$160</definedName>
     <definedName name="宠物展示效果">#REF!</definedName>
@@ -25,11 +25,12 @@
     <definedName name="该比例与稀有度关系固定_类似合成宝石的权重规则__记在config里即可_方便策划修改_。" localSheetId="2">宠物合成界面!$K$126</definedName>
     <definedName name="该比例与稀有度关系固定_类似合成宝石的权重规则__记在config里即可_方便策划修改_。">#REF!</definedName>
     <definedName name="该比例与稀有度关系固定_类似合成宝石的权重规则__配在unitRarity.csv中">宠物合成界面!$K$126</definedName>
+    <definedName name="合成得到的宠物性格固定_从unitData配置表读取">宠物合成界面!$H$165</definedName>
     <definedName name="获得途径子标题1" localSheetId="2">宠物合成界面!#REF!</definedName>
     <definedName name="获得途径子标题1">#REF!</definedName>
-    <definedName name="技能tips规范详见文档《阵容选择界面》的“UI规则”切页" localSheetId="2">宠物合成界面!$I$216</definedName>
+    <definedName name="技能tips规范详见文档《阵容选择界面》的“UI规则”切页" localSheetId="2">宠物合成界面!$I$218</definedName>
     <definedName name="技能tips规范详见文档《阵容选择界面》的“UI规则”切页">#REF!</definedName>
-    <definedName name="具体获得途径">宠物合成界面!$H$249</definedName>
+    <definedName name="具体获得途径">宠物合成界面!$H$251</definedName>
     <definedName name="类别信息" localSheetId="2">宠物合成界面!$G$37</definedName>
     <definedName name="类别信息">#REF!</definedName>
     <definedName name="提示信息">宠物合成界面!$F$104</definedName>
@@ -41,590 +42,590 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="579">
   <si>
     <t>进入</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>标题</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>多语言ID</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>详见文档《宠物界面》的“玩家拥有宠物界面”切页</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>图鉴</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴评审</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴的页签建议和宠物列表保持统一，要是用图都用图，要是用文字都用问题。没有“全部”？</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>解决方案</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>合成出来都是白色宠物么？碎片数量区别用途是？都是白色的话图鉴有点没吸引力</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴界面彩色和灰色头像区别是什么？灰色看起来像不能点击</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴排序规则是？</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>收集宠物的数量是代表种类是么？</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>有万能碎片的话优先用万能碎片么？先消耗宠物碎片比较合适吧</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>获得途径是点了能直接去打副本么？</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>图鉴中缺少宠物属性内容，建议增加</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片设计目的不明，非常必要么？</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>宠物技能要有tips么？</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>整体布局与宠物列表相似，且从宠物列表作为入口，但是分页签与宠物列表使用了相同含义不同表现的分页，感觉不好。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>图鉴中宠物是否有天生三星之类的，是否需要显示其天生的品质</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>宠物稀有度属性还要么，其他地方没有显示，图鉴里要不要显示</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>挺好 但是如果能从这里看出 那些怪比较稀有就好了</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>不错，那个android的图标是什么？</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>属性图标看起来比较单薄，也和其他界面不统一</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>缺少稀有度等简要信息。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>灰色建议加锁等更明确的提示。</t>
   </si>
   <si>
     <t>目前的养成会使得宠物碎片出现过剩的情况,通过到的宠物碎片再次回收为万能碎片来使其他宠物升级,目前数值汇率暂定为4换1,参考影之刃招式万能碎片的定位</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>要有的，和宠物的技能界面的技能图标逻辑一致</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>召唤出来都是最低品质的，没有天生厉害的</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>一个临时的万能宠物碎片图标</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>图鉴中是否有必要 包含 “碎片”信息？</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>收集宠物代表的是我已经合成了多少个宠物？还是已经点亮了多少个图鉴？</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片给个tips告诉玩家如何获得么？</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>是否按照碎片的多少排列下？方便合成？不确定合不合适=，=</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>点完就合成了么？还有合成的界面么？</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>点击图鉴能看到宠物信息么或者tips</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>感觉应该优先消耗宠物碎片而不是万能碎片</t>
   </si>
   <si>
     <t>结算得到宠物和召唤，当年说统一效果，现在是否已经废弃了这个设计</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>召唤和宠物图鉴放在一起，个人感觉是个不好的设计，这样除了掉落，得到宠物只能是通过碎片召唤了，</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>是不准备做抽取宠物这种东西吗 还是说 抽取宠物再出一种得到宠物的表现</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>没有“全部”。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>页签大家反映比较多，改为和宠物列表一致的。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>合成出来的都是白色宠物</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>碎片数量肯定是越稀有的宠物需要的碎片比较多（这一点演示有点问题，做的时候忘记改那个数量了，其实也是从少到多的）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>彩色代表玩家拥有过该宠物，灰着代表玩家从未拥有过该宠物</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>按照宠物稀有度由低到高排序的，排列位置固定</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片与宠物碎片之间首先在合成操作上，没有一定的优先消耗谁的规则，宠物碎片足够时，是否消耗万能碎片是玩家自己点选的。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>但是一旦选择使用万能碎片，是由一定规则的：</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>1）最大只能替换一定比例的宠物碎片，若玩家拥有的万能碎片足够支付某宠物可替换比例的最大值，则选择了万能碎片后，一定消耗最大值；</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>2）若玩家拥有的万能碎片不足够支付某宠物可替换比例的最大值，则选择了万能碎片后，消耗掉玩家拥有的所有量。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>点了指引到副本入口（获得途径的指引逻辑与道具tips一致）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>因为宠物合成是放在图鉴这边的，增加碎片信息时为了使玩家在图鉴界面就能一目了然的看到哪个宠物能合成，哪个宠物不能合成</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>否则需要点击图鉴中的宠物头像进入合成界面才能看到这个信息，比较麻烦</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>是种类，也就是点亮了多少个图鉴</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片算是一个道具，符合道具通用逻辑，所以tips是会告诉如何获得的</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>已确认，没有问题</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>已确认，没有问题</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>是统一效果，区别只在于这个位置不像副本有背景，所以这个位置需要美术给个背景（就是副本外的得到宠物的展示都统一用这个背景）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>不是除了掉落得到宠物只能通过碎片召唤，这里只是利用宠物碎片合成宠物这种途径的操作界面。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>不影响抽取宠物的功能（也就是说抽蛋那些玩意一样能抽宠物），获得宠物的展现形式一致即可（如问题19所回答的那样）。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>其他效果与结算都是一样的（恭喜的文字信息、宠物跑过来先播出场然后待机、下面的确定按钮）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>看了一部分游戏（看了魔灵、dota、小红帽、十冷、天下，当然他们之间有可重复召唤或者只能有一个的区别）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>在宠物图鉴这块都是用置灰来代表未拥有过该宠物或者该宠物不可召唤，且他们置灰时都是响应点击的，所以灰色在这里能点击感觉还算可以接受。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>加锁这个处理方法是首先我们的游戏可以给宠物加锁（这个宠物就不能当做材料、分解等），所以这里不建议用加锁，容易误解。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>首先稀有度这个玩意是完全不影响属性的，他只是代表这个怪物好获得还是不好获得，</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>所以图鉴这个位置在排序时是打算按照稀有度由低到高排，在界面上直接显示给玩家的就是合成需要的碎片由少到多的。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>不打算再多让玩家多学习一个“稀有度”的概念，增加学习成本，用处还不大（主要理由就是稀有度并不影响属性）。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>图鉴从头像上能区分好坏么？</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>头像不能区分好坏，只能区分稀有度。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>采纳，增加宠物基础属性内容（右侧可以滑动查看更多）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴UI</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>标题</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>关闭按钮</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>收集宠物进度</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片数量</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>切页标签</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>宠物列表</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>显示“收集宠物  玩家已拥有宠物种类数量/当前页签属性下的宠物种类数量总数”</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>收集宠物</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>handbook_shouji</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>玩家已拥有宠物种类数量</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>玩家当前是否仍拥有该宠物不影响（即玩家拥有后将宠物分解了、当做材料喂了等等情况）。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>这里计数只包含当前页签下的玩家拥有或者拥有过的宠物种类数量。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片数量</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>同“玩家拥有宠物界面”</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>单个样式</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>宠物头像</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>宠物碎片信息</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>宠物头像</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>显示宠物头像</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>显示“玩家当前拥有的该宠物碎片数量/该宠物合成需要的碎片数量“</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>整体在宠物头像下方居中显示</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>列表排列规则</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>图鉴目前其实是按照宠物稀有度由低到高排序的，排列位置固定</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>需要有正常显示状态和暗色显示状态</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>正常显示状态</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>代表玩家已经拥有或者拥有过该宠物</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>暗色显示状态</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>代表玩家从未拥有过该宠物</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>获得后回到该界面立即刷新宠物头像状态</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>特殊规则</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>默认显示</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>打开界面时，默认显示第一个切页，且下方列表显示最上</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>若玩家关闭该图鉴界面，重新打开，则回到界面默认显示；</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>若玩家通过宠物头像打开宠物合成界面，则从宠物合成界面回到该界面时，该界面的切页选择与列表位置保持在进入宠物合成界面之前的显示状态（宠物头像根据玩家在宠物合成界面的操作进行刷新显示）。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>返回按钮</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>宠物名称</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>宠物3D形象</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片信息</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>提示信息</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>召唤按钮</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>基础属性区域</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>技能区域</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>获得途径区域</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>宠物属性图标、宠物名称</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>同”宠物详情界面“</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>详见文档《宠物界面》的“宠物详情界面”切页</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>区别</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>1）由于图鉴位置宠物均为白色品质，因此这个位置的宠物名称均显示为白色</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>2）这个位置不会有宠物+n的显示需求</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>显示   碎片</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>显示  “万能碎片图标  玩家拥有的万能碎片数量”</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>万能宠物碎片图标</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>玩家拥有的万能宠物碎片数量</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>显示位置</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>按钮文案</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>多语言ID</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>按钮操作</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>出现/隐藏规则</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>控件操作</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>——》</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>按钮样式</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>普通</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>选中</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>单选控件普通状态时，点击后变为选中状态</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>单选控件</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>单选控件选中状态时，点击后变为普通状态</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>显示玩家拥有量</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>召唤</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>若玩家拥有的万能碎片不足够支付某宠物可替换比例的最大值，则选择了万能碎片后，消耗掉玩家拥有的所有量。</t>
   </si>
   <si>
     <t>屏幕中央</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>handbook_tips1</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>按下</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>不可用</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>显示宠物基础属性</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>基础属性标题</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>pet_detail_stage_attr</t>
   </si>
   <si>
     <t>基础属性数值</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>基础属性</t>
@@ -661,380 +662,380 @@
   </si>
   <si>
     <t>显示宠物拥有的技能</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>技能图标列表</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>基础属性标题、基础属性数值</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>文字效果与“装备属性界面”相同即可，基础属性数值此处排版如图所示</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>显示出该宠物拥有的所有技能icon</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>优先排从左至右排列</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>显示可以获得该宠物碎片的途径介绍</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>获得途径标题</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>具体获得途径</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>文档名称</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>文档目的</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>目标读者</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>所有</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>文档路径</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>文档状态</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>详细信息</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>编写中</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>待审核(策划)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>修改中（策划）</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>待审核(QC)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>修改中(QC)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>待3方</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>已定案</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>文档历史</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>发布日期</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>知会同事</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>标记颜色</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>创建人</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>修订人</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.1</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>有关会议</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>会议日期</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>参与同事</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>基本概要</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴相关逻辑说明</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>“图鉴”按钮</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>这个位置的万能碎片图标需要缩小版的icon图标</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>当玩家获得该宠物时（无论以何种方式获得，不限于此界面获得），该宠物的头像由暗色显示变为正常显示</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>宠物头像无论在哪种状态下，均响应玩家点击，点击弹出对应宠物的宠物合成界面。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>宠物合成界面见“宠物合成界面”切页</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>各个宠物的排列位置固定（按照宠物稀有度由低到高排序，表现上为合成需要的碎片数量由少到多）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>具体位置待版本内怪物都设计好后定</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>这个位置的万能碎片图标需要缩小版的icon图标，且该icon图标响应点击</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>svn://10.21.2.47/gd/宠物系统/宠物图鉴设计.xlsx</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴设计</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>碎片数量有上限么</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>太小了手机上不好点吧</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>为啥不使用全属性宠物总数，单属性感觉上每个页签是相互独立的，另外，是否考虑过加个全部页签，和宠物列表统一起来</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>都是数字,缩放啥………………</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>不加“全部”了，主要考虑是宠物图鉴这如果有分页签，一般就没有看全部的需求了</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>歧义，拥有某只宠物，在失去，在拥有，应该数量只+1，改成玩家拥有该页签下的任意一只宠物时，此位置数量加1，之后玩家多次失去或者获得该宠物，此处数量不会随之改变如何</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>是指玩家拥有任一页签下的任意一只宠物时，此位置数量加1，之后玩家多次失去或者获得该宠物，此处数量不会随之改变。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>这个位置的万能碎片图标需要缩小版的icon图标（尽量大点），且该icon图标响应点击，弹出万能碎片的tips（tips符合通用规范）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>这的位置可扩展的地界太小，怕多语言时候放不下</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>提示方式</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>触发条件</t>
   </si>
   <si>
     <t>提示范围</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>文字内容</t>
   </si>
   <si>
     <t>对应英文</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>世界频道</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>公会频道</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>走马灯</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>系统提示（非警示）</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>系统提示（警示）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>系统公告</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>玩家自己</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>handbook_btn</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>玩家不满足合成宠物条件时点击召唤按钮</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>碎片不足</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮，弹出二级确认框</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>回归测试反馈</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>三方后回归问题</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>1、修改技能tips指引文档</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>2、获得途径修改</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>3、万能碎片的稀有度对应比例描述修改</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>4、删除不需要的缩放需求</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>handbook_record_001</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>类别</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>对应工时（单位d）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>策划验收+配置任务</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>对应程序任务</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>程序</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>宠物3D形象(重新封装一下，添加功能)</t>
   </si>
   <si>
     <t>宠物合成界面UI(需要修改技能tip通用，途径只包含界面部分)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>召唤获取宠物界面(视需要添加的情况)</t>
@@ -1044,46 +1045,46 @@
   </si>
   <si>
     <t>宠物合成</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>图鉴功能修改</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>图鉴、合成界面</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>1,2,3,4,5,6</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">客户端宠物图鉴UI </t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>添加任务拆分切页</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>显示“收集宠物  玩家已拥有宠物种类数量/所有页签的宠物种类数量总数”</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>所有页签的宠物种类数量总数</t>
   </si>
   <si>
     <t>是所有页签下显示的宠物种类总数</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>修改万能碎片提示信息位置</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>英文对应</t>
@@ -1135,90 +1136,90 @@
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>将宠物类别内容移入文档（之前在宠物文档）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>回归宠物、宠物碎片获取途径规则</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>显示不下时，可以通过下滑查看更多（是指整个右侧界面可滑动）</t>
   </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>本次验收内容</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>具体内容</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>验收结果</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>切页标签</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>图鉴界面</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>默认显示+特殊规则</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>收集宠物进度</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片数量</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>点击万能碎片图标没有弹出tips</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>宠物列表</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>宠物名称</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>显示宠物名称</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1244,7 +1245,7 @@
       </rPr>
       <t>表</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>fragmentId</t>
@@ -1254,51 +1255,51 @@
   </si>
   <si>
     <t>填写合成的宠物需要的碎片id</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>填写道具item表的id</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>合成需要的碎片</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>合成需要的碎片数量</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>填写数字</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>单个样式</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>单个样式的状态</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>列表排序规则</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>待版本内怪物都设计好后定具体顺序</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>宠物合成界面</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>进入</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>应该为白色品质宠物，现在客户端均为绿色品质</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>宠物属性图标、宠物名称、类别信息</t>
@@ -1308,46 +1309,46 @@
   </si>
   <si>
     <t>旋转</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>宠物碎片信息</t>
   </si>
   <si>
     <t>关闭界面后重新打开界面，宠物旋转角度没有恢复默认，还保留了之前操作的旋转角度（期望关闭重新进来后恢复默认）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片图标相应点击未弹出道具tips，而是进行了选中万能碎片操作</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>召唤按钮</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>材料不足</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>自身碎片召唤</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>自身碎片+万能碎片召唤</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>召唤后的效果展示</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>宠物被不明物体遮挡</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>伴随特效缺失，待美术资源到位添加</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
@@ -1366,139 +1367,139 @@
   </si>
   <si>
     <t>宠物合成界面</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>基础属性区域</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>宠物属性图标</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>宠物名称</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>类别信息</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>返回按钮</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>技能区域</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>宠物3D形象</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>宠物碎片信息</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>获得途径区域</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片信息</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>召唤按钮</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>进入</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>通过点击宠物图鉴界面的宠物头像进入</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮，返回到宠物图鉴界面</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>样式同”宠物详情界面“</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>详见文档《宠物界面》的“宠物详情界面”切页</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>宠物属性图标、宠物名称、类别信息</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>同”宠物详情界面“</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>感觉好惨淡</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>区别</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>1）由于图鉴位置宠物均为白色品质，因此这个位置的宠物名称均显示为白色</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>。。。。=。=</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>圣兽那个玩意，这个界面要显示么</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>2）这个位置不会有宠物+n的显示需求</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>不要</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>类别信息</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>指宠物的类别：5种分别为</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>unitdata表中需要添加type列用于对应宠物的类别</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>宠物类型</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>多语言ID</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>宠物3D形象</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>增加宠物展示区旋转宠物功能（同样适用于宠物详情界面）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1514,15 +1515,15 @@
       </rPr>
       <t>D形象进行查看</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>左右可进行360度旋转，玩家手指在屏幕上直线水平滑动只会造成模型左右旋转</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>上下可进行旋转角度范围为：水平视角与俯角45度，玩家手指在屏幕上直线上下滑动只会造成查看模型的视角旋转</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1538,319 +1539,319 @@
       </rPr>
       <t>5度</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>玩家手指在屏幕上非直线水平或者上下滑动时，以上两个旋转会同时发生。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>（效果可参考一下魔灵）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>在宠物之间切换时，保留旋转角度信息</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>关闭宠物图鉴界面后，重新打开时宠物旋转角度恢复到默认</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>显示   碎片</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>碎片</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>item_type_chip</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>碎片条</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>显示出玩家拥有的该宠物碎片数量占该宠物合成需求的碎片数量比例</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>上方数字显示格式：n/m，n为玩家拥有的该宠物碎片数量，m为该宠物合成需求的碎片数量</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>整体居中显示</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>n有上限限制么</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>若n&gt;=m，则显示为填充满的装填</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>没有</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>单选按钮</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>万能宠物碎片图标</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>玩家拥有的万能宠物碎片数量</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>单选控件</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>显示位置</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>见示意图</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>出现/隐藏规则</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>宠物合成界面出现时出现</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>控件操作</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>单选控件普通状态时，点击后变为选中状态</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>——》</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>单选控件选中状态时，点击后变为普通状态</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>——》</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>按钮样式</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>普通</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>选中</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>音效</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>事件</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>音效资源</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>点击控件</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>待回归</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>万能宠物碎片图标</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>这个位置的万能碎片图标需要缩小版的icon图标，且该icon图标响应点击，弹出万能碎片的tips（tips符合通用规范）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>显示玩家拥有量</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>召唤按钮</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>控件类型</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>按钮</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>出现/隐藏规则</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>该界面出现时出现</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>按钮文案</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>召唤</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>handbook_zhaohuan</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>因为按钮大小固定，翻译成其他国家文字很难保证不超出</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>按钮操作</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>当玩家拥有的材料不满足该宠物召唤需求时，点击按钮弹出提示信息handbook_record_001；</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>建议，可点并提示im</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>不满足该宠物召唤需求：</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>1）当玩家未选择万能碎片时，判断玩家拥有的宠物碎片数量a与召唤该宠物需要的碎片数量b的关系，</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>若a&gt;=b，则满足召唤需求；否则为不满足。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>勘误，选择万能碎片时</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>已选择吧</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>2）当玩家选择万能碎片时，判断玩家拥有的宠物碎片数量a、万能碎片数量c与召唤该宠物需要的碎片数量b的关系，</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>是道具，但是背包不显示</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片是道具么，在背包显示么？</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片逻辑</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>宠物碎片是道具么，在背包显示么？</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>1）万能碎片最大只能替换一定比例的宠物碎片，该比例跟随宠物稀有度变化，宠物每个稀有度都对应一个最大可替换的宠物碎片比例，各稀有度对应比例待定。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>能</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>分解宠物能不能获得万能碎片呢？</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>2）玩家选择使用万能碎片时：</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>为啥是优先消耗万能碎片，而不是优先消耗玩家碎片</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>情况1</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>若玩家拥有的万能碎片足够支付某宠物可替换比例的最大值，则选择了万能碎片后，一定消耗该最大值；</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>这个意思是不是就是说优先消耗万能碎片？</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>情况2</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>数值回答你：优先消耗，万能碎片会投产较多,特定的宠物碎片比较不易得</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>因此，若万能碎片c满足情况1，加上玩家拥有的该宠物碎片的数量a的值&gt;=b，则满足召唤需求；</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">           若万能碎片c满足情况2，加上玩家拥有的该宠物碎片的数量a的值&gt;=b，则满足召唤需求；</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">           否则，为不满足召唤需求。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>按钮正常状态时，点击按钮，弹出二级确认框</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>屏幕中央</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>提示信息</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>确定进行1次召唤吗？</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>handbook_tips1</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1876,7 +1877,7 @@
       </rPr>
       <t>*实际消耗的宠物碎片数量</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1902,211 +1903,211 @@
       </rPr>
       <t>*实际消耗的宠物碎片数量</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>*万能碎片最多只能替换X%的宠物碎片哟！”</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>其中，X跟随宠物稀有度变化</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>handbook_tips</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>显示的下</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>直接显示碎片图标也行吧？</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>根据实际消耗的碎片数量显示，若玩家未选择使用万能碎片，则不显示万能碎片数量那一行及提示信息</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>万能碎片不用图标么</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>同上</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>点击取消按钮，关闭二级，不进行召唤操作，回到宠物召唤界面（宠物召唤界面状态保持与开启二级之前相同）；</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>点击确定按钮，关闭二级，进行召唤操作，扣除实际消耗的碎片，进入获得宠物展示阶段。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>感觉采用变暗处理就行了</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>有背景好看一些~炫酷一些~</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>展示完成后，回到宠物合成界面，界面宠物碎片与万能碎片数量刷新为扣除之前召唤消耗之后的量，万能碎片的单选按钮均变为未选中状态（无论召唤前是否选中）。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>按钮样式</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>按下</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>事件</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>基础属性区域</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>显示1级白色宠物属性？</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>显示宠物基础属性</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>基础属性标题</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>顺序如图？</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>基础属性数值</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>基础属性标题、基础属性数值</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>文字效果与“装备属性界面”相同即可，基础属性数值此处排版如图所示（包含顺序）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>基础属性数值显示的是1级白色宠物的</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>显示宠物拥有的技能</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>技能顺序？</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>技能图标列表</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>有顺序需求么，小招在前大招在后</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>显示出该宠物拥有的所有技能icon</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>优先排从左至右排列</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>排列顺序</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>大招，物理，法术，buff，被动</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>如果某个怪没有其中得某个技能，则后面的依次提前</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>技能icon响应点击，点击弹出tips</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>技能tips规范详见文档《阵容选择界面》的“UI规则”切页</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>显示可以获得该宠物碎片的途径介绍</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>具体获得途径</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>宠物碎片</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>道具那边写的好像不是太详细，也没有提到商城</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>道具里面的获得途径待定，这里也待定么？</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>例子是瞎写的。。。别介意。。。具体有什么都跟着道具那边的规则走</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>显示规则同道具tips中的获得途径</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>因为规则和道具的完全一致，唯一区别就是这里显示的字体可能大一些（还是美术定，我只是预估），所以这里都是跟着道具的（道具待定，那这个也得待定）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>需要在unitData表中增加三列，此三列配置与功能与道具item表表示获得途径的三列完全相同</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>符合道具tips中的获得途径逻辑</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>详见文档《道具产出配置》</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>PS：美术需定义在此界面显示的字体大小，由于和tips页面大小不同，所以显示上文字大小应有不同</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>基础属性区域</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2122,185 +2123,185 @@
       </rPr>
       <t>80,64,153,46,115</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>技能区域</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>技能区域</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>获得途径切页标签</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>控件类型</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>标签页</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>显示位置</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>见图1</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>显示形式</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>横向</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>合成页面出现时出现</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>标签页文案</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>多语言ID</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>分页签显示顺序为 宠物、宠物碎片</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>pet_list_title</t>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>宠物碎片</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>标签页操作</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>采用默认</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>标签页样式</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>普通</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>按下</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>选中</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>音效</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>事件</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>音效资源</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>点击按钮</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>待回归</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>handbook_petsuipian</t>
   </si>
   <si>
     <t>有的属性莫名其妙的减了1</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>回归部分修改内容</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>增加策划验收切页</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>提示信息中的X%的X没进行替换</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>切换宠物按钮</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>切换宠物按钮</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>需求同宠物界面</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>选中</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>1）通过“玩家拥有宠物界面”的“图鉴”按钮进入</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>删除主界面入口需求</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>当玩家在宠物界面与图鉴界面之间切换时，保持右侧切页标签选中状态不改变</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>补充图鉴与宠物界面切换时右侧页签选择状态不变的规则</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>需要在unitData表中增加一列，此列配置与功能与道具item表表示获得途径的完全相同</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>三方后（获得途径）回归问题（1.修改配置增加列为1列；2.删掉获得途径位置的滑动需求）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>该比例与稀有度关系固定（类似合成宝石的权重规则），配在unitRarity.csv中</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>配置表结构：</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>rarity</t>
@@ -2325,7 +2326,7 @@
   </si>
   <si>
     <t>提示信息</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2351,19 +2352,19 @@
       </rPr>
       <t>*万能碎片最多只能替换X%的宠物碎片哟！”</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>*万能碎片最多只能替换X%的宠物碎片哟！</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>宠物合成界面增加提示信息显示</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>按照程序实现方式回归万能碎片与稀有度关系的配置方式</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>宠物与物品掉落配置表解析</t>
@@ -2376,7 +2377,7 @@
   </si>
   <si>
     <t>回归任务拆分</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2392,19 +2393,19 @@
       </rPr>
       <t>con响应点击，弹出tips，符合tips通用逻辑</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>宠物获得途径</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>宠物、宠物碎片指引跳转</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>1）点击红色指引未弹出提示</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2420,32 +2421,63 @@
       </rPr>
       <t>S：只验收了合成分解、副本跳转</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>（开启等级限制等相关设计内容缺失）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>添加宠物获得途径指引验收</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>合成得到的宠物性格固定，从u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nitData配置表读取</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成得到的宠物性格固定</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2694,7 +2726,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2764,6 +2796,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF1BBFA4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2975,342 +3013,347 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="34" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="10" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="33" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="10" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3392,8 +3435,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1575290" y="937848"/>
-          <a:ext cx="5546479" cy="3676402"/>
+          <a:off x="1572741" y="925743"/>
+          <a:ext cx="5536285" cy="3584338"/>
           <a:chOff x="7114443" y="1084386"/>
           <a:chExt cx="5546480" cy="3676402"/>
         </a:xfrm>
@@ -3990,14 +4033,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>410336</xdr:colOff>
-      <xdr:row>224</xdr:row>
-      <xdr:rowOff>138560</xdr:rowOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>138561</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4028,14 +4071,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>8282</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>165652</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>177968</xdr:colOff>
-      <xdr:row>207</xdr:row>
-      <xdr:rowOff>24038</xdr:rowOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>24037</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4066,13 +4109,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>670892</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>149087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>456142</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>140184</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5058,13 +5101,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>115956</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>149087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>149088</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5108,13 +5151,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>177247</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>94421</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>108915</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>94422</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5158,13 +5201,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>33131</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>33130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>162980</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>5034</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5196,13 +5239,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>124240</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>107674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>55908</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>107675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5246,13 +5289,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>438978</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>74543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>370646</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>74544</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5558,13 +5601,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>160683</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:row>223</xdr:row>
       <xdr:rowOff>127553</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>306456</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:row>223</xdr:row>
       <xdr:rowOff>140804</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8589,10 +8632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H45"/>
+  <dimension ref="A2:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -8651,17 +8694,17 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="141" t="s">
+      <c r="B12" s="142" t="s">
         <v>172</v>
       </c>
-      <c r="C12" s="142"/>
-      <c r="D12" s="143" t="s">
+      <c r="C12" s="143"/>
+      <c r="D12" s="144" t="s">
         <v>173</v>
       </c>
-      <c r="E12" s="143"/>
-      <c r="F12" s="143"/>
-      <c r="G12" s="143"/>
-      <c r="H12" s="144"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="145"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="25" t="s">
@@ -8670,76 +8713,76 @@
       <c r="C13" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="138"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="139"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="25" t="s">
         <v>176</v>
       </c>
       <c r="C14" s="27"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="147"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="147"/>
+      <c r="H14" s="148"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="25" t="s">
         <v>177</v>
       </c>
       <c r="C15" s="27"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="149"/>
-      <c r="H15" s="150"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="150"/>
+      <c r="G15" s="150"/>
+      <c r="H15" s="151"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="139"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B17" s="25" t="s">
         <v>179</v>
       </c>
       <c r="C17" s="26"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B18" s="25" t="s">
         <v>180</v>
       </c>
       <c r="C18" s="26"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="138"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="139"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="28" t="s">
         <v>181</v>
       </c>
       <c r="C19" s="29"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="141"/>
     </row>
     <row r="20" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -9011,30 +9054,45 @@
         <v>575</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="21" t="s">
+    <row r="44" spans="1:8" s="93" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="106"/>
+      <c r="C44" s="108">
+        <v>42384</v>
+      </c>
+      <c r="D44" s="107"/>
+      <c r="E44" s="153"/>
+      <c r="F44" s="107"/>
+      <c r="G44" s="107" t="s">
+        <v>576</v>
+      </c>
+      <c r="H44" s="113" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C45" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D45" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E45" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
       <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="G46" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -9048,7 +9106,7 @@
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="D16:H16"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H27" location="获得途径子标题1" display="2、获得途径修改"/>
     <hyperlink ref="H26" location="技能tips规范详见文档《阵容选择界面》的“UI规则”切页" display="1、修改技能tips指引文档"/>
@@ -9060,6 +9118,7 @@
     <hyperlink ref="H38" location="当玩家在宠物界面与图鉴界面之间切换时_保持右侧切页标签选中状态不改变" display="补充图鉴与宠物界面切换时右侧页签选择状态不变的规则"/>
     <hyperlink ref="H40" location="该比例与稀有度关系固定_类似合成宝石的权重规则__配在unitRarity.csv中" display="按照程序实现方式回归万能碎片与稀有度关系的配置方式"/>
     <hyperlink ref="H41" location="提示信息" display="宠物合成界面增加提示信息显示"/>
+    <hyperlink ref="H44" location="合成得到的宠物性格固定_从unitData配置表读取" display="合成得到的宠物性格固定"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9069,7 +9128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB88"/>
   <sheetViews>
-    <sheetView topLeftCell="C70" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
@@ -9081,34 +9140,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:28" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="C1" s="151" t="s">
+      <c r="C1" s="152" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="151"/>
-      <c r="S1" s="151"/>
-      <c r="T1" s="151"/>
-      <c r="U1" s="151"/>
-      <c r="V1" s="151"/>
-      <c r="W1" s="151"/>
-      <c r="X1" s="151"/>
-      <c r="Y1" s="151"/>
-      <c r="Z1" s="151"/>
-      <c r="AA1" s="151"/>
-      <c r="AB1" s="151"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="152"/>
+      <c r="P1" s="152"/>
+      <c r="Q1" s="152"/>
+      <c r="R1" s="152"/>
+      <c r="S1" s="152"/>
+      <c r="T1" s="152"/>
+      <c r="U1" s="152"/>
+      <c r="V1" s="152"/>
+      <c r="W1" s="152"/>
+      <c r="X1" s="152"/>
+      <c r="Y1" s="152"/>
+      <c r="Z1" s="152"/>
+      <c r="AA1" s="152"/>
+      <c r="AB1" s="152"/>
     </row>
     <row r="3" spans="3:28" x14ac:dyDescent="0.35">
       <c r="G3" s="1" t="s">
@@ -9586,7 +9645,7 @@
   <mergeCells count="1">
     <mergeCell ref="C1:AB1"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="notContainsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(B1))&gt;0</formula>
@@ -9605,10 +9664,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB256"/>
+  <dimension ref="A1:AB258"/>
   <sheetViews>
-    <sheetView topLeftCell="C232" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O247" sqref="O247"/>
+    <sheetView topLeftCell="C145" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H165" sqref="H165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -9619,34 +9678,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:28" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="C1" s="151" t="s">
+      <c r="C1" s="152" t="s">
         <v>337</v>
       </c>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="151"/>
-      <c r="S1" s="151"/>
-      <c r="T1" s="151"/>
-      <c r="U1" s="151"/>
-      <c r="V1" s="151"/>
-      <c r="W1" s="151"/>
-      <c r="X1" s="151"/>
-      <c r="Y1" s="151"/>
-      <c r="Z1" s="151"/>
-      <c r="AA1" s="151"/>
-      <c r="AB1" s="151"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="152"/>
+      <c r="P1" s="152"/>
+      <c r="Q1" s="152"/>
+      <c r="R1" s="152"/>
+      <c r="S1" s="152"/>
+      <c r="T1" s="152"/>
+      <c r="U1" s="152"/>
+      <c r="V1" s="152"/>
+      <c r="W1" s="152"/>
+      <c r="X1" s="152"/>
+      <c r="Y1" s="152"/>
+      <c r="Z1" s="152"/>
+      <c r="AA1" s="152"/>
+      <c r="AB1" s="152"/>
     </row>
     <row r="3" spans="3:28" x14ac:dyDescent="0.35">
       <c r="G3" s="91" t="s">
@@ -11143,216 +11202,205 @@
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="G164" s="97" t="s">
+      <c r="A164" s="111"/>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A165" s="111"/>
+      <c r="H165" s="154" t="s">
+        <v>577</v>
+      </c>
+      <c r="I165" s="155"/>
+      <c r="J165" s="155"/>
+      <c r="K165" s="155"/>
+      <c r="L165" s="155"/>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G166" s="97" t="s">
         <v>468</v>
       </c>
-      <c r="H164" s="98"/>
-      <c r="I164" s="98"/>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="G165" s="97"/>
-      <c r="H165" s="98" t="s">
+      <c r="H166" s="98"/>
+      <c r="I166" s="98"/>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G167" s="97"/>
+      <c r="H167" s="98" t="s">
         <v>403</v>
       </c>
-      <c r="I165" s="100"/>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="G166" s="97"/>
-      <c r="H166" s="98" t="s">
+      <c r="I167" s="100"/>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G168" s="97"/>
+      <c r="H168" s="98" t="s">
         <v>469</v>
       </c>
-      <c r="I166" s="100"/>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="G167" s="97" t="s">
+      <c r="I168" s="100"/>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G169" s="97" t="s">
         <v>405</v>
       </c>
-      <c r="H167" s="98"/>
-      <c r="I167" s="98"/>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="H168" s="98" t="s">
+      <c r="H169" s="98"/>
+      <c r="I169" s="98"/>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H170" s="98" t="s">
         <v>470</v>
       </c>
-      <c r="I168" s="98" t="s">
+      <c r="I170" s="98" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="H169" s="98" t="s">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H171" s="98" t="s">
         <v>471</v>
       </c>
-      <c r="I169" s="101" t="s">
+      <c r="I171" s="101" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="F170" s="92" t="s">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F172" s="92" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A171" s="110" t="s">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A173" s="110" t="s">
         <v>473</v>
       </c>
-      <c r="G171" s="91" t="s">
+      <c r="G173" s="91" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A172" s="95"/>
-      <c r="G172" s="91" t="s">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A174" s="95"/>
+      <c r="G174" s="91" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B173" s="91" t="s">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B175" s="91" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="G175" s="91" t="s">
+    <row r="177" spans="7:15" x14ac:dyDescent="0.35">
+      <c r="G177" s="91" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="180" spans="6:15" x14ac:dyDescent="0.35">
-      <c r="H180" s="105" t="s">
+    <row r="182" spans="7:15" x14ac:dyDescent="0.35">
+      <c r="H182" s="105" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="181" spans="6:15" x14ac:dyDescent="0.35">
-      <c r="I181" s="91" t="s">
+    <row r="183" spans="7:15" x14ac:dyDescent="0.35">
+      <c r="I183" s="91" t="s">
         <v>479</v>
       </c>
-      <c r="O181" s="95"/>
-    </row>
-    <row r="185" spans="6:15" x14ac:dyDescent="0.35">
-      <c r="I185" s="94" t="s">
+      <c r="O183" s="95"/>
+    </row>
+    <row r="187" spans="7:15" x14ac:dyDescent="0.35">
+      <c r="I187" s="94" t="s">
         <v>368</v>
       </c>
-      <c r="J185" s="91" t="s">
+      <c r="J187" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="K185" s="91" t="s">
+      <c r="K187" s="91" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="186" spans="6:15" x14ac:dyDescent="0.35">
-      <c r="J186" s="91" t="s">
+    <row r="188" spans="7:15" x14ac:dyDescent="0.35">
+      <c r="J188" s="91" t="s">
         <v>148</v>
       </c>
-      <c r="K186" s="91" t="s">
+      <c r="K188" s="91" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="187" spans="6:15" x14ac:dyDescent="0.35">
-      <c r="J187" s="91" t="s">
+    <row r="189" spans="7:15" x14ac:dyDescent="0.35">
+      <c r="J189" s="91" t="s">
         <v>149</v>
       </c>
-      <c r="K187" s="91" t="s">
+      <c r="K189" s="91" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="188" spans="6:15" x14ac:dyDescent="0.35">
-      <c r="J188" s="91" t="s">
+    <row r="190" spans="7:15" x14ac:dyDescent="0.35">
+      <c r="J190" s="91" t="s">
         <v>150</v>
       </c>
-      <c r="K188" s="91" t="s">
+      <c r="K190" s="91" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="189" spans="6:15" x14ac:dyDescent="0.35">
-      <c r="J189" s="91" t="s">
+    <row r="191" spans="7:15" x14ac:dyDescent="0.35">
+      <c r="J191" s="91" t="s">
         <v>151</v>
       </c>
-      <c r="K189" s="91" t="s">
+      <c r="K191" s="91" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="190" spans="6:15" x14ac:dyDescent="0.35">
-      <c r="J190" s="91" t="s">
+    <row r="192" spans="7:15" x14ac:dyDescent="0.35">
+      <c r="J192" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="K190" s="91" t="s">
+      <c r="K192" s="91" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="191" spans="6:15" x14ac:dyDescent="0.35">
-      <c r="I191" s="95" t="s">
+    <row r="193" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="I193" s="95" t="s">
         <v>480</v>
       </c>
-      <c r="J191" s="95"/>
-      <c r="K191" s="95"/>
-      <c r="L191" s="95"/>
-    </row>
-    <row r="192" spans="6:15" x14ac:dyDescent="0.35">
-      <c r="F192" s="92" t="s">
+      <c r="J193" s="95"/>
+      <c r="K193" s="95"/>
+      <c r="L193" s="95"/>
+    </row>
+    <row r="194" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="F194" s="92" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="G193" s="91" t="s">
+    <row r="195" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="G195" s="91" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B195" s="91" t="s">
+    <row r="197" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B197" s="91" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="G197" s="91" t="s">
+    <row r="199" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="G199" s="91" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="H209" s="92" t="s">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="H211" s="92" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A210" s="110" t="s">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A212" s="110" t="s">
         <v>484</v>
       </c>
-      <c r="I210" s="91" t="s">
+      <c r="I212" s="91" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I211" s="91" t="s">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I213" s="91" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="H212" s="95"/>
-      <c r="I212" s="95" t="s">
-        <v>487</v>
-      </c>
-      <c r="J212" s="95"/>
-      <c r="K212" s="95"/>
-      <c r="L212" s="95"/>
-      <c r="M212" s="95"/>
-      <c r="N212" s="95"/>
-      <c r="O212" s="95"/>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="H213" s="95"/>
-      <c r="I213" s="95"/>
-      <c r="J213" s="95" t="s">
-        <v>488</v>
-      </c>
-      <c r="K213" s="95"/>
-      <c r="L213" s="95"/>
-      <c r="M213" s="95"/>
-      <c r="N213" s="95"/>
-      <c r="O213" s="95"/>
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.35">
       <c r="H214" s="95"/>
-      <c r="I214" s="95"/>
-      <c r="J214" s="95" t="s">
-        <v>489</v>
-      </c>
+      <c r="I214" s="95" t="s">
+        <v>487</v>
+      </c>
+      <c r="J214" s="95"/>
       <c r="K214" s="95"/>
       <c r="L214" s="95"/>
       <c r="M214" s="95"/>
@@ -11361,10 +11409,10 @@
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.35">
       <c r="H215" s="95"/>
-      <c r="I215" s="95" t="s">
-        <v>490</v>
-      </c>
-      <c r="J215" s="95"/>
+      <c r="I215" s="95"/>
+      <c r="J215" s="95" t="s">
+        <v>488</v>
+      </c>
       <c r="K215" s="95"/>
       <c r="L215" s="95"/>
       <c r="M215" s="95"/>
@@ -11373,10 +11421,10 @@
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.35">
       <c r="H216" s="95"/>
-      <c r="I216" s="95" t="s">
-        <v>491</v>
-      </c>
-      <c r="J216" s="95"/>
+      <c r="I216" s="95"/>
+      <c r="J216" s="95" t="s">
+        <v>489</v>
+      </c>
       <c r="K216" s="95"/>
       <c r="L216" s="95"/>
       <c r="M216" s="95"/>
@@ -11384,53 +11432,59 @@
       <c r="O216" s="95"/>
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="F217" s="92" t="s">
+      <c r="H217" s="95"/>
+      <c r="I217" s="95" t="s">
+        <v>490</v>
+      </c>
+      <c r="J217" s="95"/>
+      <c r="K217" s="95"/>
+      <c r="L217" s="95"/>
+      <c r="M217" s="95"/>
+      <c r="N217" s="95"/>
+      <c r="O217" s="95"/>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="H218" s="95"/>
+      <c r="I218" s="95" t="s">
+        <v>491</v>
+      </c>
+      <c r="J218" s="95"/>
+      <c r="K218" s="95"/>
+      <c r="L218" s="95"/>
+      <c r="M218" s="95"/>
+      <c r="N218" s="95"/>
+      <c r="O218" s="95"/>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="F219" s="92" t="s">
         <v>346</v>
-      </c>
-    </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="G218" s="91" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.35">
       <c r="G220" s="91" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.35">
       <c r="G222" s="91" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="G224" s="91" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="227" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H227" s="118" t="s">
+    <row r="229" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H229" s="118" t="s">
         <v>509</v>
       </c>
-      <c r="I227" s="117"/>
-    </row>
-    <row r="228" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H228" s="117"/>
-      <c r="I228" s="119" t="s">
-        <v>510</v>
-      </c>
-      <c r="J228" s="98"/>
-      <c r="K228" s="98"/>
-      <c r="L228" s="98"/>
-    </row>
-    <row r="229" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H229" s="117"/>
-      <c r="I229" s="119"/>
-      <c r="J229" s="98" t="s">
-        <v>511</v>
-      </c>
-      <c r="K229" s="98"/>
-      <c r="L229" s="98"/>
+      <c r="I229" s="117"/>
     </row>
     <row r="230" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H230" s="117"/>
       <c r="I230" s="119" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="J230" s="98"/>
       <c r="K230" s="98"/>
@@ -11440,7 +11494,7 @@
       <c r="H231" s="117"/>
       <c r="I231" s="119"/>
       <c r="J231" s="98" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="K231" s="98"/>
       <c r="L231" s="98"/>
@@ -11448,7 +11502,7 @@
     <row r="232" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H232" s="117"/>
       <c r="I232" s="119" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="J232" s="98"/>
       <c r="K232" s="98"/>
@@ -11458,7 +11512,7 @@
       <c r="H233" s="117"/>
       <c r="I233" s="119"/>
       <c r="J233" s="98" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="K233" s="98"/>
       <c r="L233" s="98"/>
@@ -11466,7 +11520,7 @@
     <row r="234" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H234" s="117"/>
       <c r="I234" s="119" t="s">
-        <v>127</v>
+        <v>514</v>
       </c>
       <c r="J234" s="98"/>
       <c r="K234" s="98"/>
@@ -11476,7 +11530,7 @@
       <c r="H235" s="117"/>
       <c r="I235" s="119"/>
       <c r="J235" s="98" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K235" s="98"/>
       <c r="L235" s="98"/>
@@ -11484,76 +11538,74 @@
     <row r="236" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H236" s="117"/>
       <c r="I236" s="119" t="s">
-        <v>517</v>
+        <v>127</v>
       </c>
       <c r="J236" s="98"/>
       <c r="K236" s="98"/>
       <c r="L236" s="98"/>
-      <c r="M236" s="98"/>
     </row>
     <row r="237" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H237" s="117"/>
       <c r="I237" s="119"/>
-      <c r="J237" s="99" t="s">
-        <v>519</v>
-      </c>
-      <c r="K237" s="99"/>
-      <c r="L237" s="99"/>
-      <c r="M237" s="99"/>
+      <c r="J237" s="98" t="s">
+        <v>516</v>
+      </c>
+      <c r="K237" s="98"/>
+      <c r="L237" s="98"/>
     </row>
     <row r="238" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H238" s="117"/>
-      <c r="I238" s="119"/>
-      <c r="J238" s="94" t="s">
-        <v>518</v>
-      </c>
-      <c r="K238" s="99" t="s">
-        <v>521</v>
-      </c>
-      <c r="L238" s="99" t="s">
-        <v>520</v>
-      </c>
-      <c r="M238" s="99"/>
+      <c r="I238" s="119" t="s">
+        <v>517</v>
+      </c>
+      <c r="J238" s="98"/>
+      <c r="K238" s="98"/>
+      <c r="L238" s="98"/>
+      <c r="M238" s="98"/>
     </row>
     <row r="239" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H239" s="117"/>
       <c r="I239" s="119"/>
-      <c r="J239" s="99"/>
-      <c r="K239" s="99" t="s">
-        <v>522</v>
-      </c>
-      <c r="L239" s="95" t="s">
-        <v>534</v>
-      </c>
+      <c r="J239" s="99" t="s">
+        <v>519</v>
+      </c>
+      <c r="K239" s="99"/>
+      <c r="L239" s="99"/>
       <c r="M239" s="99"/>
     </row>
     <row r="240" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H240" s="117"/>
-      <c r="I240" s="119" t="s">
-        <v>523</v>
-      </c>
-      <c r="J240" s="100"/>
-      <c r="K240" s="100"/>
-      <c r="L240" s="95"/>
+      <c r="I240" s="119"/>
+      <c r="J240" s="94" t="s">
+        <v>518</v>
+      </c>
+      <c r="K240" s="99" t="s">
+        <v>521</v>
+      </c>
+      <c r="L240" s="99" t="s">
+        <v>520</v>
+      </c>
       <c r="M240" s="99"/>
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.35">
       <c r="H241" s="117"/>
       <c r="I241" s="119"/>
-      <c r="J241" s="100" t="s">
-        <v>524</v>
-      </c>
-      <c r="K241" s="100"/>
-      <c r="L241" s="95"/>
+      <c r="J241" s="99"/>
+      <c r="K241" s="99" t="s">
+        <v>522</v>
+      </c>
+      <c r="L241" s="95" t="s">
+        <v>534</v>
+      </c>
       <c r="M241" s="99"/>
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.35">
       <c r="H242" s="117"/>
       <c r="I242" s="119" t="s">
-        <v>525</v>
-      </c>
-      <c r="J242" s="98"/>
-      <c r="K242" s="98"/>
+        <v>523</v>
+      </c>
+      <c r="J242" s="100"/>
+      <c r="K242" s="100"/>
       <c r="L242" s="95"/>
       <c r="M242" s="99"/>
     </row>
@@ -11561,7 +11613,7 @@
       <c r="H243" s="117"/>
       <c r="I243" s="119"/>
       <c r="J243" s="100" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K243" s="100"/>
       <c r="L243" s="95"/>
@@ -11569,11 +11621,11 @@
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.35">
       <c r="H244" s="117"/>
-      <c r="I244" s="119"/>
-      <c r="J244" s="100" t="s">
-        <v>527</v>
-      </c>
-      <c r="K244" s="100"/>
+      <c r="I244" s="119" t="s">
+        <v>525</v>
+      </c>
+      <c r="J244" s="98"/>
+      <c r="K244" s="98"/>
       <c r="L244" s="95"/>
       <c r="M244" s="99"/>
     </row>
@@ -11581,7 +11633,7 @@
       <c r="H245" s="117"/>
       <c r="I245" s="119"/>
       <c r="J245" s="100" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="K245" s="100"/>
       <c r="L245" s="95"/>
@@ -11589,83 +11641,72 @@
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.35">
       <c r="H246" s="117"/>
-      <c r="I246" s="119" t="s">
-        <v>529</v>
-      </c>
-      <c r="J246" s="100"/>
+      <c r="I246" s="119"/>
+      <c r="J246" s="100" t="s">
+        <v>527</v>
+      </c>
       <c r="K246" s="100"/>
       <c r="L246" s="95"/>
       <c r="M246" s="99"/>
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.35">
       <c r="H247" s="117"/>
-      <c r="I247" s="120"/>
+      <c r="I247" s="119"/>
       <c r="J247" s="100" t="s">
-        <v>530</v>
-      </c>
-      <c r="K247" s="100" t="s">
-        <v>531</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="K247" s="100"/>
       <c r="L247" s="95"/>
       <c r="M247" s="99"/>
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.35">
       <c r="H248" s="117"/>
-      <c r="I248" s="120"/>
-      <c r="J248" s="100" t="s">
-        <v>532</v>
-      </c>
-      <c r="K248" s="101" t="s">
-        <v>533</v>
-      </c>
+      <c r="I248" s="119" t="s">
+        <v>529</v>
+      </c>
+      <c r="J248" s="100"/>
+      <c r="K248" s="100"/>
       <c r="L248" s="95"/>
       <c r="M248" s="99"/>
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="F249" s="109"/>
-      <c r="H249" s="92" t="s">
+      <c r="H249" s="117"/>
+      <c r="I249" s="120"/>
+      <c r="J249" s="100" t="s">
+        <v>530</v>
+      </c>
+      <c r="K249" s="100" t="s">
+        <v>531</v>
+      </c>
+      <c r="L249" s="95"/>
+      <c r="M249" s="99"/>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="H250" s="117"/>
+      <c r="I250" s="120"/>
+      <c r="J250" s="100" t="s">
+        <v>532</v>
+      </c>
+      <c r="K250" s="101" t="s">
+        <v>533</v>
+      </c>
+      <c r="L250" s="95"/>
+      <c r="M250" s="99"/>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="F251" s="109"/>
+      <c r="H251" s="92" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B250" s="91" t="s">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B252" s="91" t="s">
         <v>496</v>
       </c>
-      <c r="I250" s="117" t="s">
+      <c r="I252" s="117" t="s">
         <v>494</v>
       </c>
-      <c r="J250" s="117"/>
-      <c r="K250" s="117"/>
-      <c r="L250" s="117"/>
-      <c r="M250" s="117"/>
-      <c r="N250" s="117"/>
-      <c r="O250" s="117"/>
-    </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A251" s="110" t="s">
-        <v>497</v>
-      </c>
-      <c r="B251" s="111" t="s">
-        <v>498</v>
-      </c>
-      <c r="I251" s="117"/>
-      <c r="J251" s="117" t="s">
-        <v>499</v>
-      </c>
-      <c r="K251" s="117"/>
-      <c r="L251" s="117"/>
-      <c r="M251" s="117"/>
-      <c r="N251" s="117"/>
-      <c r="O251" s="117"/>
-    </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A252" s="111" t="s">
-        <v>500</v>
-      </c>
-      <c r="I252" s="117"/>
-      <c r="J252" s="130" t="s">
-        <v>548</v>
-      </c>
+      <c r="J252" s="117"/>
       <c r="K252" s="117"/>
       <c r="L252" s="117"/>
       <c r="M252" s="117"/>
@@ -11673,10 +11714,16 @@
       <c r="O252" s="117"/>
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I253" s="117" t="s">
-        <v>495</v>
-      </c>
-      <c r="J253" s="117"/>
+      <c r="A253" s="110" t="s">
+        <v>497</v>
+      </c>
+      <c r="B253" s="111" t="s">
+        <v>498</v>
+      </c>
+      <c r="I253" s="117"/>
+      <c r="J253" s="117" t="s">
+        <v>499</v>
+      </c>
       <c r="K253" s="117"/>
       <c r="L253" s="117"/>
       <c r="M253" s="117"/>
@@ -11684,9 +11731,12 @@
       <c r="O253" s="117"/>
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A254" s="111" t="s">
+        <v>500</v>
+      </c>
       <c r="I254" s="117"/>
-      <c r="J254" s="117" t="s">
-        <v>502</v>
+      <c r="J254" s="130" t="s">
+        <v>548</v>
       </c>
       <c r="K254" s="117"/>
       <c r="L254" s="117"/>
@@ -11695,10 +11745,10 @@
       <c r="O254" s="117"/>
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I255" s="117"/>
-      <c r="J255" s="117" t="s">
-        <v>503</v>
-      </c>
+      <c r="I255" s="117" t="s">
+        <v>495</v>
+      </c>
+      <c r="J255" s="117"/>
       <c r="K255" s="117"/>
       <c r="L255" s="117"/>
       <c r="M255" s="117"/>
@@ -11706,7 +11756,29 @@
       <c r="O255" s="117"/>
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I256" s="91" t="s">
+      <c r="I256" s="117"/>
+      <c r="J256" s="117" t="s">
+        <v>502</v>
+      </c>
+      <c r="K256" s="117"/>
+      <c r="L256" s="117"/>
+      <c r="M256" s="117"/>
+      <c r="N256" s="117"/>
+      <c r="O256" s="117"/>
+    </row>
+    <row r="257" spans="9:15" x14ac:dyDescent="0.35">
+      <c r="I257" s="117"/>
+      <c r="J257" s="117" t="s">
+        <v>503</v>
+      </c>
+      <c r="K257" s="117"/>
+      <c r="L257" s="117"/>
+      <c r="M257" s="117"/>
+      <c r="N257" s="117"/>
+      <c r="O257" s="117"/>
+    </row>
+    <row r="258" spans="9:15" x14ac:dyDescent="0.35">
+      <c r="I258" s="91" t="s">
         <v>504</v>
       </c>
     </row>
@@ -11714,13 +11786,13 @@
   <mergeCells count="1">
     <mergeCell ref="C1:AB1"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B36 B38:B46 B252:B1048576 B48:B250">
+  <phoneticPr fontId="18" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B36 B38:B46 B254:B1048576 B48:B252">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A35 A119:A123 A132:A133 A164:A171 A135:A162 A253:A1048576 A173:A251 A47:A74 A76:A117">
+  <conditionalFormatting sqref="A1:A35 A119:A123 A132:A133 A166:A173 A135:A162 A255:A1048576 A175:A253 A47:A74 A76:A117">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
@@ -11966,7 +12038,7 @@
       <c r="B21" s="53"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15531,7 +15603,7 @@
       <c r="X160" s="95"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="R64" location="若右侧列表存在该道具条目_则直接堆叠数量加1" display="进入列表的处理快速通道"/>
   </hyperlinks>
@@ -15764,7 +15836,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16064,24 +16136,24 @@
       <c r="B27" s="80">
         <v>1</v>
       </c>
-      <c r="C27" s="152" t="s">
+      <c r="C27" s="137" t="s">
         <v>570</v>
       </c>
-      <c r="D27" s="152"/>
-      <c r="E27" s="152" t="s">
+      <c r="D27" s="137"/>
+      <c r="E27" s="137" t="s">
         <v>571</v>
       </c>
-      <c r="J27" s="152" t="s">
+      <c r="J27" s="137" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F28" s="152" t="s">
+      <c r="F28" s="137" t="s">
         <v>572</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -16550,7 +16622,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
